--- a/AfDD_2023_Annex_Table_Tab26.xlsx
+++ b/AfDD_2023_Annex_Table_Tab26.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab26" sheetId="1" r:id="rId1"/>

--- a/AfDD_2023_Annex_Table_Tab26.xlsx
+++ b/AfDD_2023_Annex_Table_Tab26.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C5F62B6-FBF5-4590-A6FE-DBBAFBBE56ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A98A54B6-7263-4BC8-90AA-980FD0A94F2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{3DF82EEA-A14E-45F0-B274-CFC7E48D9750}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{587E032C-9F3F-4314-A9EA-849983ECC7EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab26" sheetId="1" r:id="rId1"/>
@@ -105,7 +105,7 @@
     <t>Electric power capacity from biofuels in Megawatts (MW), 2020</t>
   </si>
   <si>
-    <t>Electric power capacityrenewable energy n.e.s. in Megawatts (MW), 2020</t>
+    <t>Electric power capacity renewable energy n.e.s. in Megawatts (MW), 2020</t>
   </si>
   <si>
     <t>Electric power capacity nuclear power in Megawatts (MW), 2020</t>
@@ -132,7 +132,7 @@
     <t>Electric power generation from biofuels in GigaWatt hours (GWh), 2020</t>
   </si>
   <si>
-    <t>Electric power generationrenewable energy n.e.s. in GigaWatt hours (GWh), 2020</t>
+    <t>Electric power generation renewable energy n.e.s. in GigaWatt hours (GWh), 2020</t>
   </si>
   <si>
     <t>Electric power generation nuclear power in GigaWatt hours (GWh), 2020</t>
@@ -609,7 +609,7 @@
     <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
   </si>
   <si>
-    <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Países Africanos de Língua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Común del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
+    <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Pa&gt;ses Africanos de L&gt;ngua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Com&gt;n del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
     <t>Access to electricity statistics are taken from reported percentages of population with access to electricity reported in World Bank World Development Indicators adjusted with UN estimates of rural, urban, and total populations. Interpolation was used on missing figures, and adjustments were made to total figures consistent with figures for urban and rural populations.</t>
@@ -1373,7 +1373,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AA4616D-D503-46AF-8E93-E54342328170}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{540D6605-A335-4B47-9BB9-CA06ECF066B6}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1472,10 +1472,10 @@
       <c r="O2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="6" t="s">
         <v>17</v>
       </c>
       <c r="R2" s="6" t="s">
@@ -1499,10 +1499,10 @@
       <c r="X2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="Y2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="Z2" s="7" t="s">
+      <c r="Z2" s="6" t="s">
         <v>26</v>
       </c>
       <c r="AA2" s="6" t="s">
@@ -1579,10 +1579,10 @@
       <c r="O3" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="P3" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q3" s="11">
+      <c r="P3" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" s="10">
         <v>13.377000000000001</v>
       </c>
       <c r="R3" s="10" t="s">
@@ -1606,10 +1606,10 @@
       <c r="X3" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="Y3" s="10">
+      <c r="Y3" s="11">
         <v>2136.8560000000002</v>
       </c>
-      <c r="Z3" s="11">
+      <c r="Z3" s="10">
         <v>18.27</v>
       </c>
       <c r="AA3" s="10" t="s">
@@ -1686,10 +1686,10 @@
       <c r="O4" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="P4" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q4" s="14">
+      <c r="P4" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q4" s="13">
         <v>5.9429999999999996</v>
       </c>
       <c r="R4" s="13" t="s">
@@ -1713,10 +1713,10 @@
       <c r="X4" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="Y4" s="13">
+      <c r="Y4" s="14">
         <v>917</v>
       </c>
-      <c r="Z4" s="14">
+      <c r="Z4" s="13">
         <v>5.99</v>
       </c>
       <c r="AA4" s="13" t="s">
@@ -1793,10 +1793,10 @@
       <c r="O5" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="P5" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q5" s="17">
+      <c r="P5" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q5" s="16">
         <v>0.93</v>
       </c>
       <c r="R5" s="16" t="s">
@@ -1820,10 +1820,10 @@
       <c r="X5" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="Y5" s="16">
+      <c r="Y5" s="17">
         <v>9.9</v>
       </c>
-      <c r="Z5" s="17">
+      <c r="Z5" s="16">
         <v>1.27</v>
       </c>
       <c r="AA5" s="16" t="s">
@@ -1900,10 +1900,10 @@
       <c r="O6" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q6" s="17">
+      <c r="P6" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q6" s="16">
         <v>0.36299999999999999</v>
       </c>
       <c r="R6" s="16" t="s">
@@ -1927,10 +1927,10 @@
       <c r="X6" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="Y6" s="16">
+      <c r="Y6" s="17">
         <v>0.12</v>
       </c>
-      <c r="Z6" s="17">
+      <c r="Z6" s="16">
         <v>0.76</v>
       </c>
       <c r="AA6" s="16" t="s">
@@ -2007,10 +2007,10 @@
       <c r="O7" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="P7" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q7" s="17">
+      <c r="P7" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q7" s="16">
         <v>81.5</v>
       </c>
       <c r="R7" s="16" t="s">
@@ -2034,10 +2034,10 @@
       <c r="X7" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="Y7" s="16">
+      <c r="Y7" s="17">
         <v>140.774</v>
       </c>
-      <c r="Z7" s="17">
+      <c r="Z7" s="16">
         <v>167.65</v>
       </c>
       <c r="AA7" s="16" t="s">
@@ -2114,10 +2114,10 @@
       <c r="O8" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="P8" s="16">
+      <c r="P8" s="17">
         <v>574.30709999999999</v>
       </c>
-      <c r="Q8" s="17">
+      <c r="Q8" s="16">
         <v>55</v>
       </c>
       <c r="R8" s="16" t="s">
@@ -2141,10 +2141,10 @@
       <c r="X8" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="Y8" s="16">
+      <c r="Y8" s="17">
         <v>602.39</v>
       </c>
-      <c r="Z8" s="17">
+      <c r="Z8" s="16">
         <v>1.65</v>
       </c>
       <c r="AA8" s="16" t="s">
@@ -2221,10 +2221,10 @@
       <c r="O9" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="P9" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q9" s="17">
+      <c r="P9" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q9" s="16">
         <v>144.958</v>
       </c>
       <c r="R9" s="16">
@@ -2248,10 +2248,10 @@
       <c r="X9" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="Y9" s="16">
+      <c r="Y9" s="17">
         <v>183.31</v>
       </c>
-      <c r="Z9" s="17">
+      <c r="Z9" s="16">
         <v>408.44</v>
       </c>
       <c r="AA9" s="16">
@@ -2328,10 +2328,10 @@
       <c r="O10" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="P10" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q10" s="17">
+      <c r="P10" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q10" s="16">
         <v>5989.5780000000004</v>
       </c>
       <c r="R10" s="16">
@@ -2355,10 +2355,10 @@
       <c r="X10" s="16">
         <v>2732</v>
       </c>
-      <c r="Y10" s="16">
+      <c r="Y10" s="17">
         <v>43126.400000000001</v>
       </c>
-      <c r="Z10" s="17">
+      <c r="Z10" s="16">
         <v>7587.43</v>
       </c>
       <c r="AA10" s="16">
@@ -2435,10 +2435,10 @@
       <c r="O11" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="P11" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q11" s="14">
+      <c r="P11" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q11" s="13">
         <v>96.424000000000007</v>
       </c>
       <c r="R11" s="13" t="s">
@@ -2462,10 +2462,10 @@
       <c r="X11" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="Y11" s="13">
+      <c r="Y11" s="14">
         <v>524.6</v>
       </c>
-      <c r="Z11" s="14">
+      <c r="Z11" s="13">
         <v>163.06</v>
       </c>
       <c r="AA11" s="13" t="s">
@@ -2542,10 +2542,10 @@
       <c r="O12" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="P12" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q12" s="17">
+      <c r="P12" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q12" s="16">
         <v>18.283000000000001</v>
       </c>
       <c r="R12" s="16" t="s">
@@ -2569,10 +2569,10 @@
       <c r="X12" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="Y12" s="16">
+      <c r="Y12" s="17">
         <v>1200</v>
       </c>
-      <c r="Z12" s="17">
+      <c r="Z12" s="16">
         <v>33.520000000000003</v>
       </c>
       <c r="AA12" s="16" t="s">
@@ -2649,10 +2649,10 @@
       <c r="O13" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="P13" s="20">
+      <c r="P13" s="21">
         <v>574.30709999999999</v>
       </c>
-      <c r="Q13" s="21">
+      <c r="Q13" s="20">
         <v>6406.3559999999998</v>
       </c>
       <c r="R13" s="20">
@@ -2676,10 +2676,10 @@
       <c r="X13" s="20">
         <v>2732</v>
       </c>
-      <c r="Y13" s="20">
+      <c r="Y13" s="21">
         <v>48841.35</v>
       </c>
-      <c r="Z13" s="21">
+      <c r="Z13" s="20">
         <v>8388.0400000000009</v>
       </c>
       <c r="AA13" s="20">
@@ -2756,10 +2756,10 @@
       <c r="O14" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="P14" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q14" s="17">
+      <c r="P14" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q14" s="16">
         <v>5.1029999999999998</v>
       </c>
       <c r="R14" s="16" t="s">
@@ -2783,10 +2783,10 @@
       <c r="X14" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="Y14" s="16">
+      <c r="Y14" s="17">
         <v>50.5</v>
       </c>
-      <c r="Z14" s="17">
+      <c r="Z14" s="16">
         <v>7.93</v>
       </c>
       <c r="AA14" s="16" t="s">
@@ -2863,10 +2863,10 @@
       <c r="O15" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="P15" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q15" s="17">
+      <c r="P15" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q15" s="16">
         <v>14.317</v>
       </c>
       <c r="R15" s="16" t="s">
@@ -2890,10 +2890,10 @@
       <c r="X15" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="Y15" s="16">
+      <c r="Y15" s="17">
         <v>705</v>
       </c>
-      <c r="Z15" s="17">
+      <c r="Z15" s="16">
         <v>19.670000000000002</v>
       </c>
       <c r="AA15" s="16" t="s">
@@ -2970,10 +2970,10 @@
       <c r="O16" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="P16" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q16" s="17">
+      <c r="P16" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q16" s="16">
         <v>0.316</v>
       </c>
       <c r="R16" s="16" t="s">
@@ -2997,10 +2997,10 @@
       <c r="X16" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="Y16" s="16">
+      <c r="Y16" s="17">
         <v>22</v>
       </c>
-      <c r="Z16" s="17">
+      <c r="Z16" s="16">
         <v>0.43</v>
       </c>
       <c r="AA16" s="16" t="s">
@@ -3077,10 +3077,10 @@
       <c r="O17" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="P17" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q17" s="24">
+      <c r="P17" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q17" s="23">
         <v>0.72699999999999998</v>
       </c>
       <c r="R17" s="23">
@@ -3104,10 +3104,10 @@
       <c r="X17" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="Y17" s="23">
+      <c r="Y17" s="24">
         <v>282</v>
       </c>
-      <c r="Z17" s="24">
+      <c r="Z17" s="23">
         <v>0.38</v>
       </c>
       <c r="AA17" s="23">
@@ -3184,10 +3184,10 @@
       <c r="O18" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="P18" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q18" s="24">
+      <c r="P18" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q18" s="23">
         <v>0.72</v>
       </c>
       <c r="R18" s="23" t="s">
@@ -3211,10 +3211,10 @@
       <c r="X18" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="Y18" s="23">
+      <c r="Y18" s="24">
         <v>596.66</v>
       </c>
-      <c r="Z18" s="24">
+      <c r="Z18" s="23">
         <v>0.9</v>
       </c>
       <c r="AA18" s="23" t="s">
@@ -3291,10 +3291,10 @@
       <c r="O19" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="P19" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q19" s="14">
+      <c r="P19" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q19" s="13">
         <v>19.927</v>
       </c>
       <c r="R19" s="13" t="s">
@@ -3318,10 +3318,10 @@
       <c r="X19" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="Y19" s="13">
+      <c r="Y19" s="14">
         <v>29</v>
       </c>
-      <c r="Z19" s="14">
+      <c r="Z19" s="13">
         <v>28.14</v>
       </c>
       <c r="AA19" s="13" t="s">
@@ -3398,10 +3398,10 @@
       <c r="O20" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="P20" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q20" s="24" t="s">
+      <c r="P20" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q20" s="23" t="s">
         <v>37</v>
       </c>
       <c r="R20" s="23" t="s">
@@ -3425,10 +3425,10 @@
       <c r="X20" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="Y20" s="23">
+      <c r="Y20" s="24">
         <v>273.971</v>
       </c>
-      <c r="Z20" s="24" t="s">
+      <c r="Z20" s="23" t="s">
         <v>37</v>
       </c>
       <c r="AA20" s="23" t="s">
@@ -3505,10 +3505,10 @@
       <c r="O21" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="P21" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q21" s="24">
+      <c r="P21" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q21" s="23">
         <v>1.4</v>
       </c>
       <c r="R21" s="23" t="s">
@@ -3532,10 +3532,10 @@
       <c r="X21" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="Y21" s="23">
+      <c r="Y21" s="24">
         <v>279.47000000000003</v>
       </c>
-      <c r="Z21" s="24">
+      <c r="Z21" s="23">
         <v>1.92</v>
       </c>
       <c r="AA21" s="23" t="s">
@@ -3612,10 +3612,10 @@
       <c r="O22" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="P22" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q22" s="17">
+      <c r="P22" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q22" s="16">
         <v>0.33400000000000002</v>
       </c>
       <c r="R22" s="16" t="s">
@@ -3639,10 +3639,10 @@
       <c r="X22" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="Y22" s="16">
+      <c r="Y22" s="17">
         <v>44.905000000000001</v>
       </c>
-      <c r="Z22" s="17">
+      <c r="Z22" s="16">
         <v>0.42</v>
       </c>
       <c r="AA22" s="16" t="s">
@@ -3719,10 +3719,10 @@
       <c r="O23" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="P23" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q23" s="21">
+      <c r="P23" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q23" s="20">
         <v>42.844000000000001</v>
       </c>
       <c r="R23" s="20">
@@ -3746,10 +3746,10 @@
       <c r="X23" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="Y23" s="20">
+      <c r="Y23" s="21">
         <v>2283.5059999999999</v>
       </c>
-      <c r="Z23" s="21">
+      <c r="Z23" s="20">
         <v>59.79</v>
       </c>
       <c r="AA23" s="20">
@@ -3826,10 +3826,10 @@
       <c r="O24" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="P24" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q24" s="17" t="s">
+      <c r="P24" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q24" s="16" t="s">
         <v>37</v>
       </c>
       <c r="R24" s="16" t="s">
@@ -3853,10 +3853,10 @@
       <c r="X24" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="Y24" s="16">
+      <c r="Y24" s="17">
         <v>21.6</v>
       </c>
-      <c r="Z24" s="17" t="s">
+      <c r="Z24" s="16" t="s">
         <v>37</v>
       </c>
       <c r="AA24" s="16" t="s">
@@ -3933,10 +3933,10 @@
       <c r="O25" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="P25" s="16">
+      <c r="P25" s="17">
         <v>95.713200000000001</v>
       </c>
-      <c r="Q25" s="17">
+      <c r="Q25" s="16">
         <v>0.36199999999999999</v>
       </c>
       <c r="R25" s="16" t="s">
@@ -3960,10 +3960,10 @@
       <c r="X25" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="Y25" s="16">
+      <c r="Y25" s="17">
         <v>123</v>
       </c>
-      <c r="Z25" s="17">
+      <c r="Z25" s="16">
         <v>0.6</v>
       </c>
       <c r="AA25" s="16" t="s">
@@ -4040,10 +4040,10 @@
       <c r="O26" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="P26" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q26" s="17">
+      <c r="P26" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q26" s="16">
         <v>22.209</v>
       </c>
       <c r="R26" s="16">
@@ -4067,10 +4067,10 @@
       <c r="X26" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="Y26" s="16">
+      <c r="Y26" s="17">
         <v>205</v>
       </c>
-      <c r="Z26" s="17">
+      <c r="Z26" s="16">
         <v>42.49</v>
       </c>
       <c r="AA26" s="16">
@@ -4147,10 +4147,10 @@
       <c r="O27" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="P27" s="16">
+      <c r="P27" s="17">
         <v>5.3E-3</v>
       </c>
-      <c r="Q27" s="17">
+      <c r="Q27" s="16">
         <v>20.184000000000001</v>
       </c>
       <c r="R27" s="16">
@@ -4174,10 +4174,10 @@
       <c r="X27" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="Y27" s="16">
+      <c r="Y27" s="17">
         <v>104</v>
       </c>
-      <c r="Z27" s="17">
+      <c r="Z27" s="16">
         <v>32.299999999999997</v>
       </c>
       <c r="AA27" s="16">
@@ -4254,10 +4254,10 @@
       <c r="O28" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="P28" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q28" s="17">
+      <c r="P28" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q28" s="16">
         <v>105.827</v>
       </c>
       <c r="R28" s="16">
@@ -4281,10 +4281,10 @@
       <c r="X28" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="Y28" s="16">
+      <c r="Y28" s="17">
         <v>751.4</v>
       </c>
-      <c r="Z28" s="17">
+      <c r="Z28" s="16">
         <v>78.38</v>
       </c>
       <c r="AA28" s="16">
@@ -4361,10 +4361,10 @@
       <c r="O29" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="P29" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q29" s="17">
+      <c r="P29" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q29" s="16">
         <v>33</v>
       </c>
       <c r="R29" s="16">
@@ -4388,10 +4388,10 @@
       <c r="X29" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="Y29" s="16">
+      <c r="Y29" s="17">
         <v>622</v>
       </c>
-      <c r="Z29" s="17">
+      <c r="Z29" s="16">
         <v>22.56</v>
       </c>
       <c r="AA29" s="16">
@@ -4468,10 +4468,10 @@
       <c r="O30" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="P30" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q30" s="17">
+      <c r="P30" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q30" s="16">
         <v>83.49</v>
       </c>
       <c r="R30" s="16">
@@ -4495,10 +4495,10 @@
       <c r="X30" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="Y30" s="16">
+      <c r="Y30" s="17">
         <v>610.1</v>
       </c>
-      <c r="Z30" s="17">
+      <c r="Z30" s="16">
         <v>145.69999999999999</v>
       </c>
       <c r="AA30" s="16">
@@ -4575,10 +4575,10 @@
       <c r="O31" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="P31" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q31" s="17">
+      <c r="P31" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q31" s="16">
         <v>38.338000000000001</v>
       </c>
       <c r="R31" s="16" t="s">
@@ -4602,10 +4602,10 @@
       <c r="X31" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="Y31" s="16">
+      <c r="Y31" s="17">
         <v>114.14</v>
       </c>
-      <c r="Z31" s="17">
+      <c r="Z31" s="16">
         <v>56.31</v>
       </c>
       <c r="AA31" s="16" t="s">
@@ -4682,10 +4682,10 @@
       <c r="O32" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="P32" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q32" s="17">
+      <c r="P32" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q32" s="16">
         <v>3.7879999999999998</v>
       </c>
       <c r="R32" s="16">
@@ -4709,10 +4709,10 @@
       <c r="X32" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="Y32" s="16">
+      <c r="Y32" s="17">
         <v>116.4</v>
       </c>
-      <c r="Z32" s="17">
+      <c r="Z32" s="16">
         <v>58.62</v>
       </c>
       <c r="AA32" s="16">
@@ -4789,10 +4789,10 @@
       <c r="O33" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="P33" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q33" s="17">
+      <c r="P33" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q33" s="16">
         <v>15.538</v>
       </c>
       <c r="R33" s="16">
@@ -4816,10 +4816,10 @@
       <c r="X33" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="Y33" s="16">
+      <c r="Y33" s="17">
         <v>100</v>
       </c>
-      <c r="Z33" s="17">
+      <c r="Z33" s="16">
         <v>24.24</v>
       </c>
       <c r="AA33" s="16">
@@ -4896,10 +4896,10 @@
       <c r="O34" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="P34" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q34" s="14">
+      <c r="P34" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q34" s="13">
         <v>0.83499999999999996</v>
       </c>
       <c r="R34" s="13" t="s">
@@ -4923,10 +4923,10 @@
       <c r="X34" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="Y34" s="13">
+      <c r="Y34" s="14">
         <v>174.4</v>
       </c>
-      <c r="Z34" s="14">
+      <c r="Z34" s="13">
         <v>1.25</v>
       </c>
       <c r="AA34" s="13" t="s">
@@ -5003,10 +5003,10 @@
       <c r="O35" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="P35" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q35" s="17">
+      <c r="P35" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q35" s="16">
         <v>117.13</v>
       </c>
       <c r="R35" s="16" t="s">
@@ -5030,10 +5030,10 @@
       <c r="X35" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="Y35" s="16">
+      <c r="Y35" s="17">
         <v>1935</v>
       </c>
-      <c r="Z35" s="17">
+      <c r="Z35" s="16">
         <v>27.51</v>
       </c>
       <c r="AA35" s="16" t="s">
@@ -5110,10 +5110,10 @@
       <c r="O36" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="P36" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q36" s="17">
+      <c r="P36" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q36" s="16">
         <v>23.643999999999998</v>
       </c>
       <c r="R36" s="16">
@@ -5137,10 +5137,10 @@
       <c r="X36" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="Y36" s="16">
+      <c r="Y36" s="17">
         <v>1317.6759999999999</v>
       </c>
-      <c r="Z36" s="17">
+      <c r="Z36" s="16">
         <v>42.36</v>
       </c>
       <c r="AA36" s="16" t="s">
@@ -5217,10 +5217,10 @@
       <c r="O37" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="P37" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q37" s="17">
+      <c r="P37" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q37" s="16">
         <v>87.292000000000002</v>
       </c>
       <c r="R37" s="16" t="s">
@@ -5244,10 +5244,10 @@
       <c r="X37" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="Y37" s="16">
+      <c r="Y37" s="17">
         <v>102.68</v>
       </c>
-      <c r="Z37" s="17">
+      <c r="Z37" s="16">
         <v>122.04</v>
       </c>
       <c r="AA37" s="16" t="s">
@@ -5324,10 +5324,10 @@
       <c r="O38" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="P38" s="20">
+      <c r="P38" s="21">
         <v>95.718500000000006</v>
       </c>
-      <c r="Q38" s="21">
+      <c r="Q38" s="20">
         <v>551.63699999999994</v>
       </c>
       <c r="R38" s="20">
@@ -5351,10 +5351,10 @@
       <c r="X38" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="Y38" s="20">
+      <c r="Y38" s="21">
         <v>6297.3959999999997</v>
       </c>
-      <c r="Z38" s="21">
+      <c r="Z38" s="20">
         <v>654.36</v>
       </c>
       <c r="AA38" s="20">
@@ -5431,10 +5431,10 @@
       <c r="O39" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="P39" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q39" s="24">
+      <c r="P39" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q39" s="23">
         <v>448</v>
       </c>
       <c r="R39" s="23">
@@ -5458,10 +5458,10 @@
       <c r="X39" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="Y39" s="23">
+      <c r="Y39" s="24">
         <v>24077.599999999999</v>
       </c>
-      <c r="Z39" s="24">
+      <c r="Z39" s="23">
         <v>663.04</v>
       </c>
       <c r="AA39" s="23">
@@ -5538,10 +5538,10 @@
       <c r="O40" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="P40" s="16">
+      <c r="P40" s="17">
         <v>8.6300000000000002E-2</v>
       </c>
-      <c r="Q40" s="17">
+      <c r="Q40" s="16">
         <v>1675.39</v>
       </c>
       <c r="R40" s="16">
@@ -5565,10 +5565,10 @@
       <c r="X40" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="Y40" s="16">
+      <c r="Y40" s="17">
         <v>53242.89</v>
       </c>
-      <c r="Z40" s="17">
+      <c r="Z40" s="16">
         <v>4452.51</v>
       </c>
       <c r="AA40" s="16">
@@ -5645,10 +5645,10 @@
       <c r="O41" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="P41" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q41" s="24">
+      <c r="P41" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q41" s="23">
         <v>5.1109999999999998</v>
       </c>
       <c r="R41" s="23" t="s">
@@ -5672,10 +5672,10 @@
       <c r="X41" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="Y41" s="23">
+      <c r="Y41" s="24">
         <v>10763</v>
       </c>
-      <c r="Z41" s="24">
+      <c r="Z41" s="23">
         <v>7.79</v>
       </c>
       <c r="AA41" s="23" t="s">
@@ -5752,10 +5752,10 @@
       <c r="O42" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="P42" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q42" s="24">
+      <c r="P42" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q42" s="23">
         <v>87.509</v>
       </c>
       <c r="R42" s="23">
@@ -5779,10 +5779,10 @@
       <c r="X42" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="Y42" s="23">
+      <c r="Y42" s="24">
         <v>464.625</v>
       </c>
-      <c r="Z42" s="24">
+      <c r="Z42" s="23">
         <v>140.01</v>
       </c>
       <c r="AA42" s="23">
@@ -5859,10 +5859,10 @@
       <c r="O43" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="P43" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q43" s="17">
+      <c r="P43" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q43" s="16">
         <v>734</v>
       </c>
       <c r="R43" s="16">
@@ -5886,10 +5886,10 @@
       <c r="X43" s="16">
         <v>464</v>
       </c>
-      <c r="Y43" s="16">
+      <c r="Y43" s="17">
         <v>6676</v>
       </c>
-      <c r="Z43" s="17">
+      <c r="Z43" s="16">
         <v>1547.43</v>
       </c>
       <c r="AA43" s="16">
@@ -5966,10 +5966,10 @@
       <c r="O44" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="P44" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q44" s="17">
+      <c r="P44" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q44" s="16">
         <v>94.89</v>
       </c>
       <c r="R44" s="16">
@@ -5993,10 +5993,10 @@
       <c r="X44" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="Y44" s="16">
+      <c r="Y44" s="17">
         <v>5382</v>
       </c>
-      <c r="Z44" s="17">
+      <c r="Z44" s="16">
         <v>152.81</v>
       </c>
       <c r="AA44" s="16">
@@ -6073,10 +6073,10 @@
       <c r="O45" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="P45" s="20">
+      <c r="P45" s="21">
         <v>8.6300000000000002E-2</v>
       </c>
-      <c r="Q45" s="21">
+      <c r="Q45" s="20">
         <v>3044.9</v>
       </c>
       <c r="R45" s="20">
@@ -6100,10 +6100,10 @@
       <c r="X45" s="20">
         <v>464</v>
       </c>
-      <c r="Y45" s="20">
+      <c r="Y45" s="21">
         <v>100606.11500000001</v>
       </c>
-      <c r="Z45" s="21">
+      <c r="Z45" s="20">
         <v>6963.59</v>
       </c>
       <c r="AA45" s="20">
@@ -6180,10 +6180,10 @@
       <c r="O46" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="P46" s="16">
+      <c r="P46" s="17">
         <v>27.3748</v>
       </c>
-      <c r="Q46" s="17">
+      <c r="Q46" s="16">
         <v>2.94</v>
       </c>
       <c r="R46" s="16" t="s">
@@ -6207,10 +6207,10 @@
       <c r="X46" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="Y46" s="16">
+      <c r="Y46" s="17">
         <v>301</v>
       </c>
-      <c r="Z46" s="17">
+      <c r="Z46" s="16">
         <v>5.34</v>
       </c>
       <c r="AA46" s="16" t="s">
@@ -6287,10 +6287,10 @@
       <c r="O47" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="P47" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q47" s="17">
+      <c r="P47" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q47" s="16">
         <v>62.387</v>
       </c>
       <c r="R47" s="16" t="s">
@@ -6314,10 +6314,10 @@
       <c r="X47" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="Y47" s="16">
+      <c r="Y47" s="17">
         <v>339.16</v>
       </c>
-      <c r="Z47" s="17">
+      <c r="Z47" s="16">
         <v>100.85</v>
       </c>
       <c r="AA47" s="16" t="s">
@@ -6394,10 +6394,10 @@
       <c r="O48" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="P48" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q48" s="24">
+      <c r="P48" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q48" s="23">
         <v>7.5810000000000004</v>
       </c>
       <c r="R48" s="23">
@@ -6421,10 +6421,10 @@
       <c r="X48" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="Y48" s="23">
+      <c r="Y48" s="24">
         <v>141</v>
       </c>
-      <c r="Z48" s="24">
+      <c r="Z48" s="23">
         <v>6.59</v>
       </c>
       <c r="AA48" s="23">
@@ -6501,10 +6501,10 @@
       <c r="O49" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="P49" s="16">
+      <c r="P49" s="17">
         <v>142.4451</v>
       </c>
-      <c r="Q49" s="17">
+      <c r="Q49" s="16">
         <v>13.144</v>
       </c>
       <c r="R49" s="16" t="s">
@@ -6528,10 +6528,10 @@
       <c r="X49" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="Y49" s="16">
+      <c r="Y49" s="17">
         <v>1340.1410000000001</v>
       </c>
-      <c r="Z49" s="17">
+      <c r="Z49" s="16">
         <v>17.600000000000001</v>
       </c>
       <c r="AA49" s="16" t="s">
@@ -6608,10 +6608,10 @@
       <c r="O50" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="P50" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q50" s="17">
+      <c r="P50" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q50" s="16">
         <v>2.1779999999999999</v>
       </c>
       <c r="R50" s="16">
@@ -6635,10 +6635,10 @@
       <c r="X50" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="Y50" s="16">
+      <c r="Y50" s="17">
         <v>102</v>
       </c>
-      <c r="Z50" s="17">
+      <c r="Z50" s="16">
         <v>3.47</v>
       </c>
       <c r="AA50" s="16">
@@ -6715,10 +6715,10 @@
       <c r="O51" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="P51" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q51" s="14">
+      <c r="P51" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q51" s="13">
         <v>107.852</v>
       </c>
       <c r="R51" s="13">
@@ -6742,10 +6742,10 @@
       <c r="X51" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="Y51" s="13">
+      <c r="Y51" s="14">
         <v>3665</v>
       </c>
-      <c r="Z51" s="14">
+      <c r="Z51" s="13">
         <v>107.16</v>
       </c>
       <c r="AA51" s="13" t="s">
@@ -6822,10 +6822,10 @@
       <c r="O52" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="P52" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q52" s="17">
+      <c r="P52" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q52" s="16">
         <v>13.363</v>
       </c>
       <c r="R52" s="16" t="s">
@@ -6849,10 +6849,10 @@
       <c r="X52" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="Y52" s="16">
+      <c r="Y52" s="17">
         <v>307</v>
       </c>
-      <c r="Z52" s="17">
+      <c r="Z52" s="16">
         <v>20.59</v>
       </c>
       <c r="AA52" s="16" t="s">
@@ -6929,10 +6929,10 @@
       <c r="O53" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="P53" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q53" s="17">
+      <c r="P53" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q53" s="16">
         <v>1.169</v>
       </c>
       <c r="R53" s="16" t="s">
@@ -6956,10 +6956,10 @@
       <c r="X53" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="Y53" s="16">
+      <c r="Y53" s="17">
         <v>28</v>
       </c>
-      <c r="Z53" s="17">
+      <c r="Z53" s="16">
         <v>1.89</v>
       </c>
       <c r="AA53" s="16" t="s">
@@ -7036,10 +7036,10 @@
       <c r="O54" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="P54" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q54" s="17">
+      <c r="P54" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q54" s="16">
         <v>2.5830000000000002</v>
       </c>
       <c r="R54" s="16" t="s">
@@ -7063,10 +7063,10 @@
       <c r="X54" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="Y54" s="16">
+      <c r="Y54" s="17">
         <v>98</v>
       </c>
-      <c r="Z54" s="17">
+      <c r="Z54" s="16">
         <v>3.62</v>
       </c>
       <c r="AA54" s="16" t="s">
@@ -7143,10 +7143,10 @@
       <c r="O55" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="P55" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q55" s="17">
+      <c r="P55" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q55" s="16">
         <v>69.542000000000002</v>
       </c>
       <c r="R55" s="16" t="s">
@@ -7170,10 +7170,10 @@
       <c r="X55" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="Y55" s="16">
+      <c r="Y55" s="17">
         <v>459.3</v>
       </c>
-      <c r="Z55" s="17">
+      <c r="Z55" s="16">
         <v>31.7</v>
       </c>
       <c r="AA55" s="16" t="s">
@@ -7250,10 +7250,10 @@
       <c r="O56" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="P56" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q56" s="17">
+      <c r="P56" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q56" s="16">
         <v>27.041</v>
       </c>
       <c r="R56" s="16" t="s">
@@ -7277,10 +7277,10 @@
       <c r="X56" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="Y56" s="16">
+      <c r="Y56" s="17">
         <v>352.6</v>
       </c>
-      <c r="Z56" s="17">
+      <c r="Z56" s="16">
         <v>46.09</v>
       </c>
       <c r="AA56" s="16" t="s">
@@ -7357,10 +7357,10 @@
       <c r="O57" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="P57" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q57" s="24">
+      <c r="P57" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q57" s="23">
         <v>28.428000000000001</v>
       </c>
       <c r="R57" s="23" t="s">
@@ -7384,10 +7384,10 @@
       <c r="X57" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="Y57" s="23">
+      <c r="Y57" s="24">
         <v>11001.7</v>
       </c>
-      <c r="Z57" s="24">
+      <c r="Z57" s="23">
         <v>41.99</v>
       </c>
       <c r="AA57" s="23" t="s">
@@ -7464,10 +7464,10 @@
       <c r="O58" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="P58" s="16">
+      <c r="P58" s="17">
         <v>43.481000000000002</v>
       </c>
-      <c r="Q58" s="17">
+      <c r="Q58" s="16">
         <v>171</v>
       </c>
       <c r="R58" s="16">
@@ -7491,10 +7491,10 @@
       <c r="X58" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="Y58" s="16">
+      <c r="Y58" s="17">
         <v>968.7</v>
       </c>
-      <c r="Z58" s="17">
+      <c r="Z58" s="16">
         <v>290.64999999999998</v>
       </c>
       <c r="AA58" s="16" t="s">
@@ -7571,10 +7571,10 @@
       <c r="O59" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="P59" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q59" s="17">
+      <c r="P59" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q59" s="16">
         <v>4.3719999999999999</v>
       </c>
       <c r="R59" s="16" t="s">
@@ -7598,10 +7598,10 @@
       <c r="X59" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="Y59" s="16">
+      <c r="Y59" s="17">
         <v>138.69999999999999</v>
       </c>
-      <c r="Z59" s="17">
+      <c r="Z59" s="16">
         <v>6.23</v>
       </c>
       <c r="AA59" s="16" t="s">
@@ -7678,10 +7678,10 @@
       <c r="O60" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="P60" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q60" s="14">
+      <c r="P60" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q60" s="13">
         <v>6.202</v>
       </c>
       <c r="R60" s="13" t="s">
@@ -7705,10 +7705,10 @@
       <c r="X60" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="Y60" s="13">
+      <c r="Y60" s="14">
         <v>172.33</v>
       </c>
-      <c r="Z60" s="14">
+      <c r="Z60" s="13">
         <v>14.84</v>
       </c>
       <c r="AA60" s="13" t="s">
@@ -7785,10 +7785,10 @@
       <c r="O61" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="P61" s="20">
+      <c r="P61" s="21">
         <v>213.30090000000001</v>
       </c>
-      <c r="Q61" s="21">
+      <c r="Q61" s="20">
         <v>519.78200000000004</v>
       </c>
       <c r="R61" s="20">
@@ -7812,10 +7812,10 @@
       <c r="X61" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="Y61" s="20">
+      <c r="Y61" s="21">
         <v>19414.631000000001</v>
       </c>
-      <c r="Z61" s="21">
+      <c r="Z61" s="20">
         <v>698.61</v>
       </c>
       <c r="AA61" s="20">
@@ -7892,10 +7892,10 @@
       <c r="O62" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="P62" s="28">
+      <c r="P62" s="29">
         <v>883.41279999999995</v>
       </c>
-      <c r="Q62" s="29">
+      <c r="Q62" s="28">
         <v>10565.519</v>
       </c>
       <c r="R62" s="28">
@@ -7919,10 +7919,10 @@
       <c r="X62" s="28">
         <v>3196</v>
       </c>
-      <c r="Y62" s="28">
+      <c r="Y62" s="29">
         <v>177442.99799999999</v>
       </c>
-      <c r="Z62" s="29">
+      <c r="Z62" s="28">
         <v>16764.39</v>
       </c>
       <c r="AA62" s="28">
@@ -7999,10 +7999,10 @@
       <c r="O63" s="31">
         <v>14.9793</v>
       </c>
-      <c r="P63" s="31">
+      <c r="P63" s="32">
         <v>2322.2012</v>
       </c>
-      <c r="Q63" s="32">
+      <c r="Q63" s="31">
         <v>699234.16200000001</v>
       </c>
       <c r="R63" s="31">
@@ -8026,10 +8026,10 @@
       <c r="X63" s="31">
         <v>118224.424</v>
       </c>
-      <c r="Y63" s="31">
+      <c r="Y63" s="32">
         <v>4114314.7259999998</v>
       </c>
-      <c r="Z63" s="32">
+      <c r="Z63" s="31">
         <v>819618.37</v>
       </c>
       <c r="AA63" s="31">
@@ -8106,10 +8106,10 @@
       <c r="O64" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="P64" s="28">
+      <c r="P64" s="29">
         <v>951.19949999999994</v>
       </c>
-      <c r="Q64" s="29">
+      <c r="Q64" s="28">
         <v>20054.457999999999</v>
       </c>
       <c r="R64" s="28">
@@ -8133,10 +8133,10 @@
       <c r="X64" s="28">
         <v>974</v>
       </c>
-      <c r="Y64" s="28">
+      <c r="Y64" s="29">
         <v>181980.478</v>
       </c>
-      <c r="Z64" s="29">
+      <c r="Z64" s="28">
         <v>39063.24</v>
       </c>
       <c r="AA64" s="28">
@@ -8213,10 +8213,10 @@
       <c r="O65" s="35">
         <v>5.5076999999999998</v>
       </c>
-      <c r="P65" s="35">
+      <c r="P65" s="36">
         <v>823.68389999999999</v>
       </c>
-      <c r="Q65" s="36">
+      <c r="Q65" s="35">
         <v>320139.65399999998</v>
       </c>
       <c r="R65" s="35">
@@ -8240,10 +8240,10 @@
       <c r="X65" s="35">
         <v>37681.684000000001</v>
       </c>
-      <c r="Y65" s="35">
+      <c r="Y65" s="36">
         <v>1906803.3230000001</v>
       </c>
-      <c r="Z65" s="36">
+      <c r="Z65" s="35">
         <v>345792.69</v>
       </c>
       <c r="AA65" s="35">
@@ -8320,10 +8320,10 @@
       <c r="O66" s="38">
         <v>14.9793</v>
       </c>
-      <c r="P66" s="38">
+      <c r="P66" s="39">
         <v>3205.614</v>
       </c>
-      <c r="Q66" s="39">
+      <c r="Q66" s="38">
         <v>709799.68099999998</v>
       </c>
       <c r="R66" s="38">
@@ -8347,10 +8347,10 @@
       <c r="X66" s="38">
         <v>121420.424</v>
       </c>
-      <c r="Y66" s="38">
+      <c r="Y66" s="39">
         <v>4291757.7240000004</v>
       </c>
-      <c r="Z66" s="39">
+      <c r="Z66" s="38">
         <v>836382.76</v>
       </c>
       <c r="AA66" s="38">
@@ -8427,10 +8427,10 @@
       <c r="O67" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="P67" s="41">
+      <c r="P67" s="42">
         <v>95.8048</v>
       </c>
-      <c r="Q67" s="42">
+      <c r="Q67" s="41">
         <v>2524.7159999999999</v>
       </c>
       <c r="R67" s="41">
@@ -8454,10 +8454,10 @@
       <c r="X67" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="Y67" s="41">
+      <c r="Y67" s="42">
         <v>76147.983999999997</v>
       </c>
-      <c r="Z67" s="42">
+      <c r="Z67" s="41">
         <v>5625.43</v>
       </c>
       <c r="AA67" s="41">
@@ -8534,10 +8534,10 @@
       <c r="O68" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="P68" s="35">
+      <c r="P68" s="36">
         <v>309.10039999999998</v>
       </c>
-      <c r="Q68" s="36">
+      <c r="Q68" s="35">
         <v>3262.8</v>
       </c>
       <c r="R68" s="35">
@@ -8561,10 +8561,10 @@
       <c r="X68" s="35">
         <v>464</v>
       </c>
-      <c r="Y68" s="35">
+      <c r="Y68" s="36">
         <v>98392.745999999999</v>
       </c>
-      <c r="Z68" s="36">
+      <c r="Z68" s="35">
         <v>7084.6</v>
       </c>
       <c r="AA68" s="35">
@@ -8641,10 +8641,10 @@
       <c r="O69" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="P69" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q69" s="36">
+      <c r="P69" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q69" s="35">
         <v>261.03899999999999</v>
       </c>
       <c r="R69" s="35">
@@ -8668,10 +8668,10 @@
       <c r="X69" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="Y69" s="35">
+      <c r="Y69" s="36">
         <v>2510.7959999999998</v>
       </c>
-      <c r="Z69" s="36">
+      <c r="Z69" s="35">
         <v>308.27</v>
       </c>
       <c r="AA69" s="35">
@@ -8748,10 +8748,10 @@
       <c r="O70" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="P70" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q70" s="36">
+      <c r="P70" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q70" s="35">
         <v>94.558999999999997</v>
       </c>
       <c r="R70" s="35">
@@ -8775,10 +8775,10 @@
       <c r="X70" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="Y70" s="35">
+      <c r="Y70" s="36">
         <v>4534.5020000000004</v>
       </c>
-      <c r="Z70" s="36">
+      <c r="Z70" s="35">
         <v>134.37</v>
       </c>
       <c r="AA70" s="35">
@@ -8855,10 +8855,10 @@
       <c r="O71" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="P71" s="35">
+      <c r="P71" s="36">
         <v>213.30090000000001</v>
       </c>
-      <c r="Q71" s="36">
+      <c r="Q71" s="35">
         <v>519.78200000000004</v>
       </c>
       <c r="R71" s="35">
@@ -8882,10 +8882,10 @@
       <c r="X71" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="Y71" s="35">
+      <c r="Y71" s="36">
         <v>19414.631000000001</v>
       </c>
-      <c r="Z71" s="36">
+      <c r="Z71" s="35">
         <v>698.61</v>
       </c>
       <c r="AA71" s="35">
@@ -8962,10 +8962,10 @@
       <c r="O72" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="P72" s="35">
+      <c r="P72" s="36">
         <v>95.718500000000006</v>
       </c>
-      <c r="Q72" s="36">
+      <c r="Q72" s="35">
         <v>369.37700000000001</v>
       </c>
       <c r="R72" s="35">
@@ -8989,10 +8989,10 @@
       <c r="X72" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="Y72" s="35">
+      <c r="Y72" s="36">
         <v>3495.48</v>
       </c>
-      <c r="Z72" s="36">
+      <c r="Z72" s="35">
         <v>328.81</v>
       </c>
       <c r="AA72" s="35">
@@ -9069,10 +9069,10 @@
       <c r="O73" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="P73" s="35">
+      <c r="P73" s="36">
         <v>574.30709999999999</v>
       </c>
-      <c r="Q73" s="36">
+      <c r="Q73" s="35">
         <v>6570.2049999999999</v>
       </c>
       <c r="R73" s="35">
@@ -9096,10 +9096,10 @@
       <c r="X73" s="35">
         <v>2732</v>
       </c>
-      <c r="Y73" s="35">
+      <c r="Y73" s="36">
         <v>51558.125999999997</v>
       </c>
-      <c r="Z73" s="36">
+      <c r="Z73" s="35">
         <v>8685.42</v>
       </c>
       <c r="AA73" s="35">
@@ -9176,10 +9176,10 @@
       <c r="O74" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="P74" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q74" s="36">
+      <c r="P74" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q74" s="35">
         <v>1369.51</v>
       </c>
       <c r="R74" s="35">
@@ -9203,10 +9203,10 @@
       <c r="X74" s="35">
         <v>464</v>
       </c>
-      <c r="Y74" s="35">
+      <c r="Y74" s="36">
         <v>47363.224999999999</v>
       </c>
-      <c r="Z74" s="36">
+      <c r="Z74" s="35">
         <v>2511.08</v>
       </c>
       <c r="AA74" s="35">
@@ -9283,10 +9283,10 @@
       <c r="O75" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="P75" s="38">
+      <c r="P75" s="39">
         <v>574.30709999999999</v>
       </c>
-      <c r="Q75" s="39">
+      <c r="Q75" s="38">
         <v>77.460999999999999</v>
       </c>
       <c r="R75" s="38">
@@ -9310,10 +9310,10 @@
       <c r="X75" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="Y75" s="38">
+      <c r="Y75" s="39">
         <v>2953.1509999999998</v>
       </c>
-      <c r="Z75" s="39">
+      <c r="Z75" s="38">
         <v>28.82</v>
       </c>
       <c r="AA75" s="38">
@@ -9390,10 +9390,10 @@
       <c r="O76" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="P76" s="41">
+      <c r="P76" s="42">
         <v>66.674099999999996</v>
       </c>
-      <c r="Q76" s="42">
+      <c r="Q76" s="41">
         <v>23144.438999999998</v>
       </c>
       <c r="R76" s="41">
@@ -9417,10 +9417,10 @@
       <c r="X76" s="41">
         <v>1296</v>
       </c>
-      <c r="Y76" s="41">
+      <c r="Y76" s="42">
         <v>200944.03</v>
       </c>
-      <c r="Z76" s="42">
+      <c r="Z76" s="41">
         <v>24435.8</v>
       </c>
       <c r="AA76" s="41">
@@ -9497,10 +9497,10 @@
       <c r="O77" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="P77" s="35">
+      <c r="P77" s="36">
         <v>951.00469999999996</v>
       </c>
-      <c r="Q77" s="36">
+      <c r="Q77" s="35">
         <v>12698.445</v>
       </c>
       <c r="R77" s="35">
@@ -9524,10 +9524,10 @@
       <c r="X77" s="35">
         <v>974</v>
       </c>
-      <c r="Y77" s="35">
+      <c r="Y77" s="36">
         <v>105497.81299999999</v>
       </c>
-      <c r="Z77" s="36">
+      <c r="Z77" s="35">
         <v>22070.44</v>
       </c>
       <c r="AA77" s="35">
@@ -9604,10 +9604,10 @@
       <c r="O78" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="P78" s="35">
+      <c r="P78" s="36">
         <v>27.293299999999999</v>
       </c>
-      <c r="Q78" s="36">
+      <c r="Q78" s="35">
         <v>138541.807</v>
       </c>
       <c r="R78" s="35">
@@ -9631,10 +9631,10 @@
       <c r="X78" s="35">
         <v>22657.439999999999</v>
       </c>
-      <c r="Y78" s="35">
+      <c r="Y78" s="36">
         <v>355166.61099999998</v>
       </c>
-      <c r="Z78" s="36">
+      <c r="Z78" s="35">
         <v>144261.91</v>
       </c>
       <c r="AA78" s="35">
@@ -9711,10 +9711,10 @@
       <c r="O79" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="P79" s="38">
+      <c r="P79" s="39">
         <v>21.773199999999999</v>
       </c>
-      <c r="Q79" s="39">
+      <c r="Q79" s="38">
         <v>350560.38799999998</v>
       </c>
       <c r="R79" s="38">
@@ -9738,10 +9738,10 @@
       <c r="X79" s="38">
         <v>74714.240000000005</v>
       </c>
-      <c r="Y79" s="38">
+      <c r="Y79" s="39">
         <v>1638606.7239999999</v>
       </c>
-      <c r="Z79" s="39">
+      <c r="Z79" s="38">
         <v>435850.71</v>
       </c>
       <c r="AA79" s="38">
@@ -9818,10 +9818,10 @@
       <c r="O80" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="P80" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q80" s="42">
+      <c r="P80" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q80" s="41">
         <v>592.85299999999995</v>
       </c>
       <c r="R80" s="41">
@@ -9845,10 +9845,10 @@
       <c r="X80" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="Y80" s="41">
+      <c r="Y80" s="42">
         <v>50016.881999999998</v>
       </c>
-      <c r="Z80" s="42">
+      <c r="Z80" s="41">
         <v>880.89</v>
       </c>
       <c r="AA80" s="41">
@@ -9925,10 +9925,10 @@
       <c r="O81" s="35">
         <v>5.5076999999999998</v>
       </c>
-      <c r="P81" s="35">
+      <c r="P81" s="36">
         <v>473.60129999999998</v>
       </c>
-      <c r="Q81" s="36">
+      <c r="Q81" s="35">
         <v>6683.6850000000004</v>
       </c>
       <c r="R81" s="35">
@@ -9952,10 +9952,10 @@
       <c r="X81" s="35">
         <v>2636.0839999999998</v>
       </c>
-      <c r="Y81" s="35">
+      <c r="Y81" s="36">
         <v>526747.30900000001</v>
       </c>
-      <c r="Z81" s="36">
+      <c r="Z81" s="35">
         <v>10754.51</v>
       </c>
       <c r="AA81" s="35">
@@ -10032,10 +10032,10 @@
       <c r="O82" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="P82" s="35">
+      <c r="P82" s="36">
         <v>883.41279999999995</v>
       </c>
-      <c r="Q82" s="36">
+      <c r="Q82" s="35">
         <v>9972.6659999999993</v>
       </c>
       <c r="R82" s="35">
@@ -10059,10 +10059,10 @@
       <c r="X82" s="35">
         <v>3196</v>
       </c>
-      <c r="Y82" s="35">
+      <c r="Y82" s="36">
         <v>127426.11599999999</v>
       </c>
-      <c r="Z82" s="36">
+      <c r="Z82" s="35">
         <v>15883.5</v>
       </c>
       <c r="AA82" s="35">
@@ -10139,10 +10139,10 @@
       <c r="O83" s="38">
         <v>9.4716000000000005</v>
       </c>
-      <c r="P83" s="38">
+      <c r="P83" s="39">
         <v>1848.5998999999999</v>
       </c>
-      <c r="Q83" s="39">
+      <c r="Q83" s="38">
         <v>692550.47699999996</v>
       </c>
       <c r="R83" s="38">
@@ -10166,10 +10166,10 @@
       <c r="X83" s="38">
         <v>115588.34</v>
       </c>
-      <c r="Y83" s="38">
+      <c r="Y83" s="39">
         <v>3587567.4169999999</v>
       </c>
-      <c r="Z83" s="39">
+      <c r="Z83" s="38">
         <v>808863.86</v>
       </c>
       <c r="AA83" s="38">
@@ -10246,10 +10246,10 @@
       <c r="O84" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="P84" s="41">
+      <c r="P84" s="42">
         <v>574.31240000000003</v>
       </c>
-      <c r="Q84" s="42">
+      <c r="Q84" s="41">
         <v>685.93600000000004</v>
       </c>
       <c r="R84" s="41">
@@ -10273,10 +10273,10 @@
       <c r="X84" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="Y84" s="41">
+      <c r="Y84" s="42">
         <v>6480.9740000000002</v>
       </c>
-      <c r="Z84" s="42">
+      <c r="Z84" s="41">
         <v>764.16</v>
       </c>
       <c r="AA84" s="41">
@@ -10353,10 +10353,10 @@
       <c r="O85" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="P85" s="35">
+      <c r="P85" s="36">
         <v>31.816299999999998</v>
       </c>
-      <c r="Q85" s="36">
+      <c r="Q85" s="35">
         <v>286.012</v>
       </c>
       <c r="R85" s="35">
@@ -10380,10 +10380,10 @@
       <c r="X85" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="Y85" s="35">
+      <c r="Y85" s="36">
         <v>10535.911</v>
       </c>
-      <c r="Z85" s="36">
+      <c r="Z85" s="35">
         <v>556.66999999999996</v>
       </c>
       <c r="AA85" s="35">
@@ -10460,10 +10460,10 @@
       <c r="O86" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="P86" s="35">
+      <c r="P86" s="36">
         <v>309.10039999999998</v>
       </c>
-      <c r="Q86" s="36">
+      <c r="Q86" s="35">
         <v>3645.3150000000001</v>
       </c>
       <c r="R86" s="35">
@@ -10487,10 +10487,10 @@
       <c r="X86" s="35">
         <v>464</v>
       </c>
-      <c r="Y86" s="35">
+      <c r="Y86" s="36">
         <v>114692.37300000001</v>
       </c>
-      <c r="Z86" s="36">
+      <c r="Z86" s="35">
         <v>7784.34</v>
       </c>
       <c r="AA86" s="35">
@@ -10567,10 +10567,10 @@
       <c r="O87" s="35">
         <v>13.173500000000001</v>
       </c>
-      <c r="P87" s="35">
+      <c r="P87" s="36">
         <v>827.2998</v>
       </c>
-      <c r="Q87" s="36">
+      <c r="Q87" s="35">
         <v>68326.452000000005</v>
       </c>
       <c r="R87" s="35">
@@ -10594,10 +10594,10 @@
       <c r="X87" s="35">
         <v>8070.6840000000002</v>
       </c>
-      <c r="Y87" s="35">
+      <c r="Y87" s="36">
         <v>596672.38600000006</v>
       </c>
-      <c r="Z87" s="36">
+      <c r="Z87" s="35">
         <v>85426.92</v>
       </c>
       <c r="AA87" s="35">
@@ -10674,10 +10674,10 @@
       <c r="O88" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="P88" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q88" s="36">
+      <c r="P88" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q88" s="35">
         <v>6230.48</v>
       </c>
       <c r="R88" s="35">
@@ -10701,10 +10701,10 @@
       <c r="X88" s="35">
         <v>2732</v>
       </c>
-      <c r="Y88" s="35">
+      <c r="Y88" s="36">
         <v>56153.250999999997</v>
       </c>
-      <c r="Z88" s="36">
+      <c r="Z88" s="35">
         <v>8157.27</v>
       </c>
       <c r="AA88" s="35">
@@ -10781,10 +10781,10 @@
       <c r="O89" s="35">
         <v>1.8058000000000001</v>
       </c>
-      <c r="P89" s="35">
+      <c r="P89" s="36">
         <v>979.92669999999998</v>
       </c>
-      <c r="Q89" s="36">
+      <c r="Q89" s="35">
         <v>288196.799</v>
       </c>
       <c r="R89" s="35">
@@ -10808,10 +10808,10 @@
       <c r="X89" s="35">
         <v>35439.5</v>
       </c>
-      <c r="Y89" s="35">
+      <c r="Y89" s="36">
         <v>1777153.112</v>
       </c>
-      <c r="Z89" s="36">
+      <c r="Z89" s="35">
         <v>314958.05</v>
       </c>
       <c r="AA89" s="35">
@@ -10888,10 +10888,10 @@
       <c r="O90" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="P90" s="38">
+      <c r="P90" s="39">
         <v>483.15839999999997</v>
       </c>
-      <c r="Q90" s="39">
+      <c r="Q90" s="38">
         <v>342423.36700000003</v>
       </c>
       <c r="R90" s="38">
@@ -10915,10 +10915,10 @@
       <c r="X90" s="38">
         <v>74714.240000000005</v>
       </c>
-      <c r="Y90" s="38">
+      <c r="Y90" s="39">
         <v>1713225.237</v>
       </c>
-      <c r="Z90" s="39">
+      <c r="Z90" s="38">
         <v>418727.49</v>
       </c>
       <c r="AA90" s="38">
@@ -10995,10 +10995,10 @@
       <c r="O91" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="P91" s="41">
+      <c r="P91" s="42">
         <v>740.88139999999999</v>
       </c>
-      <c r="Q91" s="42">
+      <c r="Q91" s="41">
         <v>1081.8889999999999</v>
       </c>
       <c r="R91" s="41">
@@ -11022,10 +11022,10 @@
       <c r="X91" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="Y91" s="41">
+      <c r="Y91" s="42">
         <v>12384.056</v>
       </c>
-      <c r="Z91" s="42">
+      <c r="Z91" s="41">
         <v>1425.63</v>
       </c>
       <c r="AA91" s="41">
@@ -11102,10 +11102,10 @@
       <c r="O92" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="P92" s="35">
+      <c r="P92" s="36">
         <v>476.69330000000002</v>
       </c>
-      <c r="Q92" s="36">
+      <c r="Q92" s="35">
         <v>1079.7449999999999</v>
       </c>
       <c r="R92" s="35">
@@ -11129,10 +11129,10 @@
       <c r="X92" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="Y92" s="35">
+      <c r="Y92" s="36">
         <v>33263.326000000001</v>
       </c>
-      <c r="Z92" s="36">
+      <c r="Z92" s="35">
         <v>1492.42</v>
       </c>
       <c r="AA92" s="35">
@@ -11209,10 +11209,10 @@
       <c r="O93" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="P93" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q93" s="36">
+      <c r="P93" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q93" s="35">
         <v>96.361999999999995</v>
       </c>
       <c r="R93" s="35">
@@ -11236,10 +11236,10 @@
       <c r="X93" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="Y93" s="35">
+      <c r="Y93" s="36">
         <v>962.005</v>
       </c>
-      <c r="Z93" s="36">
+      <c r="Z93" s="35">
         <v>213.22</v>
       </c>
       <c r="AA93" s="35">
@@ -11316,10 +11316,10 @@
       <c r="O94" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="P94" s="35">
+      <c r="P94" s="36">
         <v>5.9183000000000003</v>
       </c>
-      <c r="Q94" s="36">
+      <c r="Q94" s="35">
         <v>1227.461</v>
       </c>
       <c r="R94" s="35">
@@ -11343,10 +11343,10 @@
       <c r="X94" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="Y94" s="35">
+      <c r="Y94" s="36">
         <v>37634.775000000001</v>
       </c>
-      <c r="Z94" s="36">
+      <c r="Z94" s="35">
         <v>1310.95</v>
       </c>
       <c r="AA94" s="35">
@@ -11423,10 +11423,10 @@
       <c r="O95" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="P95" s="35">
+      <c r="P95" s="36">
         <v>5.3E-3</v>
       </c>
-      <c r="Q95" s="36">
+      <c r="Q95" s="35">
         <v>515.20799999999997</v>
       </c>
       <c r="R95" s="35">
@@ -11450,10 +11450,10 @@
       <c r="X95" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="Y95" s="35">
+      <c r="Y95" s="36">
         <v>4793.174</v>
       </c>
-      <c r="Z95" s="36">
+      <c r="Z95" s="35">
         <v>771.53</v>
       </c>
       <c r="AA95" s="35">
@@ -11530,10 +11530,10 @@
       <c r="O96" s="38">
         <v>1.7044999999999999</v>
       </c>
-      <c r="P96" s="38">
+      <c r="P96" s="39">
         <v>70.944000000000003</v>
       </c>
-      <c r="Q96" s="39">
+      <c r="Q96" s="38">
         <v>2295.9169999999999</v>
       </c>
       <c r="R96" s="38">
@@ -11557,10 +11557,10 @@
       <c r="X96" s="38">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="Y96" s="38">
+      <c r="Y96" s="39">
         <v>62388.851999999999</v>
       </c>
-      <c r="Z96" s="39">
+      <c r="Z96" s="38">
         <v>2456.8000000000002</v>
       </c>
       <c r="AA96" s="38">
@@ -11637,10 +11637,10 @@
       <c r="O97" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="P97" s="41">
+      <c r="P97" s="42">
         <v>812.47069999999997</v>
       </c>
-      <c r="Q97" s="42">
+      <c r="Q97" s="41">
         <v>974.53700000000003</v>
       </c>
       <c r="R97" s="41">
@@ -11664,10 +11664,10 @@
       <c r="X97" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="Y97" s="41">
+      <c r="Y97" s="42">
         <v>37456.309000000001</v>
       </c>
-      <c r="Z97" s="42">
+      <c r="Z97" s="41">
         <v>1106.3800000000001</v>
       </c>
       <c r="AA97" s="41">
@@ -11744,10 +11744,10 @@
       <c r="O98" s="38">
         <v>5.5076999999999998</v>
       </c>
-      <c r="P98" s="38">
+      <c r="P98" s="39">
         <v>807.42610000000002</v>
       </c>
-      <c r="Q98" s="39">
+      <c r="Q98" s="38">
         <v>2975.4079999999999</v>
       </c>
       <c r="R98" s="38">
@@ -11771,10 +11771,10 @@
       <c r="X98" s="38">
         <v>1280</v>
       </c>
-      <c r="Y98" s="38">
+      <c r="Y98" s="39">
         <v>186733.53599999999</v>
       </c>
-      <c r="Z98" s="39">
+      <c r="Z98" s="38">
         <v>4703.8900000000003</v>
       </c>
       <c r="AA98" s="38">
@@ -12405,11 +12405,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{E2E02B0C-DD94-4C49-A7ED-F1ACC62FC9EA}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{9E3A0855-A0E3-4A04-B4D4-A1E4C8ABD6D5}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{04930A1C-3B5E-4749-9D6E-28A2CC326730}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{6C48D7D3-8C3F-4286-B9C5-92EC0990BD29}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{93BEFC41-B3F1-4EE4-873B-675A26A4AB38}"/>
+    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{877EBEF6-595D-40D5-9509-70F1B28ED5AC}"/>
+    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{FC019860-954B-4B06-BEE0-80976DCC0254}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{4CF8EBDD-8A1C-4FE2-8AA8-3F8DACEF6F9B}"/>
+    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{8A277E0C-095B-49E4-918E-D6121B8B0930}"/>
+    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{42320839-9524-4D9B-ADA9-AF41D2EF1CC1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="0" orientation="portrait" r:id="rId2"/>

--- a/AfDD_2023_Annex_Table_Tab26.xlsx
+++ b/AfDD_2023_Annex_Table_Tab26.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A98A54B6-7263-4BC8-90AA-980FD0A94F2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6623569F-34B3-438D-8BD1-107AE76590CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{587E032C-9F3F-4314-A9EA-849983ECC7EE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C2248B3A-EAF8-41E3-8A08-F6FD225FAF68}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab26" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab26'!$A$2:$X$98</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab26'!$A$1:$K$98</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,12 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1445" uniqueCount="198">
-  <si>
-    <t>Table 26: Electricity and sustainable energy</t>
-  </si>
-  <si>
-    <t>ISO3 Code</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="196">
+  <si>
+    <t>Table 26: Electricity production and sustainable energy</t>
   </si>
   <si>
     <t>Country (Resource-rich countries are shaded)</t>
@@ -105,7 +102,7 @@
     <t>Electric power capacity from biofuels in Megawatts (MW), 2020</t>
   </si>
   <si>
-    <t>Electric power capacity renewable energy n.e.s. in Megawatts (MW), 2020</t>
+    <t>Electric power capacity from renewable energy n.e.s. in Megawatts (MW), 2020</t>
   </si>
   <si>
     <t>Electric power capacity nuclear power in Megawatts (MW), 2020</t>
@@ -132,7 +129,7 @@
     <t>Electric power generation from biofuels in GigaWatt hours (GWh), 2020</t>
   </si>
   <si>
-    <t>Electric power generation renewable energy n.e.s. in GigaWatt hours (GWh), 2020</t>
+    <t>Electric power generation from renewable energy n.e.s. in GigaWatt hours (GWh), 2020</t>
   </si>
   <si>
     <t>Electric power generation nuclear power in GigaWatt hours (GWh), 2020</t>
@@ -144,9 +141,6 @@
     <t>Electric power generation from fossil fuels in GigaWatt hours (GWh), 2020</t>
   </si>
   <si>
-    <t>AGO</t>
-  </si>
-  <si>
     <t>Angola*</t>
   </si>
   <si>
@@ -615,7 +609,7 @@
     <t>Access to electricity statistics are taken from reported percentages of population with access to electricity reported in World Bank World Development Indicators adjusted with UN estimates of rural, urban, and total populations. Interpolation was used on missing figures, and adjustments were made to total figures consistent with figures for urban and rural populations.</t>
   </si>
   <si>
-    <t>Source: World Bank World Development Indicators (electricity access figures downloaded 27/03/2023), United Nations Department of Economic and Social Affairs Population Division World Population Prospects: the 2022 Revision, Renewable Energy Statistics 2022, International Renewable Energy Agency (IRENA)(retrieved 06/10/2022).</t>
+    <t>Source: World Bank World Development Indicators (electricity access figures downloaded 27/03/2023), World Population Prospects: the 2022 Revision - United Nations Department of Economic and Social Affairs Population Division, Renewable Energy Statistics 2022, International Renewable Energy Agency (IRENA)(retrieved 06/10/2022).</t>
   </si>
   <si>
     <t>If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022</t>
@@ -1373,11 +1367,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{540D6605-A335-4B47-9BB9-CA06ECF066B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68A56481-C4DF-41E8-80B4-E3FD9DE91306}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI114"/>
+  <dimension ref="A1:AH114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -1385,10 +1379,10 @@
   <cols>
     <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="35" width="12.36328125" style="47" bestFit="1" customWidth="1"/>
+    <col min="3" max="34" width="12.36328125" style="47" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1424,121 +1418,115 @@
       <c r="AF1" s="3"/>
       <c r="AG1" s="3"/>
       <c r="AH1" s="3"/>
-      <c r="AI1" s="3"/>
     </row>
-    <row r="2" spans="1:35" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:34" ht="110.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="P2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="Q2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="R2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="S2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="T2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="U2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="V2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="W2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="X2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="Y2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="Y2" s="7" t="s">
+      <c r="Z2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="AA2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AA2" s="6" t="s">
+      <c r="AB2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="AB2" s="6" t="s">
+      <c r="AC2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AC2" s="6" t="s">
+      <c r="AD2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AD2" s="6" t="s">
+      <c r="AE2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AE2" s="6" t="s">
+      <c r="AF2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="AF2" s="6" t="s">
+      <c r="AG2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AG2" s="6" t="s">
+      <c r="AH2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AH2" s="6" t="s">
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9" t="s">
         <v>34</v>
-      </c>
-      <c r="AI2" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>36</v>
       </c>
       <c r="C3" s="10">
         <v>17278.801098115</v>
@@ -1559,37 +1547,37 @@
         <v>7.3334450725047198</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P3" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q3" s="10">
         <v>13.377000000000001</v>
       </c>
       <c r="R3" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="S3" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="T3" s="10">
         <v>3729.279</v>
@@ -1598,13 +1586,13 @@
         <v>51</v>
       </c>
       <c r="V3" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W3" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X3" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y3" s="11">
         <v>2136.8560000000002</v>
@@ -1613,10 +1601,10 @@
         <v>18.27</v>
       </c>
       <c r="AA3" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AB3" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC3" s="10">
         <v>13801.68</v>
@@ -1625,27 +1613,24 @@
         <v>200</v>
       </c>
       <c r="AE3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH3" s="11">
+        <v>4996.16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>37</v>
-      </c>
-      <c r="AF3" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG3" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH3" s="10">
-        <v>4996.16</v>
-      </c>
-      <c r="AI3" s="11">
-        <v>4996.16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>39</v>
       </c>
       <c r="C4" s="13">
         <v>1833.27614309606</v>
@@ -1666,52 +1651,52 @@
         <v>26.382898330688501</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M4" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O4" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P4" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q4" s="13">
         <v>5.9429999999999996</v>
       </c>
       <c r="R4" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="S4" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="T4" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="U4" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="V4" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W4" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X4" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y4" s="14">
         <v>917</v>
@@ -1720,39 +1705,36 @@
         <v>5.99</v>
       </c>
       <c r="AA4" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AB4" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC4" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AD4" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AE4" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF4" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG4" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH4" s="13">
+        <v>35</v>
+      </c>
+      <c r="AH4" s="14">
         <v>2273.5</v>
       </c>
-      <c r="AI4" s="14">
-        <v>2273.5</v>
-      </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C5" s="16">
         <v>941.34220026806099</v>
@@ -1776,34 +1758,34 @@
         <v>2.6499999999999999E-2</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K5" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L5" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M5" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N5" s="16">
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="O5" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P5" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q5" s="16">
         <v>0.93</v>
       </c>
       <c r="R5" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="S5" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="T5" s="16">
         <v>62.1</v>
@@ -1812,13 +1794,13 @@
         <v>106</v>
       </c>
       <c r="V5" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W5" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X5" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y5" s="17">
         <v>9.9</v>
@@ -1827,10 +1809,10 @@
         <v>1.27</v>
       </c>
       <c r="AA5" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AB5" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC5" s="16">
         <v>230.38</v>
@@ -1839,27 +1821,24 @@
         <v>188.82</v>
       </c>
       <c r="AE5" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF5" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG5" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH5" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI5" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
+      </c>
+      <c r="AH5" s="17" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C6" s="16">
         <v>1067.3780543365499</v>
@@ -1883,49 +1862,49 @@
         <v>75.082999999999998</v>
       </c>
       <c r="J6" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K6" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L6" s="16">
         <v>1.5583</v>
       </c>
       <c r="M6" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N6" s="16">
         <v>8.0000000000000004E-4</v>
       </c>
       <c r="O6" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P6" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q6" s="16">
         <v>0.36299999999999999</v>
       </c>
       <c r="R6" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="S6" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="T6" s="16">
         <v>74.75</v>
       </c>
       <c r="U6" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="V6" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W6" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X6" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y6" s="17">
         <v>0.12</v>
@@ -1934,39 +1913,36 @@
         <v>0.76</v>
       </c>
       <c r="AA6" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AB6" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC6" s="16">
         <v>416.73</v>
       </c>
       <c r="AD6" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AE6" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF6" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG6" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH6" s="16">
+        <v>35</v>
+      </c>
+      <c r="AH6" s="17">
         <v>1.06</v>
       </c>
-      <c r="AI6" s="17">
-        <v>1.06</v>
-      </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C7" s="16">
         <v>2880.7430223551801</v>
@@ -1990,34 +1966,34 @@
         <v>1.5871</v>
       </c>
       <c r="J7" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K7" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L7" s="16">
         <v>0.53420000000000001</v>
       </c>
       <c r="M7" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N7" s="16">
         <v>0.84609999999999996</v>
       </c>
       <c r="O7" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P7" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q7" s="16">
         <v>81.5</v>
       </c>
       <c r="R7" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="S7" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="T7" s="16">
         <v>373.9</v>
@@ -2026,13 +2002,13 @@
         <v>12</v>
       </c>
       <c r="V7" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W7" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X7" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y7" s="17">
         <v>140.774</v>
@@ -2041,10 +2017,10 @@
         <v>167.65</v>
       </c>
       <c r="AA7" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AB7" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC7" s="16">
         <v>1641.55</v>
@@ -2053,27 +2029,24 @@
         <v>53.85</v>
       </c>
       <c r="AE7" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF7" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG7" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH7" s="16">
+        <v>35</v>
+      </c>
+      <c r="AH7" s="17">
         <v>518.04999999999995</v>
       </c>
-      <c r="AI7" s="17">
-        <v>518.04999999999995</v>
-      </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C8" s="16">
         <v>9541.7359604655703</v>
@@ -2094,25 +2067,25 @@
         <v>4.4686910780751701</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K8" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L8" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M8" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N8" s="16">
         <v>140.85390000000001</v>
       </c>
       <c r="O8" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P8" s="17">
         <v>574.30709999999999</v>
@@ -2121,10 +2094,10 @@
         <v>55</v>
       </c>
       <c r="R8" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="S8" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="T8" s="16">
         <v>2203.59</v>
@@ -2133,13 +2106,13 @@
         <v>14</v>
       </c>
       <c r="V8" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W8" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X8" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y8" s="17">
         <v>602.39</v>
@@ -2148,10 +2121,10 @@
         <v>1.65</v>
       </c>
       <c r="AA8" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AB8" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC8" s="16">
         <v>4137.8900000000003</v>
@@ -2160,27 +2133,24 @@
         <v>61.46</v>
       </c>
       <c r="AE8" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF8" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG8" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH8" s="16">
+        <v>35</v>
+      </c>
+      <c r="AH8" s="17">
         <v>554</v>
       </c>
-      <c r="AI8" s="17">
-        <v>554</v>
-      </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C9" s="16">
         <v>1400.3340195900701</v>
@@ -2201,28 +2171,28 @@
         <v>36.288032976572097</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J9" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K9" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L9" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M9" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N9" s="16">
         <v>8.0000000000000004E-4</v>
       </c>
       <c r="O9" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P9" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q9" s="16">
         <v>144.958</v>
@@ -2231,7 +2201,7 @@
         <v>5.2309999999999999</v>
       </c>
       <c r="S9" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="T9" s="16">
         <v>351</v>
@@ -2240,13 +2210,13 @@
         <v>0.25</v>
       </c>
       <c r="V9" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W9" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X9" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y9" s="17">
         <v>183.31</v>
@@ -2258,7 +2228,7 @@
         <v>21.63</v>
       </c>
       <c r="AB9" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC9" s="16">
         <v>1236.5</v>
@@ -2267,27 +2237,24 @@
         <v>0.22</v>
       </c>
       <c r="AE9" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF9" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG9" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH9" s="16">
+        <v>35</v>
+      </c>
+      <c r="AH9" s="17">
         <v>158.25</v>
       </c>
-      <c r="AI9" s="17">
-        <v>158.25</v>
-      </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C10" s="16">
         <v>49620.321202393803</v>
@@ -2311,13 +2278,13 @@
         <v>4.9799999999999997E-2</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K10" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L10" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M10" s="16">
         <v>3.5499999999999997E-2</v>
@@ -2326,10 +2293,10 @@
         <v>6.7249999999999996</v>
       </c>
       <c r="O10" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P10" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q10" s="16">
         <v>5989.5780000000004</v>
@@ -2338,7 +2305,7 @@
         <v>2516</v>
       </c>
       <c r="S10" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="T10" s="16">
         <v>747.65</v>
@@ -2347,7 +2314,7 @@
         <v>264.685</v>
       </c>
       <c r="V10" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W10" s="16">
         <v>1940</v>
@@ -2365,7 +2332,7 @@
         <v>299.5</v>
       </c>
       <c r="AB10" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC10" s="16">
         <v>1233.02</v>
@@ -2374,7 +2341,7 @@
         <v>431.33</v>
       </c>
       <c r="AE10" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF10" s="16">
         <v>10740.25</v>
@@ -2382,19 +2349,16 @@
       <c r="AG10" s="16">
         <v>4861.25</v>
       </c>
-      <c r="AH10" s="16">
+      <c r="AH10" s="17">
         <v>187686.32</v>
       </c>
-      <c r="AI10" s="17">
-        <v>187686.32</v>
-      </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C11" s="13">
         <v>8427.4657517303604</v>
@@ -2418,34 +2382,34 @@
         <v>0.2223</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L11" s="13">
         <v>12.116899999999999</v>
       </c>
       <c r="M11" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N11" s="13">
         <v>8.0000000000000004E-4</v>
       </c>
       <c r="O11" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P11" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q11" s="13">
         <v>96.424000000000007</v>
       </c>
       <c r="R11" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="S11" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="T11" s="13">
         <v>2398.9969999999998</v>
@@ -2454,13 +2418,13 @@
         <v>42.8</v>
       </c>
       <c r="V11" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W11" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X11" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y11" s="14">
         <v>524.6</v>
@@ -2469,10 +2433,10 @@
         <v>163.06</v>
       </c>
       <c r="AA11" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AB11" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC11" s="13">
         <v>12794.96</v>
@@ -2481,27 +2445,24 @@
         <v>78.31</v>
       </c>
       <c r="AE11" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF11" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG11" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH11" s="13">
+        <v>35</v>
+      </c>
+      <c r="AH11" s="14">
         <v>2216.09</v>
       </c>
-      <c r="AI11" s="14">
-        <v>2216.09</v>
-      </c>
     </row>
-    <row r="12" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C12" s="16">
         <v>8265.3835895542197</v>
@@ -2522,37 +2483,37 @@
         <v>37.060251378503203</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J12" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K12" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L12" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M12" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N12" s="16">
         <v>1.1599999999999999E-2</v>
       </c>
       <c r="O12" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P12" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q12" s="16">
         <v>18.283000000000001</v>
       </c>
       <c r="R12" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="S12" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="T12" s="16">
         <v>1081.0550000000001</v>
@@ -2561,13 +2522,13 @@
         <v>100</v>
       </c>
       <c r="V12" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W12" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X12" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y12" s="17">
         <v>1200</v>
@@ -2576,10 +2537,10 @@
         <v>33.520000000000003</v>
       </c>
       <c r="AA12" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AB12" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC12" s="16">
         <v>3882</v>
@@ -2588,27 +2549,24 @@
         <v>283.10000000000002</v>
       </c>
       <c r="AE12" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF12" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG12" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH12" s="16">
+        <v>35</v>
+      </c>
+      <c r="AH12" s="17">
         <v>2477.3000000000002</v>
       </c>
-      <c r="AI12" s="17">
-        <v>2477.3000000000002</v>
-      </c>
     </row>
-    <row r="13" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C13" s="20">
         <v>101256.78104190499</v>
@@ -2632,10 +2590,10 @@
         <v>76.968699999999998</v>
       </c>
       <c r="J13" s="20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K13" s="20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L13" s="20">
         <v>14.2094</v>
@@ -2647,7 +2605,7 @@
         <v>148.49700000000001</v>
       </c>
       <c r="O13" s="20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P13" s="21">
         <v>574.30709999999999</v>
@@ -2659,7 +2617,7 @@
         <v>2521.2310000000002</v>
       </c>
       <c r="S13" s="20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="T13" s="20">
         <v>11022.321</v>
@@ -2668,7 +2626,7 @@
         <v>590.73500000000001</v>
       </c>
       <c r="V13" s="20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W13" s="20">
         <v>1940</v>
@@ -2686,7 +2644,7 @@
         <v>321.13</v>
       </c>
       <c r="AB13" s="20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC13" s="20">
         <v>39374.71</v>
@@ -2695,7 +2653,7 @@
         <v>1297.0899999999999</v>
       </c>
       <c r="AE13" s="20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF13" s="20">
         <v>10740.25</v>
@@ -2703,19 +2661,16 @@
       <c r="AG13" s="20">
         <v>4861.25</v>
       </c>
-      <c r="AH13" s="20">
+      <c r="AH13" s="21">
         <v>200880.73</v>
       </c>
-      <c r="AI13" s="21">
-        <v>200880.73</v>
-      </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C14" s="16">
         <v>1434.11157481124</v>
@@ -2739,34 +2694,34 @@
         <v>91.046000000000006</v>
       </c>
       <c r="J14" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K14" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L14" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M14" s="16">
         <v>17.530799999999999</v>
       </c>
       <c r="N14" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O14" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P14" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q14" s="16">
         <v>5.1029999999999998</v>
       </c>
       <c r="R14" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="S14" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="T14" s="16">
         <v>48.283000000000001</v>
@@ -2775,13 +2730,13 @@
         <v>4</v>
       </c>
       <c r="V14" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W14" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X14" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y14" s="17">
         <v>50.5</v>
@@ -2790,10 +2745,10 @@
         <v>7.93</v>
       </c>
       <c r="AA14" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AB14" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC14" s="16">
         <v>271.58999999999997</v>
@@ -2802,27 +2757,24 @@
         <v>5.55</v>
       </c>
       <c r="AE14" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF14" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG14" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH14" s="16">
+        <v>35</v>
+      </c>
+      <c r="AH14" s="17">
         <v>118.02</v>
       </c>
-      <c r="AI14" s="17">
-        <v>118.02</v>
-      </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C15" s="16">
         <v>17145.393767915299</v>
@@ -2846,49 +2798,49 @@
         <v>35.021900000000002</v>
       </c>
       <c r="J15" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K15" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L15" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M15" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N15" s="16">
         <v>2.7538</v>
       </c>
       <c r="O15" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P15" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q15" s="16">
         <v>14.317</v>
       </c>
       <c r="R15" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="S15" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="T15" s="16">
         <v>812.3</v>
       </c>
       <c r="U15" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="V15" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W15" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X15" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y15" s="17">
         <v>705</v>
@@ -2897,39 +2849,36 @@
         <v>19.670000000000002</v>
       </c>
       <c r="AA15" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AB15" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC15" s="16">
         <v>5089.8999999999996</v>
       </c>
       <c r="AD15" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AE15" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF15" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG15" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH15" s="16">
+        <v>35</v>
+      </c>
+      <c r="AH15" s="17">
         <v>1336.15</v>
       </c>
-      <c r="AI15" s="17">
-        <v>1336.15</v>
-      </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C16" s="16">
         <v>826.30253519363305</v>
@@ -2953,49 +2902,49 @@
         <v>5.9318</v>
       </c>
       <c r="J16" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K16" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L16" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M16" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N16" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O16" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P16" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q16" s="16">
         <v>0.316</v>
       </c>
       <c r="R16" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="S16" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="T16" s="16">
         <v>18.850000000000001</v>
       </c>
       <c r="U16" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="V16" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W16" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X16" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y16" s="17">
         <v>22</v>
@@ -3004,39 +2953,36 @@
         <v>0.43</v>
       </c>
       <c r="AA16" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AB16" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC16" s="16">
         <v>135.6</v>
       </c>
       <c r="AD16" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AE16" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF16" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG16" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH16" s="16">
+        <v>35</v>
+      </c>
+      <c r="AH16" s="17">
         <v>5.2</v>
       </c>
-      <c r="AI16" s="17">
-        <v>5.2</v>
-      </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C17" s="23">
         <v>1844.2523895833201</v>
@@ -3060,25 +3006,25 @@
         <v>10.5474</v>
       </c>
       <c r="J17" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K17" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L17" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M17" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N17" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O17" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P17" s="24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q17" s="23">
         <v>0.72699999999999998</v>
@@ -3087,22 +3033,22 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="S17" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="T17" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="U17" s="23">
         <v>2</v>
       </c>
       <c r="V17" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W17" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X17" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y17" s="24">
         <v>282</v>
@@ -3114,36 +3060,33 @@
         <v>8.9</v>
       </c>
       <c r="AB17" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC17" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AD17" s="23">
         <v>9.5</v>
       </c>
       <c r="AE17" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF17" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG17" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH17" s="23">
+        <v>35</v>
+      </c>
+      <c r="AH17" s="24">
         <v>325.64</v>
       </c>
-      <c r="AI17" s="24">
-        <v>325.64</v>
-      </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C18" s="23">
         <v>2823.5512751889801</v>
@@ -3164,37 +3107,37 @@
         <v>14.7540329829279</v>
       </c>
       <c r="I18" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J18" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K18" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L18" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M18" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N18" s="23">
         <v>0.29849999999999999</v>
       </c>
       <c r="O18" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P18" s="24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q18" s="23">
         <v>0.72</v>
       </c>
       <c r="R18" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="S18" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="T18" s="23">
         <v>213.9</v>
@@ -3203,13 +3146,13 @@
         <v>12.2</v>
       </c>
       <c r="V18" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W18" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X18" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y18" s="24">
         <v>596.66</v>
@@ -3218,39 +3161,36 @@
         <v>0.9</v>
       </c>
       <c r="AA18" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AB18" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC18" s="23">
         <v>1046</v>
       </c>
       <c r="AD18" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AE18" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF18" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG18" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH18" s="23">
+        <v>35</v>
+      </c>
+      <c r="AH18" s="24">
         <v>1573.4</v>
       </c>
-      <c r="AI18" s="24">
-        <v>1573.4</v>
-      </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C19" s="13">
         <v>17734.954678206701</v>
@@ -3271,37 +3211,37 @@
         <v>1.0000018181369099</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K19" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L19" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M19" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N19" s="13">
         <v>7.6E-3</v>
       </c>
       <c r="O19" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P19" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q19" s="13">
         <v>19.927</v>
       </c>
       <c r="R19" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="S19" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="T19" s="13">
         <v>2722.7</v>
@@ -3310,13 +3250,13 @@
         <v>2.96</v>
       </c>
       <c r="V19" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W19" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X19" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y19" s="14">
         <v>29</v>
@@ -3325,39 +3265,36 @@
         <v>28.14</v>
       </c>
       <c r="AA19" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AB19" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC19" s="13">
         <v>11890.76</v>
       </c>
       <c r="AD19" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AE19" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF19" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG19" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH19" s="13">
+        <v>35</v>
+      </c>
+      <c r="AH19" s="14">
         <v>112.03</v>
       </c>
-      <c r="AI19" s="14">
-        <v>112.03</v>
-      </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C20" s="23">
         <v>1065.3264561552901</v>
@@ -3378,93 +3315,90 @@
         <v>0.93263000249863004</v>
       </c>
       <c r="I20" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J20" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K20" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L20" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M20" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N20" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O20" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P20" s="24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q20" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="R20" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="S20" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="T20" s="23">
         <v>127.14</v>
       </c>
       <c r="U20" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="V20" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W20" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X20" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y20" s="24">
         <v>273.971</v>
       </c>
       <c r="Z20" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AA20" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AB20" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC20" s="23">
         <v>127</v>
       </c>
       <c r="AD20" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AE20" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF20" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG20" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH20" s="23">
+        <v>35</v>
+      </c>
+      <c r="AH20" s="24">
         <v>937.07</v>
       </c>
-      <c r="AI20" s="24">
-        <v>937.07</v>
-      </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C21" s="23">
         <v>2099.3449455386299</v>
@@ -3485,37 +3419,37 @@
         <v>27.7633441386443</v>
       </c>
       <c r="I21" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J21" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K21" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L21" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M21" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N21" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O21" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P21" s="24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q21" s="23">
         <v>1.4</v>
       </c>
       <c r="R21" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="S21" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="T21" s="23">
         <v>330.28699999999998</v>
@@ -3524,13 +3458,13 @@
         <v>1.2</v>
       </c>
       <c r="V21" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W21" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X21" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y21" s="24">
         <v>279.47000000000003</v>
@@ -3539,10 +3473,10 @@
         <v>1.92</v>
       </c>
       <c r="AA21" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AB21" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC21" s="23">
         <v>982.39</v>
@@ -3551,27 +3485,24 @@
         <v>1.22</v>
       </c>
       <c r="AE21" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF21" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG21" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH21" s="23">
+        <v>35</v>
+      </c>
+      <c r="AH21" s="24">
         <v>840</v>
       </c>
-      <c r="AI21" s="24">
-        <v>840</v>
-      </c>
     </row>
-    <row r="22" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C22" s="16">
         <v>167.38955922493</v>
@@ -3592,52 +3523,52 @@
         <v>71.077508254810795</v>
       </c>
       <c r="I22" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J22" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K22" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L22" s="16">
         <v>13.5595</v>
       </c>
       <c r="M22" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N22" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O22" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P22" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q22" s="16">
         <v>0.33400000000000002</v>
       </c>
       <c r="R22" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="S22" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="T22" s="16">
         <v>2.3199999999999998</v>
       </c>
       <c r="U22" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="V22" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W22" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X22" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y22" s="17">
         <v>44.905000000000001</v>
@@ -3646,39 +3577,36 @@
         <v>0.42</v>
       </c>
       <c r="AA22" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AB22" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC22" s="16">
         <v>5.89</v>
       </c>
       <c r="AD22" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AE22" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF22" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG22" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH22" s="16">
+        <v>35</v>
+      </c>
+      <c r="AH22" s="17">
         <v>95.53</v>
       </c>
-      <c r="AI22" s="17">
-        <v>95.53</v>
-      </c>
     </row>
-    <row r="23" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C23" s="20">
         <v>45140.627181818003</v>
@@ -3702,10 +3630,10 @@
         <v>142.5471</v>
       </c>
       <c r="J23" s="20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K23" s="20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L23" s="20">
         <v>13.5595</v>
@@ -3717,10 +3645,10 @@
         <v>3.0598999999999998</v>
       </c>
       <c r="O23" s="20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P23" s="21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q23" s="20">
         <v>42.844000000000001</v>
@@ -3729,7 +3657,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="S23" s="20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="T23" s="20">
         <v>4275.78</v>
@@ -3738,13 +3666,13 @@
         <v>22.36</v>
       </c>
       <c r="V23" s="20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W23" s="20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X23" s="20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y23" s="21">
         <v>2283.5059999999999</v>
@@ -3756,7 +3684,7 @@
         <v>8.9</v>
       </c>
       <c r="AB23" s="20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC23" s="20">
         <v>19549.13</v>
@@ -3765,27 +3693,24 @@
         <v>16.27</v>
       </c>
       <c r="AE23" s="20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF23" s="20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG23" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH23" s="20">
+        <v>35</v>
+      </c>
+      <c r="AH23" s="21">
         <v>5343.04</v>
       </c>
-      <c r="AI23" s="21">
-        <v>5343.04</v>
-      </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C24" s="16">
         <v>699.24530658416802</v>
@@ -3809,90 +3734,87 @@
         <v>16.410499999999999</v>
       </c>
       <c r="J24" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K24" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L24" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M24" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N24" s="16">
         <v>4.8500000000000001E-2</v>
       </c>
       <c r="O24" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P24" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q24" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="R24" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="S24" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="T24" s="16">
         <v>1.448</v>
       </c>
       <c r="U24" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="V24" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W24" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X24" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y24" s="17">
         <v>21.6</v>
       </c>
       <c r="Z24" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AA24" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AB24" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC24" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AD24" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AE24" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF24" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG24" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH24" s="16">
+        <v>35</v>
+      </c>
+      <c r="AH24" s="17">
         <v>50.12</v>
       </c>
-      <c r="AI24" s="17">
-        <v>50.12</v>
-      </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C25" s="16">
         <v>673.35761833240497</v>
@@ -3916,22 +3838,22 @@
         <v>6.6299999999999998E-2</v>
       </c>
       <c r="J25" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K25" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L25" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M25" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N25" s="16">
         <v>1.3705000000000001</v>
       </c>
       <c r="O25" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P25" s="17">
         <v>95.713200000000001</v>
@@ -3940,25 +3862,25 @@
         <v>0.36199999999999999</v>
       </c>
       <c r="R25" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="S25" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="T25" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="U25" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="V25" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W25" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X25" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y25" s="17">
         <v>123</v>
@@ -3967,39 +3889,36 @@
         <v>0.6</v>
       </c>
       <c r="AA25" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AB25" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC25" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AD25" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AE25" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF25" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG25" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH25" s="16">
+        <v>35</v>
+      </c>
+      <c r="AH25" s="17">
         <v>568</v>
       </c>
-      <c r="AI25" s="17">
-        <v>568</v>
-      </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C26" s="16">
         <v>1935.7482100346999</v>
@@ -4020,28 +3939,28 @@
         <v>39.024684905257502</v>
       </c>
       <c r="I26" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J26" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K26" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L26" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M26" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N26" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O26" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P26" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q26" s="16">
         <v>22.209</v>
@@ -4050,22 +3969,22 @@
         <v>0.82499999999999996</v>
       </c>
       <c r="S26" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="T26" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="U26" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="V26" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W26" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X26" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y26" s="17">
         <v>205</v>
@@ -4077,36 +3996,33 @@
         <v>2</v>
       </c>
       <c r="AB26" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC26" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AD26" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AE26" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF26" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG26" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH26" s="16">
+        <v>35</v>
+      </c>
+      <c r="AH26" s="17">
         <v>419</v>
       </c>
-      <c r="AI26" s="17">
-        <v>419</v>
-      </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C27" s="16">
         <v>59877.503788249604</v>
@@ -4130,22 +4046,22 @@
         <v>5.3100000000000001E-2</v>
       </c>
       <c r="J27" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K27" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L27" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M27" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N27" s="16">
         <v>0.56720000000000004</v>
       </c>
       <c r="O27" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P27" s="17">
         <v>5.3E-3</v>
@@ -4166,13 +4082,13 @@
         <v>290</v>
       </c>
       <c r="V27" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W27" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X27" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y27" s="17">
         <v>104</v>
@@ -4184,7 +4100,7 @@
         <v>609.04</v>
       </c>
       <c r="AB27" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC27" s="16">
         <v>14403.7</v>
@@ -4193,27 +4109,24 @@
         <v>29.98</v>
       </c>
       <c r="AE27" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF27" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG27" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH27" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI27" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
+      </c>
+      <c r="AH27" s="17" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A28" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C28" s="16">
         <v>37137.571627114899</v>
@@ -4237,25 +4150,25 @@
         <v>19.795000000000002</v>
       </c>
       <c r="J28" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K28" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L28" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M28" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N28" s="16">
         <v>2.5152000000000001</v>
       </c>
       <c r="O28" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P28" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q28" s="16">
         <v>105.827</v>
@@ -4273,13 +4186,13 @@
         <v>87.203999999999994</v>
       </c>
       <c r="V28" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W28" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X28" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y28" s="17">
         <v>751.4</v>
@@ -4300,27 +4213,24 @@
         <v>159.43</v>
       </c>
       <c r="AE28" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF28" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG28" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH28" s="16">
+        <v>35</v>
+      </c>
+      <c r="AH28" s="17">
         <v>2409.1799999999998</v>
       </c>
-      <c r="AI28" s="17">
-        <v>2409.1799999999998</v>
-      </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A29" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C29" s="16">
         <v>9521.7852538381503</v>
@@ -4341,28 +4251,28 @@
         <v>10.8984851838289</v>
       </c>
       <c r="I29" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J29" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K29" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L29" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M29" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N29" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O29" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P29" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q29" s="16">
         <v>33</v>
@@ -4371,7 +4281,7 @@
         <v>0.17699999999999999</v>
       </c>
       <c r="S29" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="T29" s="16">
         <v>163.79900000000001</v>
@@ -4380,13 +4290,13 @@
         <v>0.23400000000000001</v>
       </c>
       <c r="V29" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W29" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X29" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y29" s="17">
         <v>622</v>
@@ -4398,7 +4308,7 @@
         <v>0.47</v>
       </c>
       <c r="AB29" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC29" s="16">
         <v>844.46</v>
@@ -4407,27 +4317,24 @@
         <v>0.62</v>
       </c>
       <c r="AE29" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF29" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG29" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH29" s="16">
+        <v>35</v>
+      </c>
+      <c r="AH29" s="17">
         <v>1018.48</v>
       </c>
-      <c r="AI29" s="17">
-        <v>1018.48</v>
-      </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A30" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C30" s="16">
         <v>1293.43684870785</v>
@@ -4448,28 +4355,28 @@
         <v>99.835762023925795</v>
       </c>
       <c r="I30" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J30" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K30" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L30" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M30" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N30" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O30" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P30" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q30" s="16">
         <v>83.49</v>
@@ -4478,7 +4385,7 @@
         <v>10.63</v>
       </c>
       <c r="S30" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="T30" s="16">
         <v>60.74</v>
@@ -4487,13 +4394,13 @@
         <v>90.65</v>
       </c>
       <c r="V30" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W30" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X30" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y30" s="17">
         <v>610.1</v>
@@ -4505,7 +4412,7 @@
         <v>18</v>
       </c>
       <c r="AB30" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC30" s="16">
         <v>116</v>
@@ -4514,27 +4421,24 @@
         <v>409</v>
       </c>
       <c r="AE30" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF30" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG30" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH30" s="16">
+        <v>35</v>
+      </c>
+      <c r="AH30" s="17">
         <v>2194</v>
       </c>
-      <c r="AI30" s="17">
-        <v>2194</v>
-      </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A31" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C31" s="16">
         <v>6126.20484889198</v>
@@ -4558,10 +4462,10 @@
         <v>14.609</v>
       </c>
       <c r="J31" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K31" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L31" s="16">
         <v>242.8999</v>
@@ -4570,22 +4474,22 @@
         <v>11.687200000000001</v>
       </c>
       <c r="N31" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O31" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P31" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q31" s="16">
         <v>38.338000000000001</v>
       </c>
       <c r="R31" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="S31" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="T31" s="16">
         <v>119.563</v>
@@ -4594,13 +4498,13 @@
         <v>0.83499999999999996</v>
       </c>
       <c r="V31" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W31" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X31" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y31" s="17">
         <v>114.14</v>
@@ -4609,10 +4513,10 @@
         <v>56.31</v>
       </c>
       <c r="AA31" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AB31" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC31" s="16">
         <v>518.78</v>
@@ -4621,27 +4525,24 @@
         <v>2.33</v>
       </c>
       <c r="AE31" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF31" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG31" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH31" s="16">
+        <v>35</v>
+      </c>
+      <c r="AH31" s="17">
         <v>339.44</v>
       </c>
-      <c r="AI31" s="17">
-        <v>339.44</v>
-      </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A32" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C32" s="16">
         <v>105.53</v>
@@ -4662,28 +4563,28 @@
         <v>100</v>
       </c>
       <c r="I32" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J32" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K32" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L32" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M32" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N32" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O32" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P32" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q32" s="16">
         <v>3.7879999999999998</v>
@@ -4692,22 +4593,22 @@
         <v>6</v>
       </c>
       <c r="S32" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="T32" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="U32" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="V32" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W32" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X32" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y32" s="17">
         <v>116.4</v>
@@ -4719,36 +4620,33 @@
         <v>5.99</v>
       </c>
       <c r="AB32" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC32" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AD32" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AE32" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF32" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG32" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH32" s="16">
+        <v>35</v>
+      </c>
+      <c r="AH32" s="17">
         <v>430.13</v>
       </c>
-      <c r="AI32" s="17">
-        <v>430.13</v>
-      </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A33" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C33" s="16">
         <v>8224.0019639604307</v>
@@ -4772,25 +4670,25 @@
         <v>5.3100000000000001E-2</v>
       </c>
       <c r="J33" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K33" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L33" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M33" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N33" s="16">
         <v>5.3100000000000001E-2</v>
       </c>
       <c r="O33" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P33" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q33" s="16">
         <v>15.538</v>
@@ -4799,22 +4697,22 @@
         <v>3.55</v>
       </c>
       <c r="S33" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="T33" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="U33" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="V33" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W33" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X33" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y33" s="17">
         <v>100</v>
@@ -4826,143 +4724,137 @@
         <v>6.22</v>
       </c>
       <c r="AB33" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC33" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AD33" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AE33" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF33" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG33" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH33" s="16">
+        <v>35</v>
+      </c>
+      <c r="AH33" s="17">
         <v>700</v>
       </c>
-      <c r="AI33" s="17">
-        <v>700</v>
-      </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A34" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C34" s="23">
+        <v>768.03278201776004</v>
+      </c>
+      <c r="D34" s="23">
+        <v>297.11566929897202</v>
+      </c>
+      <c r="E34" s="23">
+        <v>470.91711271878802</v>
+      </c>
+      <c r="F34" s="23">
+        <v>7.2413383384851198</v>
+      </c>
+      <c r="G34" s="23">
+        <v>13.8686685560192</v>
+      </c>
+      <c r="H34" s="24">
+        <v>5.5638475418287996</v>
+      </c>
+      <c r="I34" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="J34" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="K34" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="L34" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="M34" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="N34" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="O34" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="P34" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q34" s="23">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="R34" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="S34" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="T34" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="U34" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="V34" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="W34" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="X34" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y34" s="24">
+        <v>174.4</v>
+      </c>
+      <c r="Z34" s="23">
+        <v>1.25</v>
+      </c>
+      <c r="AA34" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB34" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC34" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD34" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE34" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF34" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG34" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH34" s="24">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="35" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A35" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B35" s="15" t="s">
         <v>98</v>
-      </c>
-      <c r="C34" s="13">
-        <v>768.03278201776004</v>
-      </c>
-      <c r="D34" s="13">
-        <v>297.11566929897202</v>
-      </c>
-      <c r="E34" s="13">
-        <v>470.91711271878802</v>
-      </c>
-      <c r="F34" s="13">
-        <v>7.2413383384851198</v>
-      </c>
-      <c r="G34" s="13">
-        <v>13.8686685560192</v>
-      </c>
-      <c r="H34" s="14">
-        <v>5.5638475418287996</v>
-      </c>
-      <c r="I34" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="J34" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="K34" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="L34" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="M34" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="N34" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="O34" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="P34" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q34" s="13">
-        <v>0.83499999999999996</v>
-      </c>
-      <c r="R34" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="S34" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="T34" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="U34" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="V34" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="W34" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="X34" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y34" s="14">
-        <v>174.4</v>
-      </c>
-      <c r="Z34" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="AA34" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB34" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC34" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD34" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE34" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF34" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG34" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH34" s="13">
-        <v>580</v>
-      </c>
-      <c r="AI34" s="14">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A35" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>100</v>
       </c>
       <c r="C35" s="16">
         <v>24615.452695198601</v>
@@ -4986,34 +4878,34 @@
         <v>17.927199999999999</v>
       </c>
       <c r="J35" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K35" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L35" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M35" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N35" s="16">
         <v>0.1386</v>
       </c>
       <c r="O35" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P35" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q35" s="16">
         <v>117.13</v>
       </c>
       <c r="R35" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="S35" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="T35" s="16">
         <v>1482</v>
@@ -5022,13 +4914,13 @@
         <v>199</v>
       </c>
       <c r="V35" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W35" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X35" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y35" s="17">
         <v>1935</v>
@@ -5037,10 +4929,10 @@
         <v>27.51</v>
       </c>
       <c r="AA35" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AB35" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC35" s="16">
         <v>11008</v>
@@ -5049,27 +4941,24 @@
         <v>103.85</v>
       </c>
       <c r="AE35" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF35" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG35" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH35" s="16">
+        <v>35</v>
+      </c>
+      <c r="AH35" s="17">
         <v>5408.72</v>
       </c>
-      <c r="AI35" s="17">
-        <v>5408.72</v>
-      </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A36" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C36" s="16">
         <v>24620.103623536201</v>
@@ -5096,22 +4985,22 @@
         <v>0.83679999999999999</v>
       </c>
       <c r="K36" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L36" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M36" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N36" s="16">
         <v>15.424799999999999</v>
       </c>
       <c r="O36" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P36" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q36" s="16">
         <v>23.643999999999998</v>
@@ -5120,7 +5009,7 @@
         <v>2.4</v>
       </c>
       <c r="S36" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="T36" s="16">
         <v>589.12</v>
@@ -5129,13 +5018,13 @@
         <v>70.185000000000002</v>
       </c>
       <c r="V36" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W36" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X36" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y36" s="17">
         <v>1317.6759999999999</v>
@@ -5144,10 +5033,10 @@
         <v>42.36</v>
       </c>
       <c r="AA36" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AB36" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC36" s="16">
         <v>3223.58</v>
@@ -5156,27 +5045,24 @@
         <v>151.35</v>
       </c>
       <c r="AE36" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF36" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG36" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH36" s="16">
+        <v>35</v>
+      </c>
+      <c r="AH36" s="17">
         <v>4558.2</v>
       </c>
-      <c r="AI36" s="17">
-        <v>4558.2</v>
-      </c>
     </row>
-    <row r="37" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C37" s="16">
         <v>18682.9817730332</v>
@@ -5200,34 +5086,34 @@
         <v>0.83760000000000001</v>
       </c>
       <c r="J37" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K37" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L37" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M37" s="16">
         <v>1.11E-2</v>
       </c>
       <c r="N37" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O37" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P37" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q37" s="16">
         <v>87.292000000000002</v>
       </c>
       <c r="R37" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="S37" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="T37" s="16">
         <v>1010.6</v>
@@ -5236,13 +5122,13 @@
         <v>96.2</v>
       </c>
       <c r="V37" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W37" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X37" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y37" s="17">
         <v>102.68</v>
@@ -5251,10 +5137,10 @@
         <v>122.04</v>
       </c>
       <c r="AA37" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AB37" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC37" s="16">
         <v>4028.12</v>
@@ -5263,27 +5149,24 @@
         <v>267.82</v>
       </c>
       <c r="AE37" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF37" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG37" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH37" s="16">
+        <v>35</v>
+      </c>
+      <c r="AH37" s="17">
         <v>59.03</v>
       </c>
-      <c r="AI37" s="17">
-        <v>59.03</v>
-      </c>
     </row>
-    <row r="38" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C38" s="20">
         <v>194280.9563395</v>
@@ -5310,7 +5193,7 @@
         <v>0.83679999999999999</v>
       </c>
       <c r="K38" s="20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L38" s="20">
         <v>242.8999</v>
@@ -5322,7 +5205,7 @@
         <v>20.117899999999999</v>
       </c>
       <c r="O38" s="20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P38" s="21">
         <v>95.718500000000006</v>
@@ -5343,13 +5226,13 @@
         <v>834.30799999999999</v>
       </c>
       <c r="V38" s="20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W38" s="20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X38" s="20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y38" s="21">
         <v>6297.3959999999997</v>
@@ -5370,27 +5253,24 @@
         <v>1124.3800000000001</v>
       </c>
       <c r="AE38" s="20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF38" s="20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG38" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH38" s="20">
+        <v>35</v>
+      </c>
+      <c r="AH38" s="21">
         <v>18734.3</v>
       </c>
-      <c r="AI38" s="21">
-        <v>18734.3</v>
-      </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A39" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C39" s="23">
         <v>43366.557462614597</v>
@@ -5411,28 +5291,28 @@
         <v>99.579903407993896</v>
       </c>
       <c r="I39" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J39" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K39" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L39" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M39" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N39" s="23">
         <v>8.0000000000000004E-4</v>
       </c>
       <c r="O39" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P39" s="24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q39" s="23">
         <v>448</v>
@@ -5441,22 +5321,22 @@
         <v>10</v>
       </c>
       <c r="S39" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="T39" s="23">
         <v>228</v>
       </c>
       <c r="U39" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="V39" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W39" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X39" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y39" s="24">
         <v>24077.599999999999</v>
@@ -5468,36 +5348,33 @@
         <v>8</v>
       </c>
       <c r="AB39" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC39" s="23">
         <v>50</v>
       </c>
       <c r="AD39" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AE39" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF39" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG39" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH39" s="23">
+        <v>35</v>
+      </c>
+      <c r="AH39" s="24">
         <v>78691</v>
       </c>
-      <c r="AI39" s="24">
-        <v>78691</v>
-      </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A40" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C40" s="16">
         <v>107465.13400000001</v>
@@ -5518,25 +5395,25 @@
         <v>100.000000000358</v>
       </c>
       <c r="I40" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J40" s="16">
         <v>126.6771</v>
       </c>
       <c r="K40" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L40" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M40" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N40" s="16">
         <v>6.7577999999999996</v>
       </c>
       <c r="O40" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P40" s="17">
         <v>8.6300000000000002E-2</v>
@@ -5548,7 +5425,7 @@
         <v>1380</v>
       </c>
       <c r="S40" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="T40" s="16">
         <v>2832</v>
@@ -5557,13 +5434,13 @@
         <v>79</v>
       </c>
       <c r="V40" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W40" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X40" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y40" s="17">
         <v>53242.89</v>
@@ -5575,7 +5452,7 @@
         <v>4245.45</v>
       </c>
       <c r="AB40" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC40" s="16">
         <v>15038</v>
@@ -5584,27 +5461,24 @@
         <v>328.27</v>
       </c>
       <c r="AE40" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF40" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG40" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH40" s="16">
+        <v>35</v>
+      </c>
+      <c r="AH40" s="17">
         <v>173613.87</v>
       </c>
-      <c r="AI40" s="17">
-        <v>173613.87</v>
-      </c>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A41" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C41" s="23">
         <v>4638.2867508273303</v>
@@ -5628,49 +5502,49 @@
         <v>9.4999999999999998E-3</v>
       </c>
       <c r="J41" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K41" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L41" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M41" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N41" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O41" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P41" s="24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q41" s="23">
         <v>5.1109999999999998</v>
       </c>
       <c r="R41" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="S41" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="T41" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="U41" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="V41" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W41" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X41" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y41" s="24">
         <v>10763</v>
@@ -5679,39 +5553,36 @@
         <v>7.79</v>
       </c>
       <c r="AA41" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AB41" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC41" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AD41" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AE41" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF41" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG41" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH41" s="23">
+        <v>35</v>
+      </c>
+      <c r="AH41" s="24">
         <v>33711</v>
       </c>
-      <c r="AI41" s="24">
-        <v>33711</v>
-      </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A42" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C42" s="23">
         <v>2286.0535772285998</v>
@@ -5732,28 +5603,28 @@
         <v>4.3018969876285196</v>
       </c>
       <c r="I42" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J42" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K42" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L42" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M42" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N42" s="23">
         <v>27.6402</v>
       </c>
       <c r="O42" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P42" s="24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q42" s="23">
         <v>87.509</v>
@@ -5762,22 +5633,22 @@
         <v>34.4</v>
       </c>
       <c r="S42" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="T42" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="U42" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="V42" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W42" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X42" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y42" s="24">
         <v>464.625</v>
@@ -5789,36 +5660,33 @@
         <v>131.19999999999999</v>
       </c>
       <c r="AB42" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC42" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AD42" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AE42" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF42" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG42" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH42" s="23">
+        <v>35</v>
+      </c>
+      <c r="AH42" s="24">
         <v>1099</v>
       </c>
-      <c r="AI42" s="24">
-        <v>1099</v>
-      </c>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A43" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C43" s="16">
         <v>36688.771999999997</v>
@@ -5839,28 +5707,28 @@
         <v>100.000000000299</v>
       </c>
       <c r="I43" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J43" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K43" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L43" s="16">
         <v>165.23099999999999</v>
       </c>
       <c r="M43" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N43" s="16">
         <v>5.8400000000000001E-2</v>
       </c>
       <c r="O43" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P43" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q43" s="16">
         <v>734</v>
@@ -5869,7 +5737,7 @@
         <v>1405</v>
       </c>
       <c r="S43" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="T43" s="16">
         <v>1305.5329999999999</v>
@@ -5878,10 +5746,10 @@
         <v>7.4</v>
       </c>
       <c r="V43" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W43" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X43" s="16">
         <v>464</v>
@@ -5896,7 +5764,7 @@
         <v>4607.13</v>
       </c>
       <c r="AB43" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC43" s="16">
         <v>867.64</v>
@@ -5905,27 +5773,24 @@
         <v>40.06</v>
       </c>
       <c r="AE43" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF43" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG43" s="16">
         <v>422.45</v>
       </c>
-      <c r="AH43" s="16">
+      <c r="AH43" s="17">
         <v>31352.73</v>
       </c>
-      <c r="AI43" s="17">
-        <v>31352.73</v>
-      </c>
     </row>
-    <row r="44" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C44" s="16">
         <v>12161.723</v>
@@ -5946,28 +5811,28 @@
         <v>100.00000000108101</v>
       </c>
       <c r="I44" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J44" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K44" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L44" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M44" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N44" s="16">
         <v>18.754100000000001</v>
       </c>
       <c r="O44" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P44" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q44" s="16">
         <v>94.89</v>
@@ -5976,22 +5841,22 @@
         <v>245</v>
       </c>
       <c r="S44" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="T44" s="16">
         <v>66</v>
       </c>
       <c r="U44" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="V44" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W44" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X44" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y44" s="17">
         <v>5382</v>
@@ -6003,36 +5868,33 @@
         <v>465</v>
       </c>
       <c r="AB44" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC44" s="16">
         <v>46</v>
       </c>
       <c r="AD44" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AE44" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF44" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG44" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH44" s="16">
+        <v>35</v>
+      </c>
+      <c r="AH44" s="17">
         <v>20326.900000000001</v>
       </c>
-      <c r="AI44" s="17">
-        <v>20326.900000000001</v>
-      </c>
     </row>
-    <row r="45" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C45" s="20">
         <v>206606.52679067099</v>
@@ -6059,19 +5921,19 @@
         <v>126.6771</v>
       </c>
       <c r="K45" s="20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L45" s="20">
         <v>165.23099999999999</v>
       </c>
       <c r="M45" s="20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N45" s="20">
         <v>53.211300000000001</v>
       </c>
       <c r="O45" s="20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P45" s="21">
         <v>8.6300000000000002E-2</v>
@@ -6083,7 +5945,7 @@
         <v>3074.4</v>
       </c>
       <c r="S45" s="20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="T45" s="20">
         <v>4431.5330000000004</v>
@@ -6092,10 +5954,10 @@
         <v>86.4</v>
       </c>
       <c r="V45" s="20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W45" s="20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X45" s="20">
         <v>464</v>
@@ -6110,7 +5972,7 @@
         <v>9456.7800000000007</v>
       </c>
       <c r="AB45" s="20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC45" s="20">
         <v>16001.64</v>
@@ -6119,27 +5981,24 @@
         <v>368.33</v>
       </c>
       <c r="AE45" s="20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF45" s="20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG45" s="20">
         <v>422.45</v>
       </c>
-      <c r="AH45" s="20">
+      <c r="AH45" s="21">
         <v>338794.5</v>
       </c>
-      <c r="AI45" s="21">
-        <v>338794.5</v>
-      </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A46" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C46" s="16">
         <v>5235.6384000961198</v>
@@ -6163,22 +6022,22 @@
         <v>1.7399999999999999E-2</v>
       </c>
       <c r="J46" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K46" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L46" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M46" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N46" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O46" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P46" s="17">
         <v>27.3748</v>
@@ -6187,25 +6046,25 @@
         <v>2.94</v>
       </c>
       <c r="R46" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="S46" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="T46" s="16">
         <v>0.5</v>
       </c>
       <c r="U46" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="V46" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W46" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X46" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y46" s="17">
         <v>301</v>
@@ -6214,39 +6073,36 @@
         <v>5.34</v>
       </c>
       <c r="AA46" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AB46" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC46" s="16">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AD46" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AE46" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF46" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG46" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH46" s="16">
+        <v>35</v>
+      </c>
+      <c r="AH46" s="17">
         <v>1340.3</v>
       </c>
-      <c r="AI46" s="17">
-        <v>1340.3</v>
-      </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A47" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C47" s="16">
         <v>4080.0956823955198</v>
@@ -6270,13 +6126,13 @@
         <v>63.091299999999997</v>
       </c>
       <c r="J47" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K47" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L47" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M47" s="16">
         <v>1.54E-2</v>
@@ -6285,19 +6141,19 @@
         <v>5.1700000000000003E-2</v>
       </c>
       <c r="O47" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P47" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q47" s="16">
         <v>62.387</v>
       </c>
       <c r="R47" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="S47" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="T47" s="16">
         <v>34.5</v>
@@ -6306,13 +6162,13 @@
         <v>0.9</v>
       </c>
       <c r="V47" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W47" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X47" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y47" s="17">
         <v>339.16</v>
@@ -6321,10 +6177,10 @@
         <v>100.85</v>
       </c>
       <c r="AA47" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AB47" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC47" s="16">
         <v>112.39</v>
@@ -6333,27 +6189,24 @@
         <v>1.3</v>
       </c>
       <c r="AE47" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF47" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG47" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH47" s="16">
+        <v>35</v>
+      </c>
+      <c r="AH47" s="17">
         <v>528.21</v>
       </c>
-      <c r="AI47" s="17">
-        <v>528.21</v>
-      </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A48" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C48" s="23">
         <v>548.62398037109404</v>
@@ -6374,28 +6227,28 @@
         <v>93.513702947143599</v>
       </c>
       <c r="I48" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J48" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K48" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L48" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M48" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N48" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O48" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P48" s="24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q48" s="23">
         <v>7.5810000000000004</v>
@@ -6404,22 +6257,22 @@
         <v>27.8</v>
       </c>
       <c r="S48" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="T48" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="U48" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="V48" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W48" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X48" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y48" s="24">
         <v>141</v>
@@ -6431,36 +6284,33 @@
         <v>63.93</v>
       </c>
       <c r="AB48" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC48" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AD48" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AE48" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF48" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG48" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH48" s="23">
+        <v>35</v>
+      </c>
+      <c r="AH48" s="24">
         <v>348.79</v>
       </c>
-      <c r="AI48" s="24">
-        <v>348.79</v>
-      </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A49" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C49" s="16">
         <v>18682.2201124405</v>
@@ -6484,10 +6334,10 @@
         <v>23.374300000000002</v>
       </c>
       <c r="J49" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K49" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L49" s="16">
         <v>289.25900000000001</v>
@@ -6496,10 +6346,10 @@
         <v>8.9688999999999997</v>
       </c>
       <c r="N49" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O49" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P49" s="17">
         <v>142.4451</v>
@@ -6508,25 +6358,25 @@
         <v>13.144</v>
       </c>
       <c r="R49" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="S49" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="T49" s="16">
         <v>879</v>
       </c>
       <c r="U49" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="V49" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W49" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X49" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y49" s="17">
         <v>1340.1410000000001</v>
@@ -6535,39 +6385,36 @@
         <v>17.600000000000001</v>
       </c>
       <c r="AA49" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AB49" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC49" s="16">
         <v>3376</v>
       </c>
       <c r="AD49" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AE49" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF49" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG49" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH49" s="16">
+        <v>35</v>
+      </c>
+      <c r="AH49" s="17">
         <v>7139.4</v>
       </c>
-      <c r="AI49" s="17">
-        <v>7139.4</v>
-      </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A50" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C50" s="16">
         <v>1602.9056431367901</v>
@@ -6591,25 +6438,25 @@
         <v>21.561599999999999</v>
       </c>
       <c r="J50" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K50" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L50" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M50" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N50" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O50" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P50" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q50" s="16">
         <v>2.1779999999999999</v>
@@ -6618,22 +6465,22 @@
         <v>1.214</v>
       </c>
       <c r="S50" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="T50" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="U50" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="V50" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W50" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X50" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y50" s="17">
         <v>102</v>
@@ -6645,36 +6492,33 @@
         <v>0.1</v>
       </c>
       <c r="AB50" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC50" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AD50" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AE50" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF50" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG50" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH50" s="16">
+        <v>35</v>
+      </c>
+      <c r="AH50" s="17">
         <v>392.3</v>
       </c>
-      <c r="AI50" s="17">
-        <v>392.3</v>
-      </c>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A51" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C51" s="13">
         <v>27634.453735232299</v>
@@ -6698,25 +6542,25 @@
         <v>2.8E-3</v>
       </c>
       <c r="J51" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K51" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L51" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M51" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N51" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O51" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P51" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q51" s="13">
         <v>107.852</v>
@@ -6725,7 +6569,7 @@
         <v>0.02</v>
       </c>
       <c r="S51" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="T51" s="13">
         <v>1584.0450000000001</v>
@@ -6734,13 +6578,13 @@
         <v>8.3740000000000006</v>
       </c>
       <c r="V51" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W51" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X51" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y51" s="14">
         <v>3665</v>
@@ -6749,10 +6593,10 @@
         <v>107.16</v>
       </c>
       <c r="AA51" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AB51" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC51" s="13">
         <v>7293</v>
@@ -6761,27 +6605,24 @@
         <v>19.72</v>
       </c>
       <c r="AE51" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF51" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG51" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH51" s="13">
+        <v>35</v>
+      </c>
+      <c r="AH51" s="14">
         <v>12820</v>
       </c>
-      <c r="AI51" s="14">
-        <v>12820</v>
-      </c>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A52" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C52" s="16">
         <v>5898.5668716233304</v>
@@ -6802,52 +6643,52 @@
         <v>19.307596206665</v>
       </c>
       <c r="I52" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J52" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K52" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L52" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M52" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N52" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O52" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P52" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q52" s="16">
         <v>13.363</v>
       </c>
       <c r="R52" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="S52" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="T52" s="16">
         <v>368.22</v>
       </c>
       <c r="U52" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="V52" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W52" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X52" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y52" s="17">
         <v>307</v>
@@ -6856,39 +6697,36 @@
         <v>20.59</v>
       </c>
       <c r="AA52" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AB52" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC52" s="16">
         <v>1493.43</v>
       </c>
       <c r="AD52" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AE52" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF52" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG52" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH52" s="16">
+        <v>35</v>
+      </c>
+      <c r="AH52" s="17">
         <v>970.64</v>
       </c>
-      <c r="AI52" s="17">
-        <v>970.64</v>
-      </c>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A53" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C53" s="16">
         <v>671.98586544893601</v>
@@ -6909,52 +6747,52 @@
         <v>15.168089866368501</v>
       </c>
       <c r="I53" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J53" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K53" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L53" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M53" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N53" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O53" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P53" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q53" s="16">
         <v>1.169</v>
       </c>
       <c r="R53" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="S53" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="T53" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="U53" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="V53" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W53" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X53" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y53" s="17">
         <v>28</v>
@@ -6963,39 +6801,36 @@
         <v>1.89</v>
       </c>
       <c r="AA53" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AB53" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC53" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AD53" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AE53" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF53" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG53" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH53" s="16">
+        <v>35</v>
+      </c>
+      <c r="AH53" s="17">
         <v>24.78</v>
       </c>
-      <c r="AI53" s="17">
-        <v>24.78</v>
-      </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A54" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C54" s="16">
         <v>1400.85162892122</v>
@@ -7016,52 +6851,52 @@
         <v>8.3587713240205392</v>
       </c>
       <c r="I54" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J54" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K54" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L54" s="16">
         <v>7.7914000000000003</v>
       </c>
       <c r="M54" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N54" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O54" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P54" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q54" s="16">
         <v>2.5830000000000002</v>
       </c>
       <c r="R54" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="S54" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="T54" s="16">
         <v>92</v>
       </c>
       <c r="U54" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="V54" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W54" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X54" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y54" s="17">
         <v>98</v>
@@ -7070,39 +6905,36 @@
         <v>3.62</v>
       </c>
       <c r="AA54" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AB54" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC54" s="16">
         <v>124</v>
       </c>
       <c r="AD54" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AE54" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF54" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG54" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH54" s="16">
+        <v>35</v>
+      </c>
+      <c r="AH54" s="17">
         <v>98</v>
       </c>
-      <c r="AI54" s="17">
-        <v>98</v>
-      </c>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A55" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C55" s="16">
         <v>10731.1752892639</v>
@@ -7126,34 +6958,34 @@
         <v>0.17979999999999999</v>
       </c>
       <c r="J55" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K55" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L55" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M55" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N55" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O55" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P55" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q55" s="16">
         <v>69.542000000000002</v>
       </c>
       <c r="R55" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="S55" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="T55" s="16">
         <v>315.3</v>
@@ -7162,13 +6994,13 @@
         <v>40</v>
       </c>
       <c r="V55" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W55" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X55" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y55" s="17">
         <v>459.3</v>
@@ -7177,39 +7009,36 @@
         <v>31.7</v>
       </c>
       <c r="AA55" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AB55" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC55" s="16">
         <v>1702.17</v>
       </c>
       <c r="AD55" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AE55" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF55" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG55" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH55" s="16">
+        <v>35</v>
+      </c>
+      <c r="AH55" s="17">
         <v>1134.77</v>
       </c>
-      <c r="AI55" s="17">
-        <v>1134.77</v>
-      </c>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A56" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C56" s="16">
         <v>4684.6902891337504</v>
@@ -7233,49 +7062,49 @@
         <v>24.348299999999998</v>
       </c>
       <c r="J56" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K56" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L56" s="16">
         <v>102.2627</v>
       </c>
       <c r="M56" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N56" s="16">
         <v>7.1999999999999998E-3</v>
       </c>
       <c r="O56" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P56" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q56" s="16">
         <v>27.041</v>
       </c>
       <c r="R56" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="S56" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="T56" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="U56" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="V56" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W56" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X56" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y56" s="17">
         <v>352.6</v>
@@ -7284,146 +7113,140 @@
         <v>46.09</v>
       </c>
       <c r="AA56" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AB56" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC56" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AD56" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AE56" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF56" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG56" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH56" s="16">
+        <v>35</v>
+      </c>
+      <c r="AH56" s="17">
         <v>522.75</v>
       </c>
-      <c r="AI56" s="17">
-        <v>522.75</v>
-      </c>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A57" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C57" s="16">
+        <v>115413.38499482399</v>
+      </c>
+      <c r="D57" s="16">
+        <v>90815.671057883301</v>
+      </c>
+      <c r="E57" s="16">
+        <v>24597.7139369406</v>
+      </c>
+      <c r="F57" s="16">
+        <v>55.400001525878899</v>
+      </c>
+      <c r="G57" s="16">
+        <v>83.900001525630898</v>
+      </c>
+      <c r="H57" s="17">
+        <v>24.576909231904601</v>
+      </c>
+      <c r="I57" s="16">
+        <v>2.2988</v>
+      </c>
+      <c r="J57" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K57" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="L57" s="16">
+        <v>15.5686</v>
+      </c>
+      <c r="M57" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="N57" s="16">
+        <v>4.0702999999999996</v>
+      </c>
+      <c r="O57" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="P57" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q57" s="16">
+        <v>28.428000000000001</v>
+      </c>
+      <c r="R57" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="S57" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="T57" s="16">
+        <v>2110.8000000000002</v>
+      </c>
+      <c r="U57" s="16">
+        <v>10.335000000000001</v>
+      </c>
+      <c r="V57" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="W57" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="X57" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y57" s="17">
+        <v>11001.7</v>
+      </c>
+      <c r="Z57" s="16">
+        <v>41.99</v>
+      </c>
+      <c r="AA57" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB57" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC57" s="16">
+        <v>8229.1200000000008</v>
+      </c>
+      <c r="AD57" s="16">
+        <v>21.12</v>
+      </c>
+      <c r="AE57" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF57" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG57" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH57" s="17">
+        <v>27042.32</v>
+      </c>
+    </row>
+    <row r="58" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A58" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="B57" s="25" t="s">
+      <c r="B58" s="15" t="s">
         <v>142</v>
-      </c>
-      <c r="C57" s="23">
-        <v>115413.38499482399</v>
-      </c>
-      <c r="D57" s="23">
-        <v>90815.671057883301</v>
-      </c>
-      <c r="E57" s="23">
-        <v>24597.7139369406</v>
-      </c>
-      <c r="F57" s="23">
-        <v>55.400001525878899</v>
-      </c>
-      <c r="G57" s="23">
-        <v>83.900001525630898</v>
-      </c>
-      <c r="H57" s="24">
-        <v>24.576909231904601</v>
-      </c>
-      <c r="I57" s="23">
-        <v>2.2988</v>
-      </c>
-      <c r="J57" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="K57" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="L57" s="23">
-        <v>15.5686</v>
-      </c>
-      <c r="M57" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="N57" s="23">
-        <v>4.0702999999999996</v>
-      </c>
-      <c r="O57" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="P57" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q57" s="23">
-        <v>28.428000000000001</v>
-      </c>
-      <c r="R57" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="S57" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="T57" s="23">
-        <v>2110.8000000000002</v>
-      </c>
-      <c r="U57" s="23">
-        <v>10.335000000000001</v>
-      </c>
-      <c r="V57" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="W57" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="X57" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y57" s="24">
-        <v>11001.7</v>
-      </c>
-      <c r="Z57" s="23">
-        <v>41.99</v>
-      </c>
-      <c r="AA57" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB57" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC57" s="23">
-        <v>8229.1200000000008</v>
-      </c>
-      <c r="AD57" s="23">
-        <v>21.12</v>
-      </c>
-      <c r="AE57" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF57" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG57" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH57" s="23">
-        <v>27042.32</v>
-      </c>
-      <c r="AI57" s="24">
-        <v>27042.32</v>
-      </c>
-    </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A58" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="B58" s="15" t="s">
-        <v>144</v>
       </c>
       <c r="C58" s="16">
         <v>11565.9237927063</v>
@@ -7447,22 +7270,22 @@
         <v>102.8599</v>
       </c>
       <c r="J58" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K58" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L58" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M58" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N58" s="16">
         <v>9.5899999999999999E-2</v>
       </c>
       <c r="O58" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P58" s="17">
         <v>43.481000000000002</v>
@@ -7474,22 +7297,22 @@
         <v>158.69999999999999</v>
       </c>
       <c r="S58" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="T58" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="U58" s="16">
         <v>25</v>
       </c>
       <c r="V58" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W58" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X58" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y58" s="17">
         <v>968.7</v>
@@ -7498,39 +7321,36 @@
         <v>290.64999999999998</v>
       </c>
       <c r="AA58" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AB58" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC58" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AD58" s="16">
         <v>110.3</v>
       </c>
       <c r="AE58" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF58" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG58" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH58" s="16">
+        <v>35</v>
+      </c>
+      <c r="AH58" s="17">
         <v>3733.97</v>
       </c>
-      <c r="AI58" s="17">
-        <v>3733.97</v>
-      </c>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A59" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C59" s="16">
         <v>2157.3732148099798</v>
@@ -7554,34 +7374,34 @@
         <v>1.4298999999999999</v>
       </c>
       <c r="J59" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K59" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L59" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M59" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N59" s="16">
         <v>7.6E-3</v>
       </c>
       <c r="O59" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P59" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q59" s="16">
         <v>4.3719999999999999</v>
       </c>
       <c r="R59" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="S59" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="T59" s="16">
         <v>60.89</v>
@@ -7590,13 +7410,13 @@
         <v>33.799999999999997</v>
       </c>
       <c r="V59" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W59" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X59" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y59" s="17">
         <v>138.69999999999999</v>
@@ -7605,10 +7425,10 @@
         <v>6.23</v>
       </c>
       <c r="AA59" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AB59" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC59" s="16">
         <v>238.12</v>
@@ -7617,27 +7437,24 @@
         <v>3.94</v>
       </c>
       <c r="AE59" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF59" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG59" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH59" s="16">
+        <v>35</v>
+      </c>
+      <c r="AH59" s="17">
         <v>80</v>
       </c>
-      <c r="AI59" s="17">
-        <v>80</v>
-      </c>
     </row>
-    <row r="60" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C60" s="13">
         <v>4558.7767204021902</v>
@@ -7661,49 +7478,49 @@
         <v>14.609</v>
       </c>
       <c r="J60" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K60" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L60" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M60" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N60" s="13">
         <v>1.8996</v>
       </c>
       <c r="O60" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P60" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q60" s="13">
         <v>6.202</v>
       </c>
       <c r="R60" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="S60" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="T60" s="13">
         <v>66.599999999999994</v>
       </c>
       <c r="U60" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="V60" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W60" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X60" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y60" s="14">
         <v>172.33</v>
@@ -7712,39 +7529,36 @@
         <v>14.84</v>
       </c>
       <c r="AA60" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AB60" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC60" s="13">
         <v>204</v>
       </c>
       <c r="AD60" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AE60" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF60" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG60" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH60" s="13">
+        <v>35</v>
+      </c>
+      <c r="AH60" s="14">
         <v>510.63</v>
       </c>
-      <c r="AI60" s="14">
-        <v>510.63</v>
-      </c>
     </row>
-    <row r="61" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C61" s="20">
         <v>214866.66622080599</v>
@@ -7768,10 +7582,10 @@
         <v>253.7731</v>
       </c>
       <c r="J61" s="20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K61" s="20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L61" s="20">
         <v>414.88170000000002</v>
@@ -7783,7 +7597,7 @@
         <v>6.1322999999999999</v>
       </c>
       <c r="O61" s="20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P61" s="21">
         <v>213.30090000000001</v>
@@ -7795,7 +7609,7 @@
         <v>187.73400000000001</v>
       </c>
       <c r="S61" s="20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="T61" s="20">
         <v>5511.8549999999996</v>
@@ -7804,13 +7618,13 @@
         <v>118.40900000000001</v>
       </c>
       <c r="V61" s="20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W61" s="20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X61" s="20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y61" s="21">
         <v>19414.631000000001</v>
@@ -7822,7 +7636,7 @@
         <v>64.03</v>
       </c>
       <c r="AB61" s="20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC61" s="20">
         <v>22772.3</v>
@@ -7831,27 +7645,24 @@
         <v>156.38</v>
       </c>
       <c r="AE61" s="20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF61" s="20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG61" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH61" s="20">
+        <v>35</v>
+      </c>
+      <c r="AH61" s="21">
         <v>56686.86</v>
       </c>
-      <c r="AI61" s="21">
-        <v>56686.86</v>
-      </c>
     </row>
-    <row r="62" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B62" s="27" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C62" s="28">
         <v>762151.55757469905</v>
@@ -7878,7 +7689,7 @@
         <v>127.51390000000001</v>
       </c>
       <c r="K62" s="28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L62" s="28">
         <v>850.78150000000005</v>
@@ -7890,7 +7701,7 @@
         <v>231.01840000000001</v>
       </c>
       <c r="O62" s="28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P62" s="29">
         <v>883.41279999999995</v>
@@ -7911,7 +7722,7 @@
         <v>1652.212</v>
       </c>
       <c r="V62" s="28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W62" s="28">
         <v>1940</v>
@@ -7938,7 +7749,7 @@
         <v>2962.45</v>
       </c>
       <c r="AE62" s="28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF62" s="28">
         <v>10740.25</v>
@@ -7946,19 +7757,16 @@
       <c r="AG62" s="28">
         <v>5283.7</v>
       </c>
-      <c r="AH62" s="28">
+      <c r="AH62" s="29">
         <v>620439.43000000005</v>
       </c>
-      <c r="AI62" s="29">
-        <v>620439.43000000005</v>
-      </c>
     </row>
-    <row r="63" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B63" s="30" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C63" s="31">
         <v>6288166.5991543503</v>
@@ -8053,19 +7861,16 @@
       <c r="AG63" s="31">
         <v>111852.73</v>
       </c>
-      <c r="AH63" s="31">
+      <c r="AH63" s="32">
         <v>15795377.34</v>
       </c>
-      <c r="AI63" s="32">
-        <v>15795377.34</v>
-      </c>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A64" s="33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B64" s="34" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C64" s="28">
         <v>637166.85136061197</v>
@@ -8098,13 +7903,13 @@
         <v>120.246</v>
       </c>
       <c r="M64" s="28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N64" s="28">
         <v>2193.1732999999999</v>
       </c>
       <c r="O64" s="28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P64" s="29">
         <v>951.19949999999994</v>
@@ -8152,7 +7957,7 @@
         <v>81558.509999999995</v>
       </c>
       <c r="AE64" s="28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF64" s="28">
         <v>34928.15</v>
@@ -8160,19 +7965,16 @@
       <c r="AG64" s="28">
         <v>680.65</v>
       </c>
-      <c r="AH64" s="28">
+      <c r="AH64" s="29">
         <v>640463.35999999999</v>
       </c>
-      <c r="AI64" s="29">
-        <v>640463.35999999999</v>
-      </c>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A65" s="33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B65" s="27" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C65" s="35">
         <v>4122261.4019217398</v>
@@ -8267,19 +8069,16 @@
       <c r="AG65" s="35">
         <v>39648.199999999997</v>
       </c>
-      <c r="AH65" s="35">
+      <c r="AH65" s="36">
         <v>8044165.9299999997</v>
       </c>
-      <c r="AI65" s="36">
-        <v>8044165.9299999997</v>
-      </c>
     </row>
-    <row r="66" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B66" s="37" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C66" s="38">
         <v>7050318.15672905</v>
@@ -8374,19 +8173,16 @@
       <c r="AG66" s="38">
         <v>117136.43</v>
       </c>
-      <c r="AH66" s="38">
+      <c r="AH66" s="39">
         <v>16415816.77</v>
       </c>
-      <c r="AI66" s="39">
-        <v>16415816.77</v>
-      </c>
     </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A67" s="33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B67" s="40" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C67" s="41">
         <v>332841.96450169903</v>
@@ -8413,7 +8209,7 @@
         <v>126.6771</v>
       </c>
       <c r="K67" s="41" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L67" s="41">
         <v>255.55099999999999</v>
@@ -8425,7 +8221,7 @@
         <v>31.129100000000001</v>
       </c>
       <c r="O67" s="41" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P67" s="42">
         <v>95.8048</v>
@@ -8446,13 +8242,13 @@
         <v>1110.883</v>
       </c>
       <c r="V67" s="41" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W67" s="41" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X67" s="41" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y67" s="42">
         <v>76147.983999999997</v>
@@ -8473,27 +8269,24 @@
         <v>1910.93</v>
       </c>
       <c r="AE67" s="41" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF67" s="41" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG67" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH67" s="41">
+        <v>35</v>
+      </c>
+      <c r="AH67" s="42">
         <v>246689.36</v>
       </c>
-      <c r="AI67" s="42">
-        <v>246689.36</v>
-      </c>
     </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A68" s="33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B68" s="27" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C68" s="35">
         <v>414975.52065845701</v>
@@ -8520,7 +8313,7 @@
         <v>126.6771</v>
       </c>
       <c r="K68" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L68" s="35">
         <v>572.32129999999995</v>
@@ -8532,7 +8325,7 @@
         <v>60.953499999999998</v>
       </c>
       <c r="O68" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P68" s="36">
         <v>309.10039999999998</v>
@@ -8544,7 +8337,7 @@
         <v>3229.8090000000002</v>
       </c>
       <c r="S68" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="T68" s="35">
         <v>11125.686</v>
@@ -8553,10 +8346,10 @@
         <v>405.80900000000003</v>
       </c>
       <c r="V68" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W68" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X68" s="35">
         <v>464</v>
@@ -8571,7 +8364,7 @@
         <v>9466</v>
       </c>
       <c r="AB68" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC68" s="35">
         <v>49743.54</v>
@@ -8580,27 +8373,24 @@
         <v>638.05999999999995</v>
       </c>
       <c r="AE68" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF68" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG68" s="35">
         <v>422.45</v>
       </c>
-      <c r="AH68" s="35">
+      <c r="AH68" s="36">
         <v>323820.25</v>
       </c>
-      <c r="AI68" s="36">
-        <v>323820.25</v>
-      </c>
     </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A69" s="33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B69" s="27" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C69" s="35">
         <v>88769.006229405306</v>
@@ -8627,7 +8417,7 @@
         <v>0.83679999999999999</v>
       </c>
       <c r="K69" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L69" s="35">
         <v>242.8999</v>
@@ -8639,10 +8429,10 @@
         <v>17.940000000000001</v>
       </c>
       <c r="O69" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P69" s="36" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q69" s="35">
         <v>261.03899999999999</v>
@@ -8660,13 +8450,13 @@
         <v>258.42399999999998</v>
       </c>
       <c r="V69" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W69" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X69" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y69" s="36">
         <v>2510.7959999999998</v>
@@ -8687,27 +8477,24 @@
         <v>586.48</v>
       </c>
       <c r="AE69" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF69" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG69" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH69" s="35">
+        <v>35</v>
+      </c>
+      <c r="AH69" s="36">
         <v>8063.87</v>
       </c>
-      <c r="AI69" s="36">
-        <v>8063.87</v>
-      </c>
     </row>
-    <row r="70" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A70" s="33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B70" s="27" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C70" s="35">
         <v>68545.633128824906</v>
@@ -8731,10 +8518,10 @@
         <v>157.15610000000001</v>
       </c>
       <c r="J70" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K70" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L70" s="35">
         <v>256.45940000000002</v>
@@ -8746,10 +8533,10 @@
         <v>3.0598999999999998</v>
       </c>
       <c r="O70" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P70" s="36" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q70" s="35">
         <v>94.558999999999997</v>
@@ -8758,7 +8545,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="S70" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="T70" s="35">
         <v>8124.6220000000003</v>
@@ -8767,13 +8554,13 @@
         <v>74.194999999999993</v>
       </c>
       <c r="V70" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W70" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X70" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y70" s="36">
         <v>4534.5020000000004</v>
@@ -8785,7 +8572,7 @@
         <v>8.9</v>
       </c>
       <c r="AB70" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC70" s="35">
         <v>33869.589999999997</v>
@@ -8794,27 +8581,24 @@
         <v>218.6</v>
       </c>
       <c r="AE70" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF70" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG70" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH70" s="35">
+        <v>35</v>
+      </c>
+      <c r="AH70" s="36">
         <v>10678.64</v>
       </c>
-      <c r="AI70" s="36">
-        <v>10678.64</v>
-      </c>
     </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A71" s="33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B71" s="27" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C71" s="35">
         <v>214866.66622080599</v>
@@ -8838,10 +8622,10 @@
         <v>253.7731</v>
       </c>
       <c r="J71" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K71" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L71" s="35">
         <v>414.88170000000002</v>
@@ -8853,7 +8637,7 @@
         <v>6.1322999999999999</v>
       </c>
       <c r="O71" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P71" s="36">
         <v>213.30090000000001</v>
@@ -8865,7 +8649,7 @@
         <v>187.73400000000001</v>
       </c>
       <c r="S71" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="T71" s="35">
         <v>5511.8549999999996</v>
@@ -8874,13 +8658,13 @@
         <v>118.40900000000001</v>
       </c>
       <c r="V71" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W71" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X71" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y71" s="36">
         <v>19414.631000000001</v>
@@ -8892,7 +8676,7 @@
         <v>64.03</v>
       </c>
       <c r="AB71" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC71" s="35">
         <v>22772.3</v>
@@ -8901,27 +8685,24 @@
         <v>156.38</v>
       </c>
       <c r="AE71" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF71" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG71" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH71" s="35">
+        <v>35</v>
+      </c>
+      <c r="AH71" s="36">
         <v>56686.86</v>
       </c>
-      <c r="AI71" s="36">
-        <v>56686.86</v>
-      </c>
     </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A72" s="33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B72" s="27" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C72" s="35">
         <v>151914.65045794201</v>
@@ -8945,13 +8726,13 @@
         <v>38.732300000000002</v>
       </c>
       <c r="J72" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K72" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L72" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M72" s="35">
         <v>1.11E-2</v>
@@ -8960,7 +8741,7 @@
         <v>4.6445999999999996</v>
       </c>
       <c r="O72" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P72" s="36">
         <v>95.718500000000006</v>
@@ -8981,13 +8762,13 @@
         <v>672.404</v>
       </c>
       <c r="V72" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W72" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X72" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y72" s="36">
         <v>3495.48</v>
@@ -9008,27 +8789,24 @@
         <v>561.08000000000004</v>
       </c>
       <c r="AE72" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF72" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG72" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH72" s="35">
+        <v>35</v>
+      </c>
+      <c r="AH72" s="36">
         <v>10143.93</v>
       </c>
-      <c r="AI72" s="36">
-        <v>10143.93</v>
-      </c>
     </row>
-    <row r="73" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A73" s="33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B73" s="27" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C73" s="35">
         <v>155231.83675277801</v>
@@ -9055,7 +8833,7 @@
         <v>0.83679999999999999</v>
       </c>
       <c r="K73" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L73" s="35">
         <v>14.2094</v>
@@ -9067,7 +8845,7 @@
         <v>163.97790000000001</v>
       </c>
       <c r="O73" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P73" s="36">
         <v>574.30709999999999</v>
@@ -9079,7 +8857,7 @@
         <v>2540.4380000000001</v>
       </c>
       <c r="S73" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="T73" s="35">
         <v>14560.128000000001</v>
@@ -9088,7 +8866,7 @@
         <v>754.76400000000001</v>
       </c>
       <c r="V73" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W73" s="35">
         <v>1940</v>
@@ -9106,7 +8884,7 @@
         <v>345.59</v>
       </c>
       <c r="AB73" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC73" s="35">
         <v>55449.51</v>
@@ -9115,7 +8893,7 @@
         <v>1858.06</v>
       </c>
       <c r="AE73" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF73" s="35">
         <v>10740.25</v>
@@ -9123,19 +8901,16 @@
       <c r="AG73" s="35">
         <v>4861.25</v>
       </c>
-      <c r="AH73" s="35">
+      <c r="AH73" s="36">
         <v>209243.69</v>
       </c>
-      <c r="AI73" s="36">
-        <v>209243.69</v>
-      </c>
     </row>
-    <row r="74" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A74" s="33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B74" s="27" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C74" s="35">
         <v>99141.392790670507</v>
@@ -9159,25 +8934,25 @@
         <v>9.4999999999999998E-3</v>
       </c>
       <c r="J74" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K74" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L74" s="35">
         <v>165.23099999999999</v>
       </c>
       <c r="M74" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N74" s="35">
         <v>46.453499999999998</v>
       </c>
       <c r="O74" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P74" s="36" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q74" s="35">
         <v>1369.51</v>
@@ -9186,7 +8961,7 @@
         <v>1694.4</v>
       </c>
       <c r="S74" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="T74" s="35">
         <v>1599.5329999999999</v>
@@ -9195,10 +8970,10 @@
         <v>7.4</v>
       </c>
       <c r="V74" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W74" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X74" s="35">
         <v>464</v>
@@ -9213,7 +8988,7 @@
         <v>5211.33</v>
       </c>
       <c r="AB74" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC74" s="35">
         <v>963.64</v>
@@ -9222,27 +8997,24 @@
         <v>40.06</v>
       </c>
       <c r="AE74" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF74" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG74" s="35">
         <v>422.45</v>
       </c>
-      <c r="AH74" s="35">
+      <c r="AH74" s="36">
         <v>165180.63</v>
       </c>
-      <c r="AI74" s="36">
-        <v>165180.63</v>
-      </c>
     </row>
-    <row r="75" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B75" s="37" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C75" s="38">
         <v>28208.5364636255</v>
@@ -9263,25 +9035,25 @@
         <v>6.4896729601421503</v>
       </c>
       <c r="I75" s="38" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J75" s="38" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K75" s="38" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L75" s="38">
         <v>13.5595</v>
       </c>
       <c r="M75" s="38" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N75" s="38">
         <v>140.85390000000001</v>
       </c>
       <c r="O75" s="38" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P75" s="39">
         <v>574.30709999999999</v>
@@ -9293,7 +9065,7 @@
         <v>27.8</v>
       </c>
       <c r="S75" s="38" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="T75" s="38">
         <v>5935.1890000000003</v>
@@ -9302,13 +9074,13 @@
         <v>65</v>
       </c>
       <c r="V75" s="38" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W75" s="38" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X75" s="38" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y75" s="39">
         <v>2953.1509999999998</v>
@@ -9320,7 +9092,7 @@
         <v>63.93</v>
       </c>
       <c r="AB75" s="38" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC75" s="38">
         <v>17945.46</v>
@@ -9329,27 +9101,24 @@
         <v>261.45999999999998</v>
       </c>
       <c r="AE75" s="38" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF75" s="38" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG75" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH75" s="38">
+        <v>35</v>
+      </c>
+      <c r="AH75" s="39">
         <v>6019.26</v>
       </c>
-      <c r="AI75" s="39">
-        <v>6956.33</v>
-      </c>
     </row>
-    <row r="76" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A76" s="33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B76" s="40" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C76" s="41">
         <v>638985.37233523501</v>
@@ -9388,7 +9157,7 @@
         <v>72.147199999999998</v>
       </c>
       <c r="O76" s="41" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P76" s="42">
         <v>66.674099999999996</v>
@@ -9412,7 +9181,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="W76" s="41" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X76" s="41">
         <v>1296</v>
@@ -9439,24 +9208,21 @@
         <v>0.01</v>
       </c>
       <c r="AF76" s="41" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG76" s="41">
         <v>1198.8</v>
       </c>
-      <c r="AH76" s="41">
+      <c r="AH76" s="42">
         <v>841852.34</v>
       </c>
-      <c r="AI76" s="42">
-        <v>841852.34</v>
-      </c>
     </row>
-    <row r="77" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A77" s="33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B77" s="27" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C77" s="35">
         <v>430441.55063621502</v>
@@ -9489,13 +9255,13 @@
         <v>102.7152</v>
       </c>
       <c r="M77" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N77" s="35">
         <v>1212.7019</v>
       </c>
       <c r="O77" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P77" s="36">
         <v>951.00469999999996</v>
@@ -9543,7 +9309,7 @@
         <v>71865.399999999994</v>
       </c>
       <c r="AE77" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF77" s="35">
         <v>24063.88</v>
@@ -9551,19 +9317,16 @@
       <c r="AG77" s="35">
         <v>670.75</v>
       </c>
-      <c r="AH77" s="35">
+      <c r="AH77" s="36">
         <v>310588.21000000002</v>
       </c>
-      <c r="AI77" s="36">
-        <v>310588.21000000002</v>
-      </c>
     </row>
-    <row r="78" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A78" s="33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B78" s="27" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C78" s="35">
         <v>445279.88864749501</v>
@@ -9602,7 +9365,7 @@
         <v>76.829400000000007</v>
       </c>
       <c r="O78" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P78" s="36">
         <v>27.293299999999999</v>
@@ -9658,19 +9421,16 @@
       <c r="AG78" s="35">
         <v>28286.15</v>
       </c>
-      <c r="AH78" s="35">
+      <c r="AH78" s="36">
         <v>1016408.92</v>
       </c>
-      <c r="AI78" s="36">
-        <v>1016408.92</v>
-      </c>
     </row>
-    <row r="79" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B79" s="37" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C79" s="38">
         <v>1369599.6077361701</v>
@@ -9709,7 +9469,7 @@
         <v>827.327</v>
       </c>
       <c r="O79" s="38" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P79" s="39">
         <v>21.773199999999999</v>
@@ -9765,19 +9525,16 @@
       <c r="AG79" s="38">
         <v>66121.59</v>
       </c>
-      <c r="AH79" s="38">
+      <c r="AH79" s="39">
         <v>5757357.8399999999</v>
       </c>
-      <c r="AI79" s="39">
-        <v>5757357.8399999999</v>
-      </c>
     </row>
-    <row r="80" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A80" s="33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B80" s="40" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C80" s="41">
         <v>191364.18293044699</v>
@@ -9801,25 +9558,25 @@
         <v>12.855700000000001</v>
       </c>
       <c r="J80" s="41" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K80" s="41" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L80" s="41">
         <v>15.5686</v>
       </c>
       <c r="M80" s="41" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N80" s="41">
         <v>32.009799999999998</v>
       </c>
       <c r="O80" s="41" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P80" s="42" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q80" s="41">
         <v>592.85299999999995</v>
@@ -9828,7 +9585,7 @@
         <v>73.3</v>
       </c>
       <c r="S80" s="41" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="T80" s="41">
         <v>6739.4059999999999</v>
@@ -9837,13 +9594,13 @@
         <v>76.734999999999999</v>
       </c>
       <c r="V80" s="41" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W80" s="41" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X80" s="41" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y80" s="42">
         <v>50016.881999999998</v>
@@ -9855,7 +9612,7 @@
         <v>212.03</v>
       </c>
       <c r="AB80" s="41" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC80" s="41">
         <v>24236.19</v>
@@ -9864,27 +9621,24 @@
         <v>231.84</v>
       </c>
       <c r="AE80" s="41" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF80" s="41" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG80" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH80" s="41">
+        <v>35</v>
+      </c>
+      <c r="AH80" s="42">
         <v>149564.38</v>
       </c>
-      <c r="AI80" s="42">
-        <v>149564.38</v>
-      </c>
     </row>
-    <row r="81" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A81" s="33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B81" s="27" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C81" s="35">
         <v>485546.86891431903</v>
@@ -9979,19 +9733,16 @@
       <c r="AG81" s="35">
         <v>1802.14</v>
       </c>
-      <c r="AH81" s="35">
+      <c r="AH81" s="36">
         <v>2004169.31</v>
       </c>
-      <c r="AI81" s="36">
-        <v>2004169.31</v>
-      </c>
     </row>
-    <row r="82" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A82" s="33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B82" s="27" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C82" s="35">
         <v>570787.37464425201</v>
@@ -10018,7 +9769,7 @@
         <v>127.51390000000001</v>
       </c>
       <c r="K82" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L82" s="35">
         <v>835.21289999999999</v>
@@ -10030,7 +9781,7 @@
         <v>199.0086</v>
       </c>
       <c r="O82" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P82" s="36">
         <v>883.41279999999995</v>
@@ -10051,7 +9802,7 @@
         <v>1575.4770000000001</v>
       </c>
       <c r="V82" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W82" s="35">
         <v>1940</v>
@@ -10078,7 +9829,7 @@
         <v>2730.61</v>
       </c>
       <c r="AE82" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF82" s="35">
         <v>10740.25</v>
@@ -10086,19 +9837,16 @@
       <c r="AG82" s="35">
         <v>5283.7</v>
       </c>
-      <c r="AH82" s="35">
+      <c r="AH82" s="36">
         <v>470875.05</v>
       </c>
-      <c r="AI82" s="36">
-        <v>470875.05</v>
-      </c>
     </row>
-    <row r="83" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B83" s="37" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C83" s="38">
         <v>5802619.7302400302</v>
@@ -10193,19 +9941,16 @@
       <c r="AG83" s="38">
         <v>110050.59</v>
       </c>
-      <c r="AH83" s="38">
+      <c r="AH83" s="39">
         <v>13791208.029999999</v>
       </c>
-      <c r="AI83" s="39">
-        <v>13791208.029999999</v>
-      </c>
     </row>
-    <row r="84" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A84" s="33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B84" s="40" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C84" s="41">
         <v>199800.23268097601</v>
@@ -10229,10 +9974,10 @@
         <v>267.81220000000002</v>
       </c>
       <c r="J84" s="41" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K84" s="41" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L84" s="41">
         <v>353.48820000000001</v>
@@ -10244,7 +9989,7 @@
         <v>144.43260000000001</v>
       </c>
       <c r="O84" s="41" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P84" s="42">
         <v>574.31240000000003</v>
@@ -10265,13 +10010,13 @@
         <v>695.92899999999997</v>
       </c>
       <c r="V84" s="41" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W84" s="41" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X84" s="41" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y84" s="42">
         <v>6480.9740000000002</v>
@@ -10283,7 +10028,7 @@
         <v>626.73</v>
       </c>
       <c r="AB84" s="41" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC84" s="41">
         <v>52754.559999999998</v>
@@ -10292,27 +10037,24 @@
         <v>540.20000000000005</v>
       </c>
       <c r="AE84" s="41" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF84" s="41" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG84" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH84" s="41">
+        <v>35</v>
+      </c>
+      <c r="AH84" s="42">
         <v>14419.69</v>
       </c>
-      <c r="AI84" s="42">
-        <v>14419.69</v>
-      </c>
     </row>
-    <row r="85" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A85" s="33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B85" s="27" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C85" s="35">
         <v>93936.858463570999</v>
@@ -10336,22 +10078,22 @@
         <v>17.792100000000001</v>
       </c>
       <c r="J85" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K85" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L85" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M85" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N85" s="35">
         <v>1.8325</v>
       </c>
       <c r="O85" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P85" s="36">
         <v>31.816299999999998</v>
@@ -10363,7 +10105,7 @@
         <v>1</v>
       </c>
       <c r="S85" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="T85" s="35">
         <v>1822.9929999999999</v>
@@ -10372,13 +10114,13 @@
         <v>6.7050000000000001</v>
       </c>
       <c r="V85" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W85" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X85" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y85" s="36">
         <v>10535.911</v>
@@ -10390,7 +10132,7 @@
         <v>1.17</v>
       </c>
       <c r="AB85" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC85" s="35">
         <v>1806.61</v>
@@ -10399,27 +10141,24 @@
         <v>33.479999999999997</v>
       </c>
       <c r="AE85" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF85" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG85" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH85" s="35">
+        <v>35</v>
+      </c>
+      <c r="AH85" s="36">
         <v>28211.58</v>
       </c>
-      <c r="AI85" s="36">
-        <v>28211.58</v>
-      </c>
     </row>
-    <row r="86" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A86" s="33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B86" s="27" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C86" s="35">
         <v>500295.46852741501</v>
@@ -10446,7 +10185,7 @@
         <v>127.51390000000001</v>
       </c>
       <c r="K86" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L86" s="35">
         <v>497.29329999999999</v>
@@ -10458,7 +10197,7 @@
         <v>79.86</v>
       </c>
       <c r="O86" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P86" s="36">
         <v>309.10039999999998</v>
@@ -10479,10 +10218,10 @@
         <v>599.49800000000005</v>
       </c>
       <c r="V86" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W86" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X86" s="35">
         <v>464</v>
@@ -10506,27 +10245,24 @@
         <v>1580.48</v>
       </c>
       <c r="AE86" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF86" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG86" s="35">
         <v>422.45</v>
       </c>
-      <c r="AH86" s="35">
+      <c r="AH86" s="36">
         <v>377789.47</v>
       </c>
-      <c r="AI86" s="36">
-        <v>377789.47</v>
-      </c>
     </row>
-    <row r="87" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A87" s="33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B87" s="27" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C87" s="35">
         <v>2522822.9010638301</v>
@@ -10586,7 +10322,7 @@
         <v>15242.346</v>
       </c>
       <c r="V87" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W87" s="35">
         <v>22777</v>
@@ -10613,7 +10349,7 @@
         <v>43630.48</v>
       </c>
       <c r="AE87" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF87" s="35">
         <v>138678.95000000001</v>
@@ -10621,19 +10357,16 @@
       <c r="AG87" s="35">
         <v>7516.3</v>
       </c>
-      <c r="AH87" s="35">
+      <c r="AH87" s="36">
         <v>2369444.54</v>
       </c>
-      <c r="AI87" s="36">
-        <v>2369444.54</v>
-      </c>
     </row>
-    <row r="88" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A88" s="33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B88" s="27" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C88" s="35">
         <v>61950.326366309098</v>
@@ -10657,13 +10390,13 @@
         <v>5.9299999999999999E-2</v>
       </c>
       <c r="J88" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K88" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L88" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M88" s="35">
         <v>3.5499999999999997E-2</v>
@@ -10672,10 +10405,10 @@
         <v>6.7257999999999996</v>
       </c>
       <c r="O88" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P88" s="36" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q88" s="35">
         <v>6230.48</v>
@@ -10684,7 +10417,7 @@
         <v>2531.8609999999999</v>
       </c>
       <c r="S88" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="T88" s="35">
         <v>1616.817</v>
@@ -10693,7 +10426,7 @@
         <v>356.78500000000003</v>
       </c>
       <c r="V88" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W88" s="35">
         <v>1940</v>
@@ -10711,7 +10444,7 @@
         <v>339.13</v>
       </c>
       <c r="AB88" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC88" s="35">
         <v>3694.91</v>
@@ -10720,7 +10453,7 @@
         <v>841.77</v>
       </c>
       <c r="AE88" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF88" s="35">
         <v>10740.25</v>
@@ -10728,19 +10461,16 @@
       <c r="AG88" s="35">
         <v>4861.25</v>
       </c>
-      <c r="AH88" s="35">
+      <c r="AH88" s="36">
         <v>227800.14</v>
       </c>
-      <c r="AI88" s="36">
-        <v>227800.14</v>
-      </c>
     </row>
-    <row r="89" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A89" s="33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B89" s="27" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C89" s="35">
         <v>2462123.33962494</v>
@@ -10835,19 +10565,16 @@
       <c r="AG89" s="35">
         <v>38066.839999999997</v>
       </c>
-      <c r="AH89" s="35">
+      <c r="AH89" s="36">
         <v>7330707.3700000001</v>
       </c>
-      <c r="AI89" s="36">
-        <v>7330707.3700000001</v>
-      </c>
     </row>
-    <row r="90" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B90" s="37" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C90" s="38">
         <v>1180898.57700191</v>
@@ -10886,7 +10613,7 @@
         <v>262.6687</v>
       </c>
       <c r="O90" s="38" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P90" s="39">
         <v>483.15839999999997</v>
@@ -10942,19 +10669,16 @@
       <c r="AG90" s="38">
         <v>66269.59</v>
       </c>
-      <c r="AH90" s="38">
+      <c r="AH90" s="39">
         <v>6042844.6699999999</v>
       </c>
-      <c r="AI90" s="39">
-        <v>6042844.6699999999</v>
-      </c>
     </row>
-    <row r="91" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A91" s="33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B91" s="40" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C91" s="41">
         <v>271821.58946286701</v>
@@ -10981,7 +10705,7 @@
         <v>0.83679999999999999</v>
       </c>
       <c r="K91" s="41" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L91" s="41">
         <v>380.72289999999998</v>
@@ -10993,7 +10717,7 @@
         <v>189.01410000000001</v>
       </c>
       <c r="O91" s="41" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P91" s="42">
         <v>740.88139999999999</v>
@@ -11014,13 +10738,13 @@
         <v>884.91399999999999</v>
       </c>
       <c r="V91" s="41" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W91" s="41" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X91" s="41" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y91" s="42">
         <v>12384.056</v>
@@ -11032,7 +10756,7 @@
         <v>757.93</v>
       </c>
       <c r="AB91" s="41" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC91" s="41">
         <v>82997.47</v>
@@ -11041,27 +10765,24 @@
         <v>1080.1600000000001</v>
       </c>
       <c r="AE91" s="41" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF91" s="41" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG91" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH91" s="41">
+        <v>35</v>
+      </c>
+      <c r="AH91" s="42">
         <v>33078.120000000003</v>
       </c>
-      <c r="AI91" s="42">
-        <v>33078.120000000003</v>
-      </c>
     </row>
-    <row r="92" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A92" s="33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B92" s="27" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C92" s="35">
         <v>316388.182864859</v>
@@ -11088,7 +10809,7 @@
         <v>0.34089999999999998</v>
       </c>
       <c r="K92" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L92" s="35">
         <v>37.020899999999997</v>
@@ -11100,7 +10821,7 @@
         <v>16.305099999999999</v>
       </c>
       <c r="O92" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P92" s="36">
         <v>476.69330000000002</v>
@@ -11112,7 +10833,7 @@
         <v>4.3789999999999996</v>
       </c>
       <c r="S92" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="T92" s="35">
         <v>16494.718000000001</v>
@@ -11121,13 +10842,13 @@
         <v>217.898</v>
       </c>
       <c r="V92" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W92" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X92" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y92" s="36">
         <v>33263.326000000001</v>
@@ -11139,7 +10860,7 @@
         <v>7.05</v>
       </c>
       <c r="AB92" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC92" s="35">
         <v>66256.179999999993</v>
@@ -11148,27 +10869,24 @@
         <v>393.32</v>
       </c>
       <c r="AE92" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF92" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG92" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH92" s="35">
+        <v>35</v>
+      </c>
+      <c r="AH92" s="36">
         <v>118158.08</v>
       </c>
-      <c r="AI92" s="36">
-        <v>118158.08</v>
-      </c>
     </row>
-    <row r="93" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A93" s="33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B93" s="27" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C93" s="35">
         <v>3486.2115603369798</v>
@@ -11192,25 +10910,25 @@
         <v>16.410499999999999</v>
       </c>
       <c r="J93" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K93" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L93" s="35">
         <v>13.5595</v>
       </c>
       <c r="M93" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N93" s="35">
         <v>4.8500000000000001E-2</v>
       </c>
       <c r="O93" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P93" s="36" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q93" s="35">
         <v>96.361999999999995</v>
@@ -11219,7 +10937,7 @@
         <v>44.43</v>
       </c>
       <c r="S93" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="T93" s="35">
         <v>64.507999999999996</v>
@@ -11228,13 +10946,13 @@
         <v>90.65</v>
       </c>
       <c r="V93" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W93" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X93" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y93" s="36">
         <v>962.005</v>
@@ -11246,7 +10964,7 @@
         <v>87.92</v>
       </c>
       <c r="AB93" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC93" s="35">
         <v>121.89</v>
@@ -11255,27 +10973,24 @@
         <v>409</v>
       </c>
       <c r="AE93" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF93" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG93" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH93" s="35">
+        <v>35</v>
+      </c>
+      <c r="AH93" s="36">
         <v>3143.35</v>
       </c>
-      <c r="AI93" s="36">
-        <v>3143.35</v>
-      </c>
     </row>
-    <row r="94" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A94" s="33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B94" s="27" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C94" s="35">
         <v>52252.4403313152</v>
@@ -11299,13 +11014,13 @@
         <v>43.866399999999999</v>
       </c>
       <c r="J94" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K94" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L94" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M94" s="35">
         <v>7.7809999999999997</v>
@@ -11314,7 +11029,7 @@
         <v>196.09299999999999</v>
       </c>
       <c r="O94" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P94" s="36">
         <v>5.9183000000000003</v>
@@ -11338,10 +11053,10 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="W94" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X94" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y94" s="36">
         <v>37634.775000000001</v>
@@ -11365,24 +11080,21 @@
         <v>0.01</v>
       </c>
       <c r="AF94" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG94" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH94" s="35">
+        <v>35</v>
+      </c>
+      <c r="AH94" s="36">
         <v>145086.9</v>
       </c>
-      <c r="AI94" s="36">
-        <v>145086.9</v>
-      </c>
     </row>
-    <row r="95" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A95" s="33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B95" s="27" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C95" s="35">
         <v>132470.93971391401</v>
@@ -11406,10 +11118,10 @@
         <v>287.56319999999999</v>
       </c>
       <c r="J95" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K95" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L95" s="35">
         <v>359.37200000000001</v>
@@ -11421,7 +11133,7 @@
         <v>1.5434000000000001</v>
       </c>
       <c r="O95" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P95" s="36">
         <v>5.3E-3</v>
@@ -11442,13 +11154,13 @@
         <v>694.73500000000001</v>
       </c>
       <c r="V95" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W95" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X95" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y95" s="36">
         <v>4793.174</v>
@@ -11460,7 +11172,7 @@
         <v>617.94000000000005</v>
       </c>
       <c r="AB95" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC95" s="35">
         <v>40137.97</v>
@@ -11469,27 +11181,24 @@
         <v>920.56</v>
       </c>
       <c r="AE95" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF95" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG95" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH95" s="35">
+        <v>35</v>
+      </c>
+      <c r="AH95" s="36">
         <v>11099.06</v>
       </c>
-      <c r="AI95" s="36">
-        <v>11099.06</v>
-      </c>
     </row>
-    <row r="96" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B96" s="37" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C96" s="38">
         <v>187035.46156190499</v>
@@ -11540,7 +11249,7 @@
         <v>814.17399999999998</v>
       </c>
       <c r="S96" s="38" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="T96" s="38">
         <v>38103.203999999998</v>
@@ -11549,7 +11258,7 @@
         <v>388.07799999999997</v>
       </c>
       <c r="V96" s="38" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W96" s="38">
         <v>407.5</v>
@@ -11567,7 +11276,7 @@
         <v>1883.5</v>
       </c>
       <c r="AB96" s="38" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC96" s="38">
         <v>150771.72</v>
@@ -11576,27 +11285,24 @@
         <v>832.52</v>
       </c>
       <c r="AE96" s="38" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF96" s="38">
         <v>2210.11</v>
       </c>
       <c r="AG96" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH96" s="38">
+        <v>35</v>
+      </c>
+      <c r="AH96" s="39">
         <v>220029.21</v>
       </c>
-      <c r="AI96" s="39">
-        <v>220029.21</v>
-      </c>
     </row>
-    <row r="97" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A97" s="33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B97" s="40" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C97" s="41">
         <v>451958.15061388002</v>
@@ -11623,7 +11329,7 @@
         <v>0.83679999999999999</v>
       </c>
       <c r="K97" s="41" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L97" s="41">
         <v>428.55689999999998</v>
@@ -11635,7 +11341,7 @@
         <v>197.77950000000001</v>
       </c>
       <c r="O97" s="41" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P97" s="42">
         <v>812.47069999999997</v>
@@ -11656,13 +11362,13 @@
         <v>1162.818</v>
       </c>
       <c r="V97" s="41" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W97" s="41" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X97" s="41" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y97" s="42">
         <v>37456.309000000001</v>
@@ -11683,27 +11389,24 @@
         <v>1566.15</v>
       </c>
       <c r="AE97" s="41" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF97" s="41" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG97" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH97" s="41">
+        <v>35</v>
+      </c>
+      <c r="AH97" s="42">
         <v>103676.65</v>
       </c>
-      <c r="AI97" s="42">
-        <v>103676.65</v>
-      </c>
     </row>
-    <row r="98" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B98" s="37" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C98" s="38">
         <v>697204.12000443495</v>
@@ -11730,7 +11433,7 @@
         <v>8.2035999999999998</v>
       </c>
       <c r="K98" s="38" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L98" s="38">
         <v>655.28880000000004</v>
@@ -11763,7 +11466,7 @@
         <v>2157.4090000000001</v>
       </c>
       <c r="V98" s="38" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W98" s="38">
         <v>2162</v>
@@ -11790,7 +11493,7 @@
         <v>8535.74</v>
       </c>
       <c r="AE98" s="38" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF98" s="38">
         <v>16865</v>
@@ -11798,14 +11501,11 @@
       <c r="AG98" s="38">
         <v>9.9</v>
       </c>
-      <c r="AH98" s="38">
+      <c r="AH98" s="39">
         <v>699782.07</v>
       </c>
-      <c r="AI98" s="39">
-        <v>699782.07</v>
-      </c>
     </row>
-    <row r="99" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A99" s="43"/>
       <c r="B99" s="44"/>
       <c r="C99" s="28"/>
@@ -11840,11 +11540,10 @@
       <c r="AF99" s="28"/>
       <c r="AG99" s="28"/>
       <c r="AH99" s="28"/>
-      <c r="AI99" s="28"/>
     </row>
-    <row r="100" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C100" s="45"/>
       <c r="D100" s="45"/>
@@ -11878,11 +11577,10 @@
       <c r="AF100" s="45"/>
       <c r="AG100" s="45"/>
       <c r="AH100" s="45"/>
-      <c r="AI100" s="45"/>
     </row>
-    <row r="101" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C101" s="45"/>
       <c r="D101" s="45"/>
@@ -11916,11 +11614,10 @@
       <c r="AF101" s="45"/>
       <c r="AG101" s="45"/>
       <c r="AH101" s="45"/>
-      <c r="AI101" s="45"/>
     </row>
-    <row r="102" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C102" s="45"/>
       <c r="D102" s="45"/>
@@ -11954,11 +11651,10 @@
       <c r="AF102" s="45"/>
       <c r="AG102" s="45"/>
       <c r="AH102" s="45"/>
-      <c r="AI102" s="45"/>
     </row>
-    <row r="103" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C103" s="45"/>
       <c r="D103" s="45"/>
@@ -11992,11 +11688,10 @@
       <c r="AF103" s="45"/>
       <c r="AG103" s="45"/>
       <c r="AH103" s="45"/>
-      <c r="AI103" s="45"/>
     </row>
-    <row r="104" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C104" s="45"/>
       <c r="D104" s="45"/>
@@ -12030,11 +11725,10 @@
       <c r="AF104" s="45"/>
       <c r="AG104" s="45"/>
       <c r="AH104" s="45"/>
-      <c r="AI104" s="45"/>
     </row>
-    <row r="105" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C105" s="45"/>
       <c r="D105" s="45"/>
@@ -12068,9 +11762,8 @@
       <c r="AF105" s="45"/>
       <c r="AG105" s="45"/>
       <c r="AH105" s="45"/>
-      <c r="AI105" s="45"/>
     </row>
-    <row r="106" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:34" x14ac:dyDescent="0.35">
       <c r="C106" s="45"/>
       <c r="D106" s="45"/>
       <c r="E106" s="45"/>
@@ -12103,11 +11796,10 @@
       <c r="AF106" s="45"/>
       <c r="AG106" s="45"/>
       <c r="AH106" s="45"/>
-      <c r="AI106" s="45"/>
     </row>
-    <row r="107" spans="1:35" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B107" s="46" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C107" s="45"/>
       <c r="D107" s="45"/>
@@ -12141,9 +11833,8 @@
       <c r="AF107" s="45"/>
       <c r="AG107" s="45"/>
       <c r="AH107" s="45"/>
-      <c r="AI107" s="45"/>
     </row>
-    <row r="108" spans="1:35" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B108" s="46"/>
       <c r="C108" s="45"/>
       <c r="D108" s="45"/>
@@ -12177,11 +11868,10 @@
       <c r="AF108" s="45"/>
       <c r="AG108" s="45"/>
       <c r="AH108" s="45"/>
-      <c r="AI108" s="45"/>
     </row>
-    <row r="109" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B109" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C109" s="45"/>
       <c r="D109" s="45"/>
@@ -12215,11 +11905,10 @@
       <c r="AF109" s="45"/>
       <c r="AG109" s="45"/>
       <c r="AH109" s="45"/>
-      <c r="AI109" s="45"/>
     </row>
-    <row r="110" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C110" s="45"/>
       <c r="D110" s="45"/>
@@ -12253,9 +11942,8 @@
       <c r="AF110" s="45"/>
       <c r="AG110" s="45"/>
       <c r="AH110" s="45"/>
-      <c r="AI110" s="45"/>
     </row>
-    <row r="111" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B111" s="2"/>
       <c r="C111" s="45"/>
       <c r="D111" s="45"/>
@@ -12289,11 +11977,10 @@
       <c r="AF111" s="45"/>
       <c r="AG111" s="45"/>
       <c r="AH111" s="45"/>
-      <c r="AI111" s="45"/>
     </row>
-    <row r="112" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C112" s="45"/>
       <c r="D112" s="45"/>
@@ -12327,11 +12014,10 @@
       <c r="AF112" s="45"/>
       <c r="AG112" s="45"/>
       <c r="AH112" s="45"/>
-      <c r="AI112" s="45"/>
     </row>
-    <row r="113" spans="2:35" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C113" s="45"/>
       <c r="D113" s="45"/>
@@ -12365,9 +12051,8 @@
       <c r="AF113" s="45"/>
       <c r="AG113" s="45"/>
       <c r="AH113" s="45"/>
-      <c r="AI113" s="45"/>
     </row>
-    <row r="114" spans="2:35" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B114" s="2"/>
       <c r="C114" s="45"/>
       <c r="D114" s="45"/>
@@ -12401,15 +12086,14 @@
       <c r="AF114" s="45"/>
       <c r="AG114" s="45"/>
       <c r="AH114" s="45"/>
-      <c r="AI114" s="45"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{877EBEF6-595D-40D5-9509-70F1B28ED5AC}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{FC019860-954B-4B06-BEE0-80976DCC0254}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{4CF8EBDD-8A1C-4FE2-8AA8-3F8DACEF6F9B}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{8A277E0C-095B-49E4-918E-D6121B8B0930}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{42320839-9524-4D9B-ADA9-AF41D2EF1CC1}"/>
+    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{A7C69713-A81D-4526-9473-7E910AB03E5F}"/>
+    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{5E9F5E88-6761-4B6D-970B-FE0C4A651BB8}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{65F41656-9DB1-4069-967F-AA472A91D6ED}"/>
+    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{280340A7-6EA2-43EC-AF4F-0387799B66A3}"/>
+    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{7B11A201-F565-4987-83CF-BB6975C5CC4B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="0" orientation="portrait" r:id="rId2"/>

--- a/AfDD_2023_Annex_Table_Tab26.xlsx
+++ b/AfDD_2023_Annex_Table_Tab26.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6623569F-34B3-438D-8BD1-107AE76590CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B81EFE9C-7C9A-4202-94D0-46067262FB62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C2248B3A-EAF8-41E3-8A08-F6FD225FAF68}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3655125C-658C-497F-83FF-68A331C69CFA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab26" sheetId="1" r:id="rId1"/>
@@ -1367,7 +1367,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68A56481-C4DF-41E8-80B4-E3FD9DE91306}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92A1BEF3-E477-4D15-AC61-2293F885559E}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -12089,11 +12089,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{A7C69713-A81D-4526-9473-7E910AB03E5F}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{5E9F5E88-6761-4B6D-970B-FE0C4A651BB8}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{65F41656-9DB1-4069-967F-AA472A91D6ED}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{280340A7-6EA2-43EC-AF4F-0387799B66A3}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{7B11A201-F565-4987-83CF-BB6975C5CC4B}"/>
+    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{B5C1C823-236B-49DE-9DCD-749941FF9DE6}"/>
+    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{29B5AA5D-E787-4BBB-A789-A680A425681B}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{46EE564F-E960-4A5C-A1BA-FE1F6767331C}"/>
+    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{9829286A-AE1F-40EC-AC74-4BC850039BBF}"/>
+    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{2A4DA54F-C1B5-4CF0-97D3-FD736186B0B8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="0" orientation="portrait" r:id="rId2"/>

--- a/AfDD_2023_Annex_Table_Tab26.xlsx
+++ b/AfDD_2023_Annex_Table_Tab26.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B81EFE9C-7C9A-4202-94D0-46067262FB62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA4E2FF5-77BB-4491-9553-E59205FDEFDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3655125C-658C-497F-83FF-68A331C69CFA}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{5FF93319-900B-4C8E-91F8-5F104330B7B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab26" sheetId="1" r:id="rId1"/>
@@ -37,11 +37,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="198">
   <si>
     <t>Table 26: Electricity production and sustainable energy</t>
   </si>
   <si>
+    <t>ISO3 Code</t>
+  </si>
+  <si>
     <t>Country (Resource-rich countries are shaded)</t>
   </si>
   <si>
@@ -141,6 +144,9 @@
     <t>Electric power generation from fossil fuels in GigaWatt hours (GWh), 2020</t>
   </si>
   <si>
+    <t>AGO</t>
+  </si>
+  <si>
     <t>Angola*</t>
   </si>
   <si>
@@ -327,7 +333,7 @@
     <t>SSD</t>
   </si>
   <si>
-    <t>South Sudan</t>
+    <t>South Sudan*</t>
   </si>
   <si>
     <t>SDN</t>
@@ -459,7 +465,7 @@
     <t>NGA</t>
   </si>
   <si>
-    <t>Nigeria*</t>
+    <t>Nigeria</t>
   </si>
   <si>
     <t>SEN</t>
@@ -603,7 +609,7 @@
     <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
   </si>
   <si>
-    <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Pa&gt;ses Africanos de L&gt;ngua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Com&gt;n del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
+    <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Países Africanos de Língua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Común del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
     <t>Access to electricity statistics are taken from reported percentages of population with access to electricity reported in World Bank World Development Indicators adjusted with UN estimates of rural, urban, and total populations. Interpolation was used on missing figures, and adjustments were made to total figures consistent with figures for urban and rural populations.</t>
@@ -1367,7 +1373,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92A1BEF3-E477-4D15-AC61-2293F885559E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C956370-C32C-4AAB-822B-B52805954AAB}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1419,114 +1425,116 @@
       <c r="AG1" s="3"/>
       <c r="AH1" s="3"/>
     </row>
-    <row r="2" spans="1:34" ht="110.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:34" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="U2" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V2" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="W2" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="X2" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y2" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z2" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AA2" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AB2" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AC2" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AD2" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE2" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AF2" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AG2" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AH2" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A3" s="8"/>
+      <c r="A3" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="B3" s="9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C3" s="10">
         <v>17278.801098115</v>
@@ -1547,37 +1555,37 @@
         <v>7.3334450725047198</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P3" s="11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q3" s="10">
         <v>13.377000000000001</v>
       </c>
       <c r="R3" s="10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="S3" s="10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T3" s="10">
         <v>3729.279</v>
@@ -1586,13 +1594,13 @@
         <v>51</v>
       </c>
       <c r="V3" s="10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W3" s="10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X3" s="10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y3" s="11">
         <v>2136.8560000000002</v>
@@ -1601,10 +1609,10 @@
         <v>18.27</v>
       </c>
       <c r="AA3" s="10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AB3" s="10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC3" s="10">
         <v>13801.68</v>
@@ -1613,13 +1621,13 @@
         <v>200</v>
       </c>
       <c r="AE3" s="10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF3" s="10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG3" s="10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH3" s="11">
         <v>4996.16</v>
@@ -1627,10 +1635,10 @@
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C4" s="13">
         <v>1833.27614309606</v>
@@ -1651,52 +1659,52 @@
         <v>26.382898330688501</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M4" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O4" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P4" s="14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q4" s="13">
         <v>5.9429999999999996</v>
       </c>
       <c r="R4" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="S4" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T4" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U4" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="V4" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W4" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X4" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y4" s="14">
         <v>917</v>
@@ -1705,25 +1713,25 @@
         <v>5.99</v>
       </c>
       <c r="AA4" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AB4" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC4" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AD4" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AE4" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF4" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG4" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH4" s="14">
         <v>2273.5</v>
@@ -1731,10 +1739,10 @@
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C5" s="16">
         <v>941.34220026806099</v>
@@ -1758,34 +1766,34 @@
         <v>2.6499999999999999E-2</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K5" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L5" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M5" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N5" s="16">
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="O5" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P5" s="17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q5" s="16">
         <v>0.93</v>
       </c>
       <c r="R5" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="S5" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T5" s="16">
         <v>62.1</v>
@@ -1794,13 +1802,13 @@
         <v>106</v>
       </c>
       <c r="V5" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W5" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X5" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y5" s="17">
         <v>9.9</v>
@@ -1809,10 +1817,10 @@
         <v>1.27</v>
       </c>
       <c r="AA5" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AB5" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC5" s="16">
         <v>230.38</v>
@@ -1821,24 +1829,24 @@
         <v>188.82</v>
       </c>
       <c r="AE5" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF5" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG5" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH5" s="17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C6" s="16">
         <v>1067.3780543365499</v>
@@ -1862,49 +1870,49 @@
         <v>75.082999999999998</v>
       </c>
       <c r="J6" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K6" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L6" s="16">
         <v>1.5583</v>
       </c>
       <c r="M6" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N6" s="16">
         <v>8.0000000000000004E-4</v>
       </c>
       <c r="O6" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P6" s="17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q6" s="16">
         <v>0.36299999999999999</v>
       </c>
       <c r="R6" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="S6" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T6" s="16">
         <v>74.75</v>
       </c>
       <c r="U6" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="V6" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W6" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X6" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y6" s="17">
         <v>0.12</v>
@@ -1913,25 +1921,25 @@
         <v>0.76</v>
       </c>
       <c r="AA6" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AB6" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC6" s="16">
         <v>416.73</v>
       </c>
       <c r="AD6" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AE6" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF6" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG6" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH6" s="17">
         <v>1.06</v>
@@ -1939,10 +1947,10 @@
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C7" s="16">
         <v>2880.7430223551801</v>
@@ -1966,34 +1974,34 @@
         <v>1.5871</v>
       </c>
       <c r="J7" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K7" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L7" s="16">
         <v>0.53420000000000001</v>
       </c>
       <c r="M7" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N7" s="16">
         <v>0.84609999999999996</v>
       </c>
       <c r="O7" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P7" s="17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q7" s="16">
         <v>81.5</v>
       </c>
       <c r="R7" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="S7" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T7" s="16">
         <v>373.9</v>
@@ -2002,13 +2010,13 @@
         <v>12</v>
       </c>
       <c r="V7" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W7" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X7" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y7" s="17">
         <v>140.774</v>
@@ -2017,10 +2025,10 @@
         <v>167.65</v>
       </c>
       <c r="AA7" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AB7" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC7" s="16">
         <v>1641.55</v>
@@ -2029,13 +2037,13 @@
         <v>53.85</v>
       </c>
       <c r="AE7" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF7" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG7" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH7" s="17">
         <v>518.04999999999995</v>
@@ -2043,10 +2051,10 @@
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C8" s="16">
         <v>9541.7359604655703</v>
@@ -2067,25 +2075,25 @@
         <v>4.4686910780751701</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K8" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L8" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M8" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N8" s="16">
         <v>140.85390000000001</v>
       </c>
       <c r="O8" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P8" s="17">
         <v>574.30709999999999</v>
@@ -2094,10 +2102,10 @@
         <v>55</v>
       </c>
       <c r="R8" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="S8" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T8" s="16">
         <v>2203.59</v>
@@ -2106,13 +2114,13 @@
         <v>14</v>
       </c>
       <c r="V8" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W8" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X8" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y8" s="17">
         <v>602.39</v>
@@ -2121,10 +2129,10 @@
         <v>1.65</v>
       </c>
       <c r="AA8" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AB8" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC8" s="16">
         <v>4137.8900000000003</v>
@@ -2133,13 +2141,13 @@
         <v>61.46</v>
       </c>
       <c r="AE8" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF8" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG8" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH8" s="17">
         <v>554</v>
@@ -2147,10 +2155,10 @@
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C9" s="16">
         <v>1400.3340195900701</v>
@@ -2171,28 +2179,28 @@
         <v>36.288032976572097</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J9" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K9" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L9" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M9" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N9" s="16">
         <v>8.0000000000000004E-4</v>
       </c>
       <c r="O9" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P9" s="17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q9" s="16">
         <v>144.958</v>
@@ -2201,7 +2209,7 @@
         <v>5.2309999999999999</v>
       </c>
       <c r="S9" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T9" s="16">
         <v>351</v>
@@ -2210,13 +2218,13 @@
         <v>0.25</v>
       </c>
       <c r="V9" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W9" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X9" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y9" s="17">
         <v>183.31</v>
@@ -2228,7 +2236,7 @@
         <v>21.63</v>
       </c>
       <c r="AB9" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC9" s="16">
         <v>1236.5</v>
@@ -2237,13 +2245,13 @@
         <v>0.22</v>
       </c>
       <c r="AE9" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF9" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG9" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH9" s="17">
         <v>158.25</v>
@@ -2251,10 +2259,10 @@
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C10" s="16">
         <v>49620.321202393803</v>
@@ -2278,13 +2286,13 @@
         <v>4.9799999999999997E-2</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K10" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L10" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M10" s="16">
         <v>3.5499999999999997E-2</v>
@@ -2293,10 +2301,10 @@
         <v>6.7249999999999996</v>
       </c>
       <c r="O10" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P10" s="17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q10" s="16">
         <v>5989.5780000000004</v>
@@ -2305,7 +2313,7 @@
         <v>2516</v>
       </c>
       <c r="S10" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T10" s="16">
         <v>747.65</v>
@@ -2314,7 +2322,7 @@
         <v>264.685</v>
       </c>
       <c r="V10" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W10" s="16">
         <v>1940</v>
@@ -2332,7 +2340,7 @@
         <v>299.5</v>
       </c>
       <c r="AB10" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC10" s="16">
         <v>1233.02</v>
@@ -2341,7 +2349,7 @@
         <v>431.33</v>
       </c>
       <c r="AE10" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF10" s="16">
         <v>10740.25</v>
@@ -2355,10 +2363,10 @@
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C11" s="13">
         <v>8427.4657517303604</v>
@@ -2382,34 +2390,34 @@
         <v>0.2223</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L11" s="13">
         <v>12.116899999999999</v>
       </c>
       <c r="M11" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N11" s="13">
         <v>8.0000000000000004E-4</v>
       </c>
       <c r="O11" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P11" s="14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q11" s="13">
         <v>96.424000000000007</v>
       </c>
       <c r="R11" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="S11" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T11" s="13">
         <v>2398.9969999999998</v>
@@ -2418,13 +2426,13 @@
         <v>42.8</v>
       </c>
       <c r="V11" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W11" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X11" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y11" s="14">
         <v>524.6</v>
@@ -2433,10 +2441,10 @@
         <v>163.06</v>
       </c>
       <c r="AA11" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AB11" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC11" s="13">
         <v>12794.96</v>
@@ -2445,13 +2453,13 @@
         <v>78.31</v>
       </c>
       <c r="AE11" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF11" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG11" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH11" s="14">
         <v>2216.09</v>
@@ -2459,10 +2467,10 @@
     </row>
     <row r="12" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C12" s="16">
         <v>8265.3835895542197</v>
@@ -2483,37 +2491,37 @@
         <v>37.060251378503203</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J12" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K12" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L12" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M12" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N12" s="16">
         <v>1.1599999999999999E-2</v>
       </c>
       <c r="O12" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P12" s="17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q12" s="16">
         <v>18.283000000000001</v>
       </c>
       <c r="R12" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="S12" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T12" s="16">
         <v>1081.0550000000001</v>
@@ -2522,13 +2530,13 @@
         <v>100</v>
       </c>
       <c r="V12" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W12" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X12" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y12" s="17">
         <v>1200</v>
@@ -2537,10 +2545,10 @@
         <v>33.520000000000003</v>
       </c>
       <c r="AA12" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AB12" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC12" s="16">
         <v>3882</v>
@@ -2549,13 +2557,13 @@
         <v>283.10000000000002</v>
       </c>
       <c r="AE12" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF12" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG12" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH12" s="17">
         <v>2477.3000000000002</v>
@@ -2563,10 +2571,10 @@
     </row>
     <row r="13" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="18" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C13" s="20">
         <v>101256.78104190499</v>
@@ -2590,10 +2598,10 @@
         <v>76.968699999999998</v>
       </c>
       <c r="J13" s="20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K13" s="20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L13" s="20">
         <v>14.2094</v>
@@ -2605,7 +2613,7 @@
         <v>148.49700000000001</v>
       </c>
       <c r="O13" s="20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P13" s="21">
         <v>574.30709999999999</v>
@@ -2617,7 +2625,7 @@
         <v>2521.2310000000002</v>
       </c>
       <c r="S13" s="20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T13" s="20">
         <v>11022.321</v>
@@ -2626,7 +2634,7 @@
         <v>590.73500000000001</v>
       </c>
       <c r="V13" s="20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W13" s="20">
         <v>1940</v>
@@ -2644,7 +2652,7 @@
         <v>321.13</v>
       </c>
       <c r="AB13" s="20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC13" s="20">
         <v>39374.71</v>
@@ -2653,7 +2661,7 @@
         <v>1297.0899999999999</v>
       </c>
       <c r="AE13" s="20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF13" s="20">
         <v>10740.25</v>
@@ -2667,10 +2675,10 @@
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C14" s="16">
         <v>1434.11157481124</v>
@@ -2694,34 +2702,34 @@
         <v>91.046000000000006</v>
       </c>
       <c r="J14" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K14" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L14" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M14" s="16">
         <v>17.530799999999999</v>
       </c>
       <c r="N14" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O14" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P14" s="17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q14" s="16">
         <v>5.1029999999999998</v>
       </c>
       <c r="R14" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="S14" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T14" s="16">
         <v>48.283000000000001</v>
@@ -2730,13 +2738,13 @@
         <v>4</v>
       </c>
       <c r="V14" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W14" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X14" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y14" s="17">
         <v>50.5</v>
@@ -2745,10 +2753,10 @@
         <v>7.93</v>
       </c>
       <c r="AA14" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AB14" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC14" s="16">
         <v>271.58999999999997</v>
@@ -2757,13 +2765,13 @@
         <v>5.55</v>
       </c>
       <c r="AE14" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF14" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG14" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH14" s="17">
         <v>118.02</v>
@@ -2771,10 +2779,10 @@
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C15" s="16">
         <v>17145.393767915299</v>
@@ -2798,49 +2806,49 @@
         <v>35.021900000000002</v>
       </c>
       <c r="J15" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K15" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L15" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M15" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N15" s="16">
         <v>2.7538</v>
       </c>
       <c r="O15" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P15" s="17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q15" s="16">
         <v>14.317</v>
       </c>
       <c r="R15" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="S15" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T15" s="16">
         <v>812.3</v>
       </c>
       <c r="U15" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="V15" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W15" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X15" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y15" s="17">
         <v>705</v>
@@ -2849,25 +2857,25 @@
         <v>19.670000000000002</v>
       </c>
       <c r="AA15" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AB15" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC15" s="16">
         <v>5089.8999999999996</v>
       </c>
       <c r="AD15" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AE15" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF15" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG15" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH15" s="17">
         <v>1336.15</v>
@@ -2875,10 +2883,10 @@
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C16" s="16">
         <v>826.30253519363305</v>
@@ -2902,49 +2910,49 @@
         <v>5.9318</v>
       </c>
       <c r="J16" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K16" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L16" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M16" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N16" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O16" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P16" s="17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q16" s="16">
         <v>0.316</v>
       </c>
       <c r="R16" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="S16" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T16" s="16">
         <v>18.850000000000001</v>
       </c>
       <c r="U16" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="V16" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W16" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X16" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y16" s="17">
         <v>22</v>
@@ -2953,25 +2961,25 @@
         <v>0.43</v>
       </c>
       <c r="AA16" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AB16" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC16" s="16">
         <v>135.6</v>
       </c>
       <c r="AD16" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AE16" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF16" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG16" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH16" s="17">
         <v>5.2</v>
@@ -2979,10 +2987,10 @@
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C17" s="23">
         <v>1844.2523895833201</v>
@@ -3006,25 +3014,25 @@
         <v>10.5474</v>
       </c>
       <c r="J17" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K17" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L17" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M17" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N17" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O17" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P17" s="24" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q17" s="23">
         <v>0.72699999999999998</v>
@@ -3033,22 +3041,22 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="S17" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T17" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U17" s="23">
         <v>2</v>
       </c>
       <c r="V17" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W17" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X17" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y17" s="24">
         <v>282</v>
@@ -3060,22 +3068,22 @@
         <v>8.9</v>
       </c>
       <c r="AB17" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC17" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AD17" s="23">
         <v>9.5</v>
       </c>
       <c r="AE17" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF17" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG17" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH17" s="24">
         <v>325.64</v>
@@ -3083,10 +3091,10 @@
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C18" s="23">
         <v>2823.5512751889801</v>
@@ -3107,37 +3115,37 @@
         <v>14.7540329829279</v>
       </c>
       <c r="I18" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J18" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K18" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L18" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M18" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N18" s="23">
         <v>0.29849999999999999</v>
       </c>
       <c r="O18" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P18" s="24" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q18" s="23">
         <v>0.72</v>
       </c>
       <c r="R18" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="S18" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T18" s="23">
         <v>213.9</v>
@@ -3146,13 +3154,13 @@
         <v>12.2</v>
       </c>
       <c r="V18" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W18" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X18" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y18" s="24">
         <v>596.66</v>
@@ -3161,25 +3169,25 @@
         <v>0.9</v>
       </c>
       <c r="AA18" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AB18" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC18" s="23">
         <v>1046</v>
       </c>
       <c r="AD18" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AE18" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF18" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG18" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH18" s="24">
         <v>1573.4</v>
@@ -3187,10 +3195,10 @@
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C19" s="13">
         <v>17734.954678206701</v>
@@ -3211,37 +3219,37 @@
         <v>1.0000018181369099</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K19" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L19" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M19" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N19" s="13">
         <v>7.6E-3</v>
       </c>
       <c r="O19" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P19" s="14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q19" s="13">
         <v>19.927</v>
       </c>
       <c r="R19" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="S19" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T19" s="13">
         <v>2722.7</v>
@@ -3250,13 +3258,13 @@
         <v>2.96</v>
       </c>
       <c r="V19" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W19" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X19" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y19" s="14">
         <v>29</v>
@@ -3265,25 +3273,25 @@
         <v>28.14</v>
       </c>
       <c r="AA19" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AB19" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC19" s="13">
         <v>11890.76</v>
       </c>
       <c r="AD19" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AE19" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF19" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG19" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH19" s="14">
         <v>112.03</v>
@@ -3291,10 +3299,10 @@
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C20" s="23">
         <v>1065.3264561552901</v>
@@ -3315,79 +3323,79 @@
         <v>0.93263000249863004</v>
       </c>
       <c r="I20" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J20" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K20" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L20" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M20" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N20" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O20" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P20" s="24" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q20" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="R20" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="S20" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T20" s="23">
         <v>127.14</v>
       </c>
       <c r="U20" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="V20" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W20" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X20" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y20" s="24">
         <v>273.971</v>
       </c>
       <c r="Z20" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AA20" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AB20" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC20" s="23">
         <v>127</v>
       </c>
       <c r="AD20" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AE20" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF20" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG20" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH20" s="24">
         <v>937.07</v>
@@ -3395,10 +3403,10 @@
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C21" s="23">
         <v>2099.3449455386299</v>
@@ -3419,37 +3427,37 @@
         <v>27.7633441386443</v>
       </c>
       <c r="I21" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J21" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K21" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L21" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M21" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N21" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O21" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P21" s="24" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q21" s="23">
         <v>1.4</v>
       </c>
       <c r="R21" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="S21" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T21" s="23">
         <v>330.28699999999998</v>
@@ -3458,13 +3466,13 @@
         <v>1.2</v>
       </c>
       <c r="V21" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W21" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X21" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y21" s="24">
         <v>279.47000000000003</v>
@@ -3473,10 +3481,10 @@
         <v>1.92</v>
       </c>
       <c r="AA21" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AB21" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC21" s="23">
         <v>982.39</v>
@@ -3485,13 +3493,13 @@
         <v>1.22</v>
       </c>
       <c r="AE21" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF21" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG21" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH21" s="24">
         <v>840</v>
@@ -3499,10 +3507,10 @@
     </row>
     <row r="22" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C22" s="16">
         <v>167.38955922493</v>
@@ -3523,52 +3531,52 @@
         <v>71.077508254810795</v>
       </c>
       <c r="I22" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J22" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K22" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L22" s="16">
         <v>13.5595</v>
       </c>
       <c r="M22" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N22" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O22" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P22" s="17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q22" s="16">
         <v>0.33400000000000002</v>
       </c>
       <c r="R22" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="S22" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T22" s="16">
         <v>2.3199999999999998</v>
       </c>
       <c r="U22" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="V22" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W22" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X22" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y22" s="17">
         <v>44.905000000000001</v>
@@ -3577,25 +3585,25 @@
         <v>0.42</v>
       </c>
       <c r="AA22" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AB22" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC22" s="16">
         <v>5.89</v>
       </c>
       <c r="AD22" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AE22" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF22" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG22" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH22" s="17">
         <v>95.53</v>
@@ -3603,10 +3611,10 @@
     </row>
     <row r="23" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="18" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C23" s="20">
         <v>45140.627181818003</v>
@@ -3630,10 +3638,10 @@
         <v>142.5471</v>
       </c>
       <c r="J23" s="20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K23" s="20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L23" s="20">
         <v>13.5595</v>
@@ -3645,10 +3653,10 @@
         <v>3.0598999999999998</v>
       </c>
       <c r="O23" s="20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P23" s="21" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q23" s="20">
         <v>42.844000000000001</v>
@@ -3657,7 +3665,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="S23" s="20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T23" s="20">
         <v>4275.78</v>
@@ -3666,13 +3674,13 @@
         <v>22.36</v>
       </c>
       <c r="V23" s="20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W23" s="20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X23" s="20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y23" s="21">
         <v>2283.5059999999999</v>
@@ -3684,7 +3692,7 @@
         <v>8.9</v>
       </c>
       <c r="AB23" s="20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC23" s="20">
         <v>19549.13</v>
@@ -3693,13 +3701,13 @@
         <v>16.27</v>
       </c>
       <c r="AE23" s="20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF23" s="20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG23" s="20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH23" s="21">
         <v>5343.04</v>
@@ -3707,10 +3715,10 @@
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C24" s="16">
         <v>699.24530658416802</v>
@@ -3734,76 +3742,76 @@
         <v>16.410499999999999</v>
       </c>
       <c r="J24" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K24" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L24" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M24" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N24" s="16">
         <v>4.8500000000000001E-2</v>
       </c>
       <c r="O24" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P24" s="17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q24" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="R24" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="S24" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T24" s="16">
         <v>1.448</v>
       </c>
       <c r="U24" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="V24" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W24" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X24" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y24" s="17">
         <v>21.6</v>
       </c>
       <c r="Z24" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AA24" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AB24" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC24" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AD24" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AE24" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF24" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG24" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH24" s="17">
         <v>50.12</v>
@@ -3811,10 +3819,10 @@
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C25" s="16">
         <v>673.35761833240497</v>
@@ -3838,22 +3846,22 @@
         <v>6.6299999999999998E-2</v>
       </c>
       <c r="J25" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K25" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L25" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M25" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N25" s="16">
         <v>1.3705000000000001</v>
       </c>
       <c r="O25" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P25" s="17">
         <v>95.713200000000001</v>
@@ -3862,25 +3870,25 @@
         <v>0.36199999999999999</v>
       </c>
       <c r="R25" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="S25" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T25" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U25" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="V25" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W25" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X25" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y25" s="17">
         <v>123</v>
@@ -3889,25 +3897,25 @@
         <v>0.6</v>
       </c>
       <c r="AA25" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AB25" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC25" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AD25" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AE25" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF25" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG25" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH25" s="17">
         <v>568</v>
@@ -3915,10 +3923,10 @@
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C26" s="16">
         <v>1935.7482100346999</v>
@@ -3939,28 +3947,28 @@
         <v>39.024684905257502</v>
       </c>
       <c r="I26" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J26" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K26" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L26" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M26" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N26" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O26" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P26" s="17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q26" s="16">
         <v>22.209</v>
@@ -3969,22 +3977,22 @@
         <v>0.82499999999999996</v>
       </c>
       <c r="S26" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T26" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U26" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="V26" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W26" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X26" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y26" s="17">
         <v>205</v>
@@ -3996,22 +4004,22 @@
         <v>2</v>
       </c>
       <c r="AB26" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC26" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AD26" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AE26" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF26" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG26" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH26" s="17">
         <v>419</v>
@@ -4019,10 +4027,10 @@
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C27" s="16">
         <v>59877.503788249604</v>
@@ -4046,22 +4054,22 @@
         <v>5.3100000000000001E-2</v>
       </c>
       <c r="J27" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K27" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L27" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M27" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N27" s="16">
         <v>0.56720000000000004</v>
       </c>
       <c r="O27" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P27" s="17">
         <v>5.3E-3</v>
@@ -4082,13 +4090,13 @@
         <v>290</v>
       </c>
       <c r="V27" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W27" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X27" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y27" s="17">
         <v>104</v>
@@ -4100,7 +4108,7 @@
         <v>609.04</v>
       </c>
       <c r="AB27" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC27" s="16">
         <v>14403.7</v>
@@ -4109,24 +4117,24 @@
         <v>29.98</v>
       </c>
       <c r="AE27" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF27" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG27" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH27" s="17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A28" s="8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C28" s="16">
         <v>37137.571627114899</v>
@@ -4150,25 +4158,25 @@
         <v>19.795000000000002</v>
       </c>
       <c r="J28" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K28" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L28" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M28" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N28" s="16">
         <v>2.5152000000000001</v>
       </c>
       <c r="O28" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P28" s="17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q28" s="16">
         <v>105.827</v>
@@ -4186,13 +4194,13 @@
         <v>87.203999999999994</v>
       </c>
       <c r="V28" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W28" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X28" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y28" s="17">
         <v>751.4</v>
@@ -4213,13 +4221,13 @@
         <v>159.43</v>
       </c>
       <c r="AE28" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF28" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG28" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH28" s="17">
         <v>2409.1799999999998</v>
@@ -4227,10 +4235,10 @@
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A29" s="8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C29" s="16">
         <v>9521.7852538381503</v>
@@ -4251,28 +4259,28 @@
         <v>10.8984851838289</v>
       </c>
       <c r="I29" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J29" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K29" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L29" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M29" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N29" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O29" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P29" s="17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q29" s="16">
         <v>33</v>
@@ -4281,7 +4289,7 @@
         <v>0.17699999999999999</v>
       </c>
       <c r="S29" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T29" s="16">
         <v>163.79900000000001</v>
@@ -4290,13 +4298,13 @@
         <v>0.23400000000000001</v>
       </c>
       <c r="V29" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W29" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X29" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y29" s="17">
         <v>622</v>
@@ -4308,7 +4316,7 @@
         <v>0.47</v>
       </c>
       <c r="AB29" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC29" s="16">
         <v>844.46</v>
@@ -4317,13 +4325,13 @@
         <v>0.62</v>
       </c>
       <c r="AE29" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF29" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG29" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH29" s="17">
         <v>1018.48</v>
@@ -4331,10 +4339,10 @@
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A30" s="8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C30" s="16">
         <v>1293.43684870785</v>
@@ -4355,28 +4363,28 @@
         <v>99.835762023925795</v>
       </c>
       <c r="I30" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J30" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K30" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L30" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M30" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N30" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O30" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P30" s="17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q30" s="16">
         <v>83.49</v>
@@ -4385,7 +4393,7 @@
         <v>10.63</v>
       </c>
       <c r="S30" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T30" s="16">
         <v>60.74</v>
@@ -4394,13 +4402,13 @@
         <v>90.65</v>
       </c>
       <c r="V30" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W30" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X30" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y30" s="17">
         <v>610.1</v>
@@ -4412,7 +4420,7 @@
         <v>18</v>
       </c>
       <c r="AB30" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC30" s="16">
         <v>116</v>
@@ -4421,13 +4429,13 @@
         <v>409</v>
       </c>
       <c r="AE30" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF30" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG30" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH30" s="17">
         <v>2194</v>
@@ -4435,10 +4443,10 @@
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A31" s="8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C31" s="16">
         <v>6126.20484889198</v>
@@ -4462,10 +4470,10 @@
         <v>14.609</v>
       </c>
       <c r="J31" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K31" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L31" s="16">
         <v>242.8999</v>
@@ -4474,22 +4482,22 @@
         <v>11.687200000000001</v>
       </c>
       <c r="N31" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O31" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P31" s="17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q31" s="16">
         <v>38.338000000000001</v>
       </c>
       <c r="R31" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="S31" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T31" s="16">
         <v>119.563</v>
@@ -4498,13 +4506,13 @@
         <v>0.83499999999999996</v>
       </c>
       <c r="V31" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W31" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X31" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y31" s="17">
         <v>114.14</v>
@@ -4513,10 +4521,10 @@
         <v>56.31</v>
       </c>
       <c r="AA31" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AB31" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC31" s="16">
         <v>518.78</v>
@@ -4525,13 +4533,13 @@
         <v>2.33</v>
       </c>
       <c r="AE31" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF31" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG31" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH31" s="17">
         <v>339.44</v>
@@ -4539,10 +4547,10 @@
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A32" s="8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C32" s="16">
         <v>105.53</v>
@@ -4563,28 +4571,28 @@
         <v>100</v>
       </c>
       <c r="I32" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J32" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K32" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L32" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M32" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N32" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O32" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P32" s="17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q32" s="16">
         <v>3.7879999999999998</v>
@@ -4593,22 +4601,22 @@
         <v>6</v>
       </c>
       <c r="S32" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T32" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U32" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="V32" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W32" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X32" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y32" s="17">
         <v>116.4</v>
@@ -4620,22 +4628,22 @@
         <v>5.99</v>
       </c>
       <c r="AB32" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC32" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AD32" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AE32" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF32" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG32" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH32" s="17">
         <v>430.13</v>
@@ -4643,10 +4651,10 @@
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A33" s="8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C33" s="16">
         <v>8224.0019639604307</v>
@@ -4670,25 +4678,25 @@
         <v>5.3100000000000001E-2</v>
       </c>
       <c r="J33" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K33" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L33" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M33" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N33" s="16">
         <v>5.3100000000000001E-2</v>
       </c>
       <c r="O33" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P33" s="17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q33" s="16">
         <v>15.538</v>
@@ -4697,22 +4705,22 @@
         <v>3.55</v>
       </c>
       <c r="S33" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T33" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U33" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="V33" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W33" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X33" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y33" s="17">
         <v>100</v>
@@ -4724,22 +4732,22 @@
         <v>6.22</v>
       </c>
       <c r="AB33" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC33" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AD33" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AE33" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF33" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG33" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH33" s="17">
         <v>700</v>
@@ -4747,10 +4755,10 @@
     </row>
     <row r="34" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A34" s="8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C34" s="23">
         <v>768.03278201776004</v>
@@ -4771,52 +4779,52 @@
         <v>5.5638475418287996</v>
       </c>
       <c r="I34" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J34" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K34" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L34" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M34" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N34" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O34" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P34" s="24" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q34" s="23">
         <v>0.83499999999999996</v>
       </c>
       <c r="R34" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="S34" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T34" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U34" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="V34" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W34" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X34" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y34" s="24">
         <v>174.4</v>
@@ -4825,25 +4833,25 @@
         <v>1.25</v>
       </c>
       <c r="AA34" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AB34" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC34" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AD34" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AE34" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF34" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG34" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH34" s="24">
         <v>580</v>
@@ -4851,10 +4859,10 @@
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A35" s="8" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C35" s="16">
         <v>24615.452695198601</v>
@@ -4878,34 +4886,34 @@
         <v>17.927199999999999</v>
       </c>
       <c r="J35" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K35" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L35" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M35" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N35" s="16">
         <v>0.1386</v>
       </c>
       <c r="O35" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P35" s="17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q35" s="16">
         <v>117.13</v>
       </c>
       <c r="R35" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="S35" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T35" s="16">
         <v>1482</v>
@@ -4914,13 +4922,13 @@
         <v>199</v>
       </c>
       <c r="V35" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W35" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X35" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y35" s="17">
         <v>1935</v>
@@ -4929,10 +4937,10 @@
         <v>27.51</v>
       </c>
       <c r="AA35" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AB35" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC35" s="16">
         <v>11008</v>
@@ -4941,13 +4949,13 @@
         <v>103.85</v>
       </c>
       <c r="AE35" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF35" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG35" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH35" s="17">
         <v>5408.72</v>
@@ -4955,10 +4963,10 @@
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A36" s="8" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C36" s="16">
         <v>24620.103623536201</v>
@@ -4985,22 +4993,22 @@
         <v>0.83679999999999999</v>
       </c>
       <c r="K36" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L36" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M36" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N36" s="16">
         <v>15.424799999999999</v>
       </c>
       <c r="O36" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P36" s="17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q36" s="16">
         <v>23.643999999999998</v>
@@ -5009,7 +5017,7 @@
         <v>2.4</v>
       </c>
       <c r="S36" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T36" s="16">
         <v>589.12</v>
@@ -5018,13 +5026,13 @@
         <v>70.185000000000002</v>
       </c>
       <c r="V36" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W36" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X36" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y36" s="17">
         <v>1317.6759999999999</v>
@@ -5033,10 +5041,10 @@
         <v>42.36</v>
       </c>
       <c r="AA36" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AB36" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC36" s="16">
         <v>3223.58</v>
@@ -5045,13 +5053,13 @@
         <v>151.35</v>
       </c>
       <c r="AE36" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF36" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG36" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH36" s="17">
         <v>4558.2</v>
@@ -5059,10 +5067,10 @@
     </row>
     <row r="37" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C37" s="16">
         <v>18682.9817730332</v>
@@ -5086,34 +5094,34 @@
         <v>0.83760000000000001</v>
       </c>
       <c r="J37" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K37" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L37" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M37" s="16">
         <v>1.11E-2</v>
       </c>
       <c r="N37" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O37" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P37" s="17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q37" s="16">
         <v>87.292000000000002</v>
       </c>
       <c r="R37" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="S37" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T37" s="16">
         <v>1010.6</v>
@@ -5122,13 +5130,13 @@
         <v>96.2</v>
       </c>
       <c r="V37" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W37" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X37" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y37" s="17">
         <v>102.68</v>
@@ -5137,10 +5145,10 @@
         <v>122.04</v>
       </c>
       <c r="AA37" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AB37" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC37" s="16">
         <v>4028.12</v>
@@ -5149,13 +5157,13 @@
         <v>267.82</v>
       </c>
       <c r="AE37" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF37" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG37" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH37" s="17">
         <v>59.03</v>
@@ -5163,10 +5171,10 @@
     </row>
     <row r="38" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="18" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C38" s="20">
         <v>194280.9563395</v>
@@ -5193,7 +5201,7 @@
         <v>0.83679999999999999</v>
       </c>
       <c r="K38" s="20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L38" s="20">
         <v>242.8999</v>
@@ -5205,7 +5213,7 @@
         <v>20.117899999999999</v>
       </c>
       <c r="O38" s="20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P38" s="21">
         <v>95.718500000000006</v>
@@ -5226,13 +5234,13 @@
         <v>834.30799999999999</v>
       </c>
       <c r="V38" s="20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W38" s="20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X38" s="20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y38" s="21">
         <v>6297.3959999999997</v>
@@ -5253,13 +5261,13 @@
         <v>1124.3800000000001</v>
       </c>
       <c r="AE38" s="20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF38" s="20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG38" s="20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH38" s="21">
         <v>18734.3</v>
@@ -5267,10 +5275,10 @@
     </row>
     <row r="39" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A39" s="8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C39" s="23">
         <v>43366.557462614597</v>
@@ -5291,28 +5299,28 @@
         <v>99.579903407993896</v>
       </c>
       <c r="I39" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J39" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K39" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L39" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M39" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N39" s="23">
         <v>8.0000000000000004E-4</v>
       </c>
       <c r="O39" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P39" s="24" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q39" s="23">
         <v>448</v>
@@ -5321,22 +5329,22 @@
         <v>10</v>
       </c>
       <c r="S39" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T39" s="23">
         <v>228</v>
       </c>
       <c r="U39" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="V39" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W39" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X39" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y39" s="24">
         <v>24077.599999999999</v>
@@ -5348,22 +5356,22 @@
         <v>8</v>
       </c>
       <c r="AB39" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC39" s="23">
         <v>50</v>
       </c>
       <c r="AD39" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AE39" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF39" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG39" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH39" s="24">
         <v>78691</v>
@@ -5371,10 +5379,10 @@
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A40" s="8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C40" s="16">
         <v>107465.13400000001</v>
@@ -5395,25 +5403,25 @@
         <v>100.000000000358</v>
       </c>
       <c r="I40" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J40" s="16">
         <v>126.6771</v>
       </c>
       <c r="K40" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L40" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M40" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N40" s="16">
         <v>6.7577999999999996</v>
       </c>
       <c r="O40" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P40" s="17">
         <v>8.6300000000000002E-2</v>
@@ -5425,7 +5433,7 @@
         <v>1380</v>
       </c>
       <c r="S40" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T40" s="16">
         <v>2832</v>
@@ -5434,13 +5442,13 @@
         <v>79</v>
       </c>
       <c r="V40" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W40" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X40" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y40" s="17">
         <v>53242.89</v>
@@ -5452,7 +5460,7 @@
         <v>4245.45</v>
       </c>
       <c r="AB40" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC40" s="16">
         <v>15038</v>
@@ -5461,13 +5469,13 @@
         <v>328.27</v>
       </c>
       <c r="AE40" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF40" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG40" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH40" s="17">
         <v>173613.87</v>
@@ -5475,10 +5483,10 @@
     </row>
     <row r="41" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A41" s="8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C41" s="23">
         <v>4638.2867508273303</v>
@@ -5502,49 +5510,49 @@
         <v>9.4999999999999998E-3</v>
       </c>
       <c r="J41" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K41" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L41" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M41" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N41" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O41" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P41" s="24" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q41" s="23">
         <v>5.1109999999999998</v>
       </c>
       <c r="R41" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="S41" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T41" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U41" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="V41" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W41" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X41" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y41" s="24">
         <v>10763</v>
@@ -5553,25 +5561,25 @@
         <v>7.79</v>
       </c>
       <c r="AA41" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AB41" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC41" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AD41" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AE41" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF41" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG41" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH41" s="24">
         <v>33711</v>
@@ -5579,10 +5587,10 @@
     </row>
     <row r="42" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A42" s="8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C42" s="23">
         <v>2286.0535772285998</v>
@@ -5603,28 +5611,28 @@
         <v>4.3018969876285196</v>
       </c>
       <c r="I42" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J42" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K42" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L42" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M42" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N42" s="23">
         <v>27.6402</v>
       </c>
       <c r="O42" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P42" s="24" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q42" s="23">
         <v>87.509</v>
@@ -5633,22 +5641,22 @@
         <v>34.4</v>
       </c>
       <c r="S42" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T42" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U42" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="V42" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W42" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X42" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y42" s="24">
         <v>464.625</v>
@@ -5660,22 +5668,22 @@
         <v>131.19999999999999</v>
       </c>
       <c r="AB42" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC42" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AD42" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AE42" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF42" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG42" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH42" s="24">
         <v>1099</v>
@@ -5683,10 +5691,10 @@
     </row>
     <row r="43" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A43" s="8" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C43" s="16">
         <v>36688.771999999997</v>
@@ -5707,28 +5715,28 @@
         <v>100.000000000299</v>
       </c>
       <c r="I43" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J43" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K43" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L43" s="16">
         <v>165.23099999999999</v>
       </c>
       <c r="M43" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N43" s="16">
         <v>5.8400000000000001E-2</v>
       </c>
       <c r="O43" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P43" s="17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q43" s="16">
         <v>734</v>
@@ -5737,7 +5745,7 @@
         <v>1405</v>
       </c>
       <c r="S43" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T43" s="16">
         <v>1305.5329999999999</v>
@@ -5746,10 +5754,10 @@
         <v>7.4</v>
       </c>
       <c r="V43" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W43" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X43" s="16">
         <v>464</v>
@@ -5764,7 +5772,7 @@
         <v>4607.13</v>
       </c>
       <c r="AB43" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC43" s="16">
         <v>867.64</v>
@@ -5773,10 +5781,10 @@
         <v>40.06</v>
       </c>
       <c r="AE43" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF43" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG43" s="16">
         <v>422.45</v>
@@ -5787,10 +5795,10 @@
     </row>
     <row r="44" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C44" s="16">
         <v>12161.723</v>
@@ -5811,28 +5819,28 @@
         <v>100.00000000108101</v>
       </c>
       <c r="I44" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J44" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K44" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L44" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M44" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N44" s="16">
         <v>18.754100000000001</v>
       </c>
       <c r="O44" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P44" s="17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q44" s="16">
         <v>94.89</v>
@@ -5841,22 +5849,22 @@
         <v>245</v>
       </c>
       <c r="S44" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T44" s="16">
         <v>66</v>
       </c>
       <c r="U44" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="V44" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W44" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X44" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y44" s="17">
         <v>5382</v>
@@ -5868,22 +5876,22 @@
         <v>465</v>
       </c>
       <c r="AB44" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC44" s="16">
         <v>46</v>
       </c>
       <c r="AD44" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AE44" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF44" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG44" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH44" s="17">
         <v>20326.900000000001</v>
@@ -5891,10 +5899,10 @@
     </row>
     <row r="45" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="18" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C45" s="20">
         <v>206606.52679067099</v>
@@ -5921,19 +5929,19 @@
         <v>126.6771</v>
       </c>
       <c r="K45" s="20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L45" s="20">
         <v>165.23099999999999</v>
       </c>
       <c r="M45" s="20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N45" s="20">
         <v>53.211300000000001</v>
       </c>
       <c r="O45" s="20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P45" s="21">
         <v>8.6300000000000002E-2</v>
@@ -5945,7 +5953,7 @@
         <v>3074.4</v>
       </c>
       <c r="S45" s="20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T45" s="20">
         <v>4431.5330000000004</v>
@@ -5954,10 +5962,10 @@
         <v>86.4</v>
       </c>
       <c r="V45" s="20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W45" s="20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X45" s="20">
         <v>464</v>
@@ -5972,7 +5980,7 @@
         <v>9456.7800000000007</v>
       </c>
       <c r="AB45" s="20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC45" s="20">
         <v>16001.64</v>
@@ -5981,10 +5989,10 @@
         <v>368.33</v>
       </c>
       <c r="AE45" s="20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF45" s="20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG45" s="20">
         <v>422.45</v>
@@ -5995,10 +6003,10 @@
     </row>
     <row r="46" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A46" s="8" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C46" s="16">
         <v>5235.6384000961198</v>
@@ -6022,22 +6030,22 @@
         <v>1.7399999999999999E-2</v>
       </c>
       <c r="J46" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K46" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L46" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M46" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N46" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O46" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P46" s="17">
         <v>27.3748</v>
@@ -6046,25 +6054,25 @@
         <v>2.94</v>
       </c>
       <c r="R46" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="S46" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T46" s="16">
         <v>0.5</v>
       </c>
       <c r="U46" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="V46" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W46" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X46" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y46" s="17">
         <v>301</v>
@@ -6073,25 +6081,25 @@
         <v>5.34</v>
       </c>
       <c r="AA46" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AB46" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC46" s="16">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AD46" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AE46" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF46" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG46" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH46" s="17">
         <v>1340.3</v>
@@ -6099,10 +6107,10 @@
     </row>
     <row r="47" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A47" s="8" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C47" s="16">
         <v>4080.0956823955198</v>
@@ -6126,13 +6134,13 @@
         <v>63.091299999999997</v>
       </c>
       <c r="J47" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K47" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L47" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M47" s="16">
         <v>1.54E-2</v>
@@ -6141,19 +6149,19 @@
         <v>5.1700000000000003E-2</v>
       </c>
       <c r="O47" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P47" s="17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q47" s="16">
         <v>62.387</v>
       </c>
       <c r="R47" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="S47" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T47" s="16">
         <v>34.5</v>
@@ -6162,13 +6170,13 @@
         <v>0.9</v>
       </c>
       <c r="V47" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W47" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X47" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y47" s="17">
         <v>339.16</v>
@@ -6177,10 +6185,10 @@
         <v>100.85</v>
       </c>
       <c r="AA47" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AB47" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC47" s="16">
         <v>112.39</v>
@@ -6189,13 +6197,13 @@
         <v>1.3</v>
       </c>
       <c r="AE47" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF47" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG47" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH47" s="17">
         <v>528.21</v>
@@ -6203,10 +6211,10 @@
     </row>
     <row r="48" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A48" s="8" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C48" s="23">
         <v>548.62398037109404</v>
@@ -6227,28 +6235,28 @@
         <v>93.513702947143599</v>
       </c>
       <c r="I48" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J48" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K48" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L48" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M48" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N48" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O48" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P48" s="24" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q48" s="23">
         <v>7.5810000000000004</v>
@@ -6257,22 +6265,22 @@
         <v>27.8</v>
       </c>
       <c r="S48" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T48" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U48" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="V48" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W48" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X48" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y48" s="24">
         <v>141</v>
@@ -6284,22 +6292,22 @@
         <v>63.93</v>
       </c>
       <c r="AB48" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC48" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AD48" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AE48" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF48" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG48" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH48" s="24">
         <v>348.79</v>
@@ -6307,10 +6315,10 @@
     </row>
     <row r="49" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A49" s="8" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C49" s="16">
         <v>18682.2201124405</v>
@@ -6334,10 +6342,10 @@
         <v>23.374300000000002</v>
       </c>
       <c r="J49" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K49" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L49" s="16">
         <v>289.25900000000001</v>
@@ -6346,10 +6354,10 @@
         <v>8.9688999999999997</v>
       </c>
       <c r="N49" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O49" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P49" s="17">
         <v>142.4451</v>
@@ -6358,25 +6366,25 @@
         <v>13.144</v>
       </c>
       <c r="R49" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="S49" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T49" s="16">
         <v>879</v>
       </c>
       <c r="U49" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="V49" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W49" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X49" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y49" s="17">
         <v>1340.1410000000001</v>
@@ -6385,25 +6393,25 @@
         <v>17.600000000000001</v>
       </c>
       <c r="AA49" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AB49" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC49" s="16">
         <v>3376</v>
       </c>
       <c r="AD49" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AE49" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF49" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG49" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH49" s="17">
         <v>7139.4</v>
@@ -6411,10 +6419,10 @@
     </row>
     <row r="50" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A50" s="8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C50" s="16">
         <v>1602.9056431367901</v>
@@ -6438,25 +6446,25 @@
         <v>21.561599999999999</v>
       </c>
       <c r="J50" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K50" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L50" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M50" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N50" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O50" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P50" s="17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q50" s="16">
         <v>2.1779999999999999</v>
@@ -6465,22 +6473,22 @@
         <v>1.214</v>
       </c>
       <c r="S50" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T50" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U50" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="V50" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W50" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X50" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y50" s="17">
         <v>102</v>
@@ -6492,22 +6500,22 @@
         <v>0.1</v>
       </c>
       <c r="AB50" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC50" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AD50" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AE50" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF50" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG50" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH50" s="17">
         <v>392.3</v>
@@ -6515,10 +6523,10 @@
     </row>
     <row r="51" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A51" s="8" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C51" s="13">
         <v>27634.453735232299</v>
@@ -6542,25 +6550,25 @@
         <v>2.8E-3</v>
       </c>
       <c r="J51" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K51" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L51" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M51" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N51" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O51" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P51" s="14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q51" s="13">
         <v>107.852</v>
@@ -6569,7 +6577,7 @@
         <v>0.02</v>
       </c>
       <c r="S51" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T51" s="13">
         <v>1584.0450000000001</v>
@@ -6578,13 +6586,13 @@
         <v>8.3740000000000006</v>
       </c>
       <c r="V51" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W51" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X51" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y51" s="14">
         <v>3665</v>
@@ -6593,10 +6601,10 @@
         <v>107.16</v>
       </c>
       <c r="AA51" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AB51" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC51" s="13">
         <v>7293</v>
@@ -6605,13 +6613,13 @@
         <v>19.72</v>
       </c>
       <c r="AE51" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF51" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG51" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH51" s="14">
         <v>12820</v>
@@ -6619,10 +6627,10 @@
     </row>
     <row r="52" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A52" s="8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C52" s="16">
         <v>5898.5668716233304</v>
@@ -6643,52 +6651,52 @@
         <v>19.307596206665</v>
       </c>
       <c r="I52" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J52" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K52" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L52" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M52" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N52" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O52" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P52" s="17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q52" s="16">
         <v>13.363</v>
       </c>
       <c r="R52" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="S52" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T52" s="16">
         <v>368.22</v>
       </c>
       <c r="U52" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="V52" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W52" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X52" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y52" s="17">
         <v>307</v>
@@ -6697,25 +6705,25 @@
         <v>20.59</v>
       </c>
       <c r="AA52" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AB52" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC52" s="16">
         <v>1493.43</v>
       </c>
       <c r="AD52" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AE52" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF52" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG52" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH52" s="17">
         <v>970.64</v>
@@ -6723,10 +6731,10 @@
     </row>
     <row r="53" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A53" s="8" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C53" s="16">
         <v>671.98586544893601</v>
@@ -6747,52 +6755,52 @@
         <v>15.168089866368501</v>
       </c>
       <c r="I53" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J53" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K53" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L53" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M53" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N53" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O53" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P53" s="17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q53" s="16">
         <v>1.169</v>
       </c>
       <c r="R53" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="S53" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T53" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U53" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="V53" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W53" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X53" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y53" s="17">
         <v>28</v>
@@ -6801,25 +6809,25 @@
         <v>1.89</v>
       </c>
       <c r="AA53" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AB53" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC53" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AD53" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AE53" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF53" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG53" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH53" s="17">
         <v>24.78</v>
@@ -6827,10 +6835,10 @@
     </row>
     <row r="54" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A54" s="8" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C54" s="16">
         <v>1400.85162892122</v>
@@ -6851,52 +6859,52 @@
         <v>8.3587713240205392</v>
       </c>
       <c r="I54" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J54" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K54" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L54" s="16">
         <v>7.7914000000000003</v>
       </c>
       <c r="M54" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N54" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O54" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P54" s="17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q54" s="16">
         <v>2.5830000000000002</v>
       </c>
       <c r="R54" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="S54" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T54" s="16">
         <v>92</v>
       </c>
       <c r="U54" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="V54" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W54" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X54" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y54" s="17">
         <v>98</v>
@@ -6905,25 +6913,25 @@
         <v>3.62</v>
       </c>
       <c r="AA54" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AB54" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC54" s="16">
         <v>124</v>
       </c>
       <c r="AD54" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AE54" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF54" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG54" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH54" s="17">
         <v>98</v>
@@ -6931,10 +6939,10 @@
     </row>
     <row r="55" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A55" s="8" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C55" s="16">
         <v>10731.1752892639</v>
@@ -6958,34 +6966,34 @@
         <v>0.17979999999999999</v>
       </c>
       <c r="J55" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K55" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L55" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M55" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N55" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O55" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P55" s="17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q55" s="16">
         <v>69.542000000000002</v>
       </c>
       <c r="R55" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="S55" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T55" s="16">
         <v>315.3</v>
@@ -6994,13 +7002,13 @@
         <v>40</v>
       </c>
       <c r="V55" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W55" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X55" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y55" s="17">
         <v>459.3</v>
@@ -7009,25 +7017,25 @@
         <v>31.7</v>
       </c>
       <c r="AA55" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AB55" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC55" s="16">
         <v>1702.17</v>
       </c>
       <c r="AD55" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AE55" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF55" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG55" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH55" s="17">
         <v>1134.77</v>
@@ -7035,10 +7043,10 @@
     </row>
     <row r="56" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A56" s="8" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C56" s="16">
         <v>4684.6902891337504</v>
@@ -7062,49 +7070,49 @@
         <v>24.348299999999998</v>
       </c>
       <c r="J56" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K56" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L56" s="16">
         <v>102.2627</v>
       </c>
       <c r="M56" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N56" s="16">
         <v>7.1999999999999998E-3</v>
       </c>
       <c r="O56" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P56" s="17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q56" s="16">
         <v>27.041</v>
       </c>
       <c r="R56" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="S56" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T56" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U56" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="V56" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W56" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X56" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y56" s="17">
         <v>352.6</v>
@@ -7113,25 +7121,25 @@
         <v>46.09</v>
       </c>
       <c r="AA56" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AB56" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC56" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AD56" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AE56" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF56" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG56" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH56" s="17">
         <v>522.75</v>
@@ -7139,10 +7147,10 @@
     </row>
     <row r="57" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A57" s="8" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C57" s="16">
         <v>115413.38499482399</v>
@@ -7166,34 +7174,34 @@
         <v>2.2988</v>
       </c>
       <c r="J57" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K57" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L57" s="16">
         <v>15.5686</v>
       </c>
       <c r="M57" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N57" s="16">
         <v>4.0702999999999996</v>
       </c>
       <c r="O57" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P57" s="17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q57" s="16">
         <v>28.428000000000001</v>
       </c>
       <c r="R57" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="S57" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T57" s="16">
         <v>2110.8000000000002</v>
@@ -7202,13 +7210,13 @@
         <v>10.335000000000001</v>
       </c>
       <c r="V57" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W57" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X57" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y57" s="17">
         <v>11001.7</v>
@@ -7217,10 +7225,10 @@
         <v>41.99</v>
       </c>
       <c r="AA57" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AB57" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC57" s="16">
         <v>8229.1200000000008</v>
@@ -7229,13 +7237,13 @@
         <v>21.12</v>
       </c>
       <c r="AE57" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF57" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG57" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH57" s="17">
         <v>27042.32</v>
@@ -7243,10 +7251,10 @@
     </row>
     <row r="58" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A58" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C58" s="16">
         <v>11565.9237927063</v>
@@ -7270,22 +7278,22 @@
         <v>102.8599</v>
       </c>
       <c r="J58" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K58" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L58" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M58" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N58" s="16">
         <v>9.5899999999999999E-2</v>
       </c>
       <c r="O58" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P58" s="17">
         <v>43.481000000000002</v>
@@ -7297,22 +7305,22 @@
         <v>158.69999999999999</v>
       </c>
       <c r="S58" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T58" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U58" s="16">
         <v>25</v>
       </c>
       <c r="V58" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W58" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X58" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y58" s="17">
         <v>968.7</v>
@@ -7321,25 +7329,25 @@
         <v>290.64999999999998</v>
       </c>
       <c r="AA58" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AB58" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC58" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AD58" s="16">
         <v>110.3</v>
       </c>
       <c r="AE58" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF58" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG58" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH58" s="17">
         <v>3733.97</v>
@@ -7347,10 +7355,10 @@
     </row>
     <row r="59" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A59" s="8" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C59" s="16">
         <v>2157.3732148099798</v>
@@ -7374,34 +7382,34 @@
         <v>1.4298999999999999</v>
       </c>
       <c r="J59" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K59" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L59" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M59" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N59" s="16">
         <v>7.6E-3</v>
       </c>
       <c r="O59" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P59" s="17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q59" s="16">
         <v>4.3719999999999999</v>
       </c>
       <c r="R59" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="S59" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T59" s="16">
         <v>60.89</v>
@@ -7410,13 +7418,13 @@
         <v>33.799999999999997</v>
       </c>
       <c r="V59" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W59" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X59" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y59" s="17">
         <v>138.69999999999999</v>
@@ -7425,10 +7433,10 @@
         <v>6.23</v>
       </c>
       <c r="AA59" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AB59" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC59" s="16">
         <v>238.12</v>
@@ -7437,13 +7445,13 @@
         <v>3.94</v>
       </c>
       <c r="AE59" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF59" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG59" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH59" s="17">
         <v>80</v>
@@ -7451,10 +7459,10 @@
     </row>
     <row r="60" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="8" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C60" s="13">
         <v>4558.7767204021902</v>
@@ -7478,49 +7486,49 @@
         <v>14.609</v>
       </c>
       <c r="J60" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K60" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L60" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M60" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N60" s="13">
         <v>1.8996</v>
       </c>
       <c r="O60" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P60" s="14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q60" s="13">
         <v>6.202</v>
       </c>
       <c r="R60" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="S60" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T60" s="13">
         <v>66.599999999999994</v>
       </c>
       <c r="U60" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="V60" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W60" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X60" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y60" s="14">
         <v>172.33</v>
@@ -7529,25 +7537,25 @@
         <v>14.84</v>
       </c>
       <c r="AA60" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AB60" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC60" s="13">
         <v>204</v>
       </c>
       <c r="AD60" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AE60" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF60" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG60" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH60" s="14">
         <v>510.63</v>
@@ -7555,10 +7563,10 @@
     </row>
     <row r="61" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="18" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C61" s="20">
         <v>214866.66622080599</v>
@@ -7582,10 +7590,10 @@
         <v>253.7731</v>
       </c>
       <c r="J61" s="20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K61" s="20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L61" s="20">
         <v>414.88170000000002</v>
@@ -7597,7 +7605,7 @@
         <v>6.1322999999999999</v>
       </c>
       <c r="O61" s="20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P61" s="21">
         <v>213.30090000000001</v>
@@ -7609,7 +7617,7 @@
         <v>187.73400000000001</v>
       </c>
       <c r="S61" s="20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T61" s="20">
         <v>5511.8549999999996</v>
@@ -7618,13 +7626,13 @@
         <v>118.40900000000001</v>
       </c>
       <c r="V61" s="20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W61" s="20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X61" s="20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y61" s="21">
         <v>19414.631000000001</v>
@@ -7636,7 +7644,7 @@
         <v>64.03</v>
       </c>
       <c r="AB61" s="20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC61" s="20">
         <v>22772.3</v>
@@ -7645,13 +7653,13 @@
         <v>156.38</v>
       </c>
       <c r="AE61" s="20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF61" s="20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG61" s="20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH61" s="21">
         <v>56686.86</v>
@@ -7659,10 +7667,10 @@
     </row>
     <row r="62" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="26" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B62" s="27" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C62" s="28">
         <v>762151.55757469905</v>
@@ -7689,7 +7697,7 @@
         <v>127.51390000000001</v>
       </c>
       <c r="K62" s="28" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L62" s="28">
         <v>850.78150000000005</v>
@@ -7701,7 +7709,7 @@
         <v>231.01840000000001</v>
       </c>
       <c r="O62" s="28" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P62" s="29">
         <v>883.41279999999995</v>
@@ -7722,7 +7730,7 @@
         <v>1652.212</v>
       </c>
       <c r="V62" s="28" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W62" s="28">
         <v>1940</v>
@@ -7749,7 +7757,7 @@
         <v>2962.45</v>
       </c>
       <c r="AE62" s="28" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF62" s="28">
         <v>10740.25</v>
@@ -7763,10 +7771,10 @@
     </row>
     <row r="63" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="26" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B63" s="30" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C63" s="31">
         <v>6288166.5991543503</v>
@@ -7867,10 +7875,10 @@
     </row>
     <row r="64" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A64" s="33" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B64" s="34" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C64" s="28">
         <v>637166.85136061197</v>
@@ -7903,13 +7911,13 @@
         <v>120.246</v>
       </c>
       <c r="M64" s="28" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N64" s="28">
         <v>2193.1732999999999</v>
       </c>
       <c r="O64" s="28" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P64" s="29">
         <v>951.19949999999994</v>
@@ -7957,7 +7965,7 @@
         <v>81558.509999999995</v>
       </c>
       <c r="AE64" s="28" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF64" s="28">
         <v>34928.15</v>
@@ -7971,10 +7979,10 @@
     </row>
     <row r="65" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A65" s="33" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B65" s="27" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C65" s="35">
         <v>4122261.4019217398</v>
@@ -8075,10 +8083,10 @@
     </row>
     <row r="66" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="33" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B66" s="37" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C66" s="38">
         <v>7050318.15672905</v>
@@ -8179,10 +8187,10 @@
     </row>
     <row r="67" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A67" s="33" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B67" s="40" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C67" s="41">
         <v>332841.96450169903</v>
@@ -8209,7 +8217,7 @@
         <v>126.6771</v>
       </c>
       <c r="K67" s="41" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L67" s="41">
         <v>255.55099999999999</v>
@@ -8221,7 +8229,7 @@
         <v>31.129100000000001</v>
       </c>
       <c r="O67" s="41" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P67" s="42">
         <v>95.8048</v>
@@ -8242,13 +8250,13 @@
         <v>1110.883</v>
       </c>
       <c r="V67" s="41" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W67" s="41" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X67" s="41" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y67" s="42">
         <v>76147.983999999997</v>
@@ -8269,13 +8277,13 @@
         <v>1910.93</v>
       </c>
       <c r="AE67" s="41" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF67" s="41" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG67" s="41" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH67" s="42">
         <v>246689.36</v>
@@ -8283,10 +8291,10 @@
     </row>
     <row r="68" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A68" s="33" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B68" s="27" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C68" s="35">
         <v>414975.52065845701</v>
@@ -8313,7 +8321,7 @@
         <v>126.6771</v>
       </c>
       <c r="K68" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L68" s="35">
         <v>572.32129999999995</v>
@@ -8325,7 +8333,7 @@
         <v>60.953499999999998</v>
       </c>
       <c r="O68" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P68" s="36">
         <v>309.10039999999998</v>
@@ -8337,7 +8345,7 @@
         <v>3229.8090000000002</v>
       </c>
       <c r="S68" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T68" s="35">
         <v>11125.686</v>
@@ -8346,10 +8354,10 @@
         <v>405.80900000000003</v>
       </c>
       <c r="V68" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W68" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X68" s="35">
         <v>464</v>
@@ -8364,7 +8372,7 @@
         <v>9466</v>
       </c>
       <c r="AB68" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC68" s="35">
         <v>49743.54</v>
@@ -8373,10 +8381,10 @@
         <v>638.05999999999995</v>
       </c>
       <c r="AE68" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF68" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG68" s="35">
         <v>422.45</v>
@@ -8387,28 +8395,28 @@
     </row>
     <row r="69" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A69" s="33" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B69" s="27" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C69" s="35">
-        <v>88769.006229405306</v>
+        <v>106503.960907612</v>
       </c>
       <c r="D69" s="35">
-        <v>40610.272400857502</v>
+        <v>57840.457791189401</v>
       </c>
       <c r="E69" s="35">
-        <v>48158.733828547804</v>
+        <v>48663.503116422602</v>
       </c>
       <c r="F69" s="35">
-        <v>45.741251764979403</v>
+        <v>37.119626127607702</v>
       </c>
       <c r="G69" s="35">
-        <v>75.935480195057295</v>
+        <v>60.340801087798297</v>
       </c>
       <c r="H69" s="36">
-        <v>34.2552837119052</v>
+        <v>25.469660800785899</v>
       </c>
       <c r="I69" s="35">
         <v>126.29</v>
@@ -8417,7 +8425,7 @@
         <v>0.83679999999999999</v>
       </c>
       <c r="K69" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L69" s="35">
         <v>242.8999</v>
@@ -8426,16 +8434,16 @@
         <v>29.229099999999999</v>
       </c>
       <c r="N69" s="35">
-        <v>17.940000000000001</v>
+        <v>17.947600000000001</v>
       </c>
       <c r="O69" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P69" s="36" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q69" s="35">
-        <v>261.03899999999999</v>
+        <v>280.96600000000001</v>
       </c>
       <c r="R69" s="35">
         <v>338.5</v>
@@ -8444,25 +8452,25 @@
         <v>863</v>
       </c>
       <c r="T69" s="35">
-        <v>2618.8490000000002</v>
+        <v>5341.549</v>
       </c>
       <c r="U69" s="35">
-        <v>258.42399999999998</v>
+        <v>261.38400000000001</v>
       </c>
       <c r="V69" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W69" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X69" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y69" s="36">
-        <v>2510.7959999999998</v>
+        <v>2539.7959999999998</v>
       </c>
       <c r="Z69" s="35">
-        <v>308.27</v>
+        <v>336.41</v>
       </c>
       <c r="AA69" s="35">
         <v>51.38</v>
@@ -8471,30 +8479,30 @@
         <v>5384.88</v>
       </c>
       <c r="AC69" s="35">
-        <v>11931.37</v>
+        <v>23822.13</v>
       </c>
       <c r="AD69" s="35">
         <v>586.48</v>
       </c>
       <c r="AE69" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF69" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG69" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH69" s="36">
-        <v>8063.87</v>
+        <v>8175.9</v>
       </c>
     </row>
     <row r="70" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A70" s="33" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B70" s="27" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C70" s="35">
         <v>68545.633128824906</v>
@@ -8518,10 +8526,10 @@
         <v>157.15610000000001</v>
       </c>
       <c r="J70" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K70" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L70" s="35">
         <v>256.45940000000002</v>
@@ -8533,10 +8541,10 @@
         <v>3.0598999999999998</v>
       </c>
       <c r="O70" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P70" s="36" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q70" s="35">
         <v>94.558999999999997</v>
@@ -8545,7 +8553,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="S70" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T70" s="35">
         <v>8124.6220000000003</v>
@@ -8554,13 +8562,13 @@
         <v>74.194999999999993</v>
       </c>
       <c r="V70" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W70" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X70" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y70" s="36">
         <v>4534.5020000000004</v>
@@ -8572,7 +8580,7 @@
         <v>8.9</v>
       </c>
       <c r="AB70" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC70" s="35">
         <v>33869.589999999997</v>
@@ -8581,13 +8589,13 @@
         <v>218.6</v>
       </c>
       <c r="AE70" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF70" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG70" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH70" s="36">
         <v>10678.64</v>
@@ -8595,10 +8603,10 @@
     </row>
     <row r="71" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A71" s="33" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B71" s="27" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C71" s="35">
         <v>214866.66622080599</v>
@@ -8622,10 +8630,10 @@
         <v>253.7731</v>
       </c>
       <c r="J71" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K71" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L71" s="35">
         <v>414.88170000000002</v>
@@ -8637,7 +8645,7 @@
         <v>6.1322999999999999</v>
       </c>
       <c r="O71" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P71" s="36">
         <v>213.30090000000001</v>
@@ -8649,7 +8657,7 @@
         <v>187.73400000000001</v>
       </c>
       <c r="S71" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T71" s="35">
         <v>5511.8549999999996</v>
@@ -8658,13 +8666,13 @@
         <v>118.40900000000001</v>
       </c>
       <c r="V71" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W71" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X71" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y71" s="36">
         <v>19414.631000000001</v>
@@ -8676,7 +8684,7 @@
         <v>64.03</v>
       </c>
       <c r="AB71" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC71" s="35">
         <v>22772.3</v>
@@ -8685,13 +8693,13 @@
         <v>156.38</v>
       </c>
       <c r="AE71" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF71" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG71" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH71" s="36">
         <v>56686.86</v>
@@ -8699,10 +8707,10 @@
     </row>
     <row r="72" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A72" s="33" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B72" s="27" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C72" s="35">
         <v>151914.65045794201</v>
@@ -8726,13 +8734,13 @@
         <v>38.732300000000002</v>
       </c>
       <c r="J72" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K72" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L72" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M72" s="35">
         <v>1.11E-2</v>
@@ -8741,7 +8749,7 @@
         <v>4.6445999999999996</v>
       </c>
       <c r="O72" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P72" s="36">
         <v>95.718500000000006</v>
@@ -8762,13 +8770,13 @@
         <v>672.404</v>
       </c>
       <c r="V72" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W72" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X72" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y72" s="36">
         <v>3495.48</v>
@@ -8789,13 +8797,13 @@
         <v>561.08000000000004</v>
       </c>
       <c r="AE72" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF72" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG72" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH72" s="36">
         <v>10143.93</v>
@@ -8803,10 +8811,10 @@
     </row>
     <row r="73" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A73" s="33" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B73" s="27" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C73" s="35">
         <v>155231.83675277801</v>
@@ -8833,7 +8841,7 @@
         <v>0.83679999999999999</v>
       </c>
       <c r="K73" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L73" s="35">
         <v>14.2094</v>
@@ -8845,7 +8853,7 @@
         <v>163.97790000000001</v>
       </c>
       <c r="O73" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P73" s="36">
         <v>574.30709999999999</v>
@@ -8857,7 +8865,7 @@
         <v>2540.4380000000001</v>
       </c>
       <c r="S73" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T73" s="35">
         <v>14560.128000000001</v>
@@ -8866,7 +8874,7 @@
         <v>754.76400000000001</v>
       </c>
       <c r="V73" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W73" s="35">
         <v>1940</v>
@@ -8884,7 +8892,7 @@
         <v>345.59</v>
       </c>
       <c r="AB73" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC73" s="35">
         <v>55449.51</v>
@@ -8893,7 +8901,7 @@
         <v>1858.06</v>
       </c>
       <c r="AE73" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF73" s="35">
         <v>10740.25</v>
@@ -8907,10 +8915,10 @@
     </row>
     <row r="74" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A74" s="33" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B74" s="27" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C74" s="35">
         <v>99141.392790670507</v>
@@ -8934,25 +8942,25 @@
         <v>9.4999999999999998E-3</v>
       </c>
       <c r="J74" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K74" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L74" s="35">
         <v>165.23099999999999</v>
       </c>
       <c r="M74" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N74" s="35">
         <v>46.453499999999998</v>
       </c>
       <c r="O74" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P74" s="36" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q74" s="35">
         <v>1369.51</v>
@@ -8961,7 +8969,7 @@
         <v>1694.4</v>
       </c>
       <c r="S74" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T74" s="35">
         <v>1599.5329999999999</v>
@@ -8970,10 +8978,10 @@
         <v>7.4</v>
       </c>
       <c r="V74" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W74" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X74" s="35">
         <v>464</v>
@@ -8988,7 +8996,7 @@
         <v>5211.33</v>
       </c>
       <c r="AB74" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC74" s="35">
         <v>963.64</v>
@@ -8997,10 +9005,10 @@
         <v>40.06</v>
       </c>
       <c r="AE74" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF74" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG74" s="35">
         <v>422.45</v>
@@ -9011,10 +9019,10 @@
     </row>
     <row r="75" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="33" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B75" s="37" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C75" s="38">
         <v>28208.5364636255</v>
@@ -9035,25 +9043,25 @@
         <v>6.4896729601421503</v>
       </c>
       <c r="I75" s="38" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J75" s="38" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K75" s="38" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L75" s="38">
         <v>13.5595</v>
       </c>
       <c r="M75" s="38" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N75" s="38">
         <v>140.85390000000001</v>
       </c>
       <c r="O75" s="38" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P75" s="39">
         <v>574.30709999999999</v>
@@ -9065,7 +9073,7 @@
         <v>27.8</v>
       </c>
       <c r="S75" s="38" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T75" s="38">
         <v>5935.1890000000003</v>
@@ -9074,13 +9082,13 @@
         <v>65</v>
       </c>
       <c r="V75" s="38" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W75" s="38" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X75" s="38" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y75" s="39">
         <v>2953.1509999999998</v>
@@ -9092,7 +9100,7 @@
         <v>63.93</v>
       </c>
       <c r="AB75" s="38" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC75" s="38">
         <v>17945.46</v>
@@ -9101,13 +9109,13 @@
         <v>261.45999999999998</v>
       </c>
       <c r="AE75" s="38" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF75" s="38" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG75" s="38" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH75" s="39">
         <v>6019.26</v>
@@ -9115,10 +9123,10 @@
     </row>
     <row r="76" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A76" s="33" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B76" s="40" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C76" s="41">
         <v>638985.37233523501</v>
@@ -9157,7 +9165,7 @@
         <v>72.147199999999998</v>
       </c>
       <c r="O76" s="41" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P76" s="42">
         <v>66.674099999999996</v>
@@ -9181,7 +9189,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="W76" s="41" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X76" s="41">
         <v>1296</v>
@@ -9208,7 +9216,7 @@
         <v>0.01</v>
       </c>
       <c r="AF76" s="41" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG76" s="41">
         <v>1198.8</v>
@@ -9219,28 +9227,28 @@
     </row>
     <row r="77" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A77" s="33" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B77" s="27" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C77" s="35">
-        <v>430441.55063621502</v>
+        <v>401951.09763611498</v>
       </c>
       <c r="D77" s="35">
-        <v>364362.054995935</v>
+        <v>339210.96799193497</v>
       </c>
       <c r="E77" s="35">
-        <v>66079.495640279594</v>
+        <v>62740.1296441796</v>
       </c>
       <c r="F77" s="35">
-        <v>99.815929652770606</v>
+        <v>99.8029083881313</v>
       </c>
       <c r="G77" s="35">
-        <v>99.9865299918213</v>
+        <v>99.985531391023898</v>
       </c>
       <c r="H77" s="36">
-        <v>98.885597864879102</v>
+        <v>98.826979180839103</v>
       </c>
       <c r="I77" s="35">
         <v>492.70260000000002</v>
@@ -9255,28 +9263,28 @@
         <v>102.7152</v>
       </c>
       <c r="M77" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N77" s="35">
         <v>1212.7019</v>
       </c>
       <c r="O77" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P77" s="36">
         <v>951.00469999999996</v>
       </c>
       <c r="Q77" s="35">
-        <v>12698.445</v>
+        <v>12693.125</v>
       </c>
       <c r="R77" s="35">
-        <v>24032</v>
+        <v>23960.720000000001</v>
       </c>
       <c r="S77" s="35">
         <v>39.700000000000003</v>
       </c>
       <c r="T77" s="35">
-        <v>176710.989</v>
+        <v>160189.77900000001</v>
       </c>
       <c r="U77" s="35">
         <v>17768.668000000001</v>
@@ -9291,25 +9299,25 @@
         <v>974</v>
       </c>
       <c r="Y77" s="36">
-        <v>105497.81299999999</v>
+        <v>88653.332999999999</v>
       </c>
       <c r="Z77" s="35">
-        <v>22070.44</v>
+        <v>22062.58</v>
       </c>
       <c r="AA77" s="35">
-        <v>79594.09</v>
+        <v>79506.09</v>
       </c>
       <c r="AB77" s="35">
         <v>216</v>
       </c>
       <c r="AC77" s="35">
-        <v>671460.44</v>
+        <v>606959.64</v>
       </c>
       <c r="AD77" s="35">
         <v>71865.399999999994</v>
       </c>
       <c r="AE77" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF77" s="35">
         <v>24063.88</v>
@@ -9318,15 +9326,15 @@
         <v>670.75</v>
       </c>
       <c r="AH77" s="36">
-        <v>310588.21000000002</v>
+        <v>285988.90000000002</v>
       </c>
     </row>
     <row r="78" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A78" s="33" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B78" s="27" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C78" s="35">
         <v>445279.88864749501</v>
@@ -9365,7 +9373,7 @@
         <v>76.829400000000007</v>
       </c>
       <c r="O78" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P78" s="36">
         <v>27.293299999999999</v>
@@ -9427,10 +9435,10 @@
     </row>
     <row r="79" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="33" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B79" s="37" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C79" s="38">
         <v>1369599.6077361701</v>
@@ -9469,7 +9477,7 @@
         <v>827.327</v>
       </c>
       <c r="O79" s="38" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P79" s="39">
         <v>21.773199999999999</v>
@@ -9531,114 +9539,114 @@
     </row>
     <row r="80" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A80" s="33" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B80" s="40" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C80" s="41">
-        <v>191364.18293044699</v>
+        <v>76718.830717640594</v>
       </c>
       <c r="D80" s="41">
-        <v>153629.787177669</v>
+        <v>63111.231789084602</v>
       </c>
       <c r="E80" s="41">
-        <v>37734.395752777797</v>
+        <v>13607.598928556001</v>
       </c>
       <c r="F80" s="41">
-        <v>59.213201830228101</v>
+        <v>61.151464488815002</v>
       </c>
       <c r="G80" s="41">
-        <v>84.467353072340202</v>
+        <v>83.281879243446696</v>
       </c>
       <c r="H80" s="42">
-        <v>26.705622647956499</v>
+        <v>27.3922650764986</v>
       </c>
       <c r="I80" s="41">
-        <v>12.855700000000001</v>
+        <v>10.556900000000001</v>
       </c>
       <c r="J80" s="41" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K80" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="L80" s="41">
-        <v>15.5686</v>
+        <v>37</v>
+      </c>
+      <c r="L80" s="41" t="s">
+        <v>37</v>
       </c>
       <c r="M80" s="41" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N80" s="41">
-        <v>32.009799999999998</v>
+        <v>27.939499999999999</v>
       </c>
       <c r="O80" s="41" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P80" s="42" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q80" s="41">
-        <v>592.85299999999995</v>
+        <v>565.26</v>
       </c>
       <c r="R80" s="41">
         <v>73.3</v>
       </c>
       <c r="S80" s="41" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T80" s="41">
-        <v>6739.4059999999999</v>
+        <v>4628.6059999999998</v>
       </c>
       <c r="U80" s="41">
-        <v>76.734999999999999</v>
+        <v>66.400000000000006</v>
       </c>
       <c r="V80" s="41" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W80" s="41" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X80" s="41" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y80" s="42">
-        <v>50016.881999999998</v>
+        <v>39189.582000000002</v>
       </c>
       <c r="Z80" s="41">
-        <v>880.89</v>
+        <v>840.15</v>
       </c>
       <c r="AA80" s="41">
         <v>212.03</v>
       </c>
       <c r="AB80" s="41" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC80" s="41">
-        <v>24236.19</v>
+        <v>16007.07</v>
       </c>
       <c r="AD80" s="41">
-        <v>231.84</v>
+        <v>210.72</v>
       </c>
       <c r="AE80" s="41" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF80" s="41" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG80" s="41" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH80" s="42">
-        <v>149564.38</v>
+        <v>123102.06</v>
       </c>
     </row>
     <row r="81" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A81" s="33" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B81" s="27" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C81" s="35">
         <v>485546.86891431903</v>
@@ -9739,55 +9747,55 @@
     </row>
     <row r="82" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A82" s="33" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B82" s="27" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C82" s="35">
-        <v>570787.37464425201</v>
+        <v>685432.72685705905</v>
       </c>
       <c r="D82" s="35">
-        <v>332706.589939464</v>
+        <v>423225.14532804798</v>
       </c>
       <c r="E82" s="35">
-        <v>238080.784704789</v>
+        <v>262207.58152901102</v>
       </c>
       <c r="F82" s="35">
-        <v>55.112642763634099</v>
+        <v>55.572834748001199</v>
       </c>
       <c r="G82" s="35">
-        <v>81.234181907142897</v>
+        <v>82.073634145690804</v>
       </c>
       <c r="H82" s="36">
-        <v>38.025432270341298</v>
+        <v>36.532893630096098</v>
       </c>
       <c r="I82" s="35">
-        <v>530.19690000000003</v>
+        <v>532.49570000000006</v>
       </c>
       <c r="J82" s="35">
         <v>127.51390000000001</v>
       </c>
       <c r="K82" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L82" s="35">
-        <v>835.21289999999999</v>
+        <v>850.78150000000005</v>
       </c>
       <c r="M82" s="35">
         <v>38.248899999999999</v>
       </c>
       <c r="N82" s="35">
-        <v>199.0086</v>
+        <v>203.0789</v>
       </c>
       <c r="O82" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P82" s="36">
         <v>883.41279999999995</v>
       </c>
       <c r="Q82" s="35">
-        <v>9972.6659999999993</v>
+        <v>10000.259</v>
       </c>
       <c r="R82" s="35">
         <v>6394.8530000000001</v>
@@ -9796,13 +9804,13 @@
         <v>870.3</v>
       </c>
       <c r="T82" s="35">
-        <v>26851.915000000001</v>
+        <v>28962.715</v>
       </c>
       <c r="U82" s="35">
-        <v>1575.4770000000001</v>
+        <v>1585.8119999999999</v>
       </c>
       <c r="V82" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W82" s="35">
         <v>1940</v>
@@ -9811,10 +9819,10 @@
         <v>3196</v>
       </c>
       <c r="Y82" s="36">
-        <v>127426.11599999999</v>
+        <v>138253.416</v>
       </c>
       <c r="Z82" s="35">
-        <v>15883.5</v>
+        <v>15924.24</v>
       </c>
       <c r="AA82" s="35">
         <v>10331.91</v>
@@ -9823,13 +9831,13 @@
         <v>5384.88</v>
       </c>
       <c r="AC82" s="35">
-        <v>111493.53</v>
+        <v>119722.65</v>
       </c>
       <c r="AD82" s="35">
-        <v>2730.61</v>
+        <v>2751.73</v>
       </c>
       <c r="AE82" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF82" s="35">
         <v>10740.25</v>
@@ -9838,15 +9846,15 @@
         <v>5283.7</v>
       </c>
       <c r="AH82" s="36">
-        <v>470875.05</v>
+        <v>497337.37</v>
       </c>
     </row>
     <row r="83" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="33" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B83" s="37" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C83" s="38">
         <v>5802619.7302400302</v>
@@ -9947,55 +9955,55 @@
     </row>
     <row r="84" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A84" s="33" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B84" s="40" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C84" s="41">
-        <v>199800.23268097601</v>
+        <v>208227.69843270601</v>
       </c>
       <c r="D84" s="41">
-        <v>119133.806917522</v>
+        <v>126092.872874768</v>
       </c>
       <c r="E84" s="41">
-        <v>80666.425763453793</v>
+        <v>82134.8255579385</v>
       </c>
       <c r="F84" s="41">
-        <v>35.528727239255701</v>
+        <v>35.821642812684402</v>
       </c>
       <c r="G84" s="41">
-        <v>66.606936361373499</v>
+        <v>67.318390259981001</v>
       </c>
       <c r="H84" s="42">
-        <v>21.0341866401297</v>
+        <v>20.847355562805902</v>
       </c>
       <c r="I84" s="41">
-        <v>267.81220000000002</v>
+        <v>268.03449999999998</v>
       </c>
       <c r="J84" s="41" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K84" s="41" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L84" s="41">
-        <v>353.48820000000001</v>
+        <v>365.60509999999999</v>
       </c>
       <c r="M84" s="41">
         <v>29.244499999999999</v>
       </c>
       <c r="N84" s="41">
-        <v>144.43260000000001</v>
+        <v>144.43340000000001</v>
       </c>
       <c r="O84" s="41" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P84" s="42">
         <v>574.31240000000003</v>
       </c>
       <c r="Q84" s="41">
-        <v>685.93600000000004</v>
+        <v>782.36</v>
       </c>
       <c r="R84" s="41">
         <v>330.87200000000001</v>
@@ -10004,57 +10012,57 @@
         <v>7.3</v>
       </c>
       <c r="T84" s="41">
-        <v>13152.074000000001</v>
+        <v>15551.071</v>
       </c>
       <c r="U84" s="41">
-        <v>695.92899999999997</v>
+        <v>738.72900000000004</v>
       </c>
       <c r="V84" s="41" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W84" s="41" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X84" s="41" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y84" s="42">
-        <v>6480.9740000000002</v>
+        <v>7005.5739999999996</v>
       </c>
       <c r="Z84" s="41">
-        <v>764.16</v>
+        <v>927.22</v>
       </c>
       <c r="AA84" s="41">
         <v>626.73</v>
       </c>
       <c r="AB84" s="41" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC84" s="41">
-        <v>52754.559999999998</v>
+        <v>65549.52</v>
       </c>
       <c r="AD84" s="41">
-        <v>540.20000000000005</v>
+        <v>618.51</v>
       </c>
       <c r="AE84" s="41" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF84" s="41" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG84" s="41" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH84" s="42">
-        <v>14419.69</v>
+        <v>16635.78</v>
       </c>
     </row>
     <row r="85" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A85" s="33" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B85" s="27" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C85" s="35">
         <v>93936.858463570999</v>
@@ -10078,22 +10086,22 @@
         <v>17.792100000000001</v>
       </c>
       <c r="J85" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K85" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L85" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M85" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N85" s="35">
         <v>1.8325</v>
       </c>
       <c r="O85" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P85" s="36">
         <v>31.816299999999998</v>
@@ -10105,7 +10113,7 @@
         <v>1</v>
       </c>
       <c r="S85" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T85" s="35">
         <v>1822.9929999999999</v>
@@ -10114,13 +10122,13 @@
         <v>6.7050000000000001</v>
       </c>
       <c r="V85" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W85" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X85" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y85" s="36">
         <v>10535.911</v>
@@ -10132,7 +10140,7 @@
         <v>1.17</v>
       </c>
       <c r="AB85" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC85" s="35">
         <v>1806.61</v>
@@ -10141,13 +10149,13 @@
         <v>33.479999999999997</v>
       </c>
       <c r="AE85" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF85" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG85" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH85" s="36">
         <v>28211.58</v>
@@ -10155,55 +10163,55 @@
     </row>
     <row r="86" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A86" s="33" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B86" s="27" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C86" s="35">
-        <v>500295.46852741501</v>
+        <v>491868.002775684</v>
       </c>
       <c r="D86" s="35">
-        <v>321201.429921598</v>
+        <v>314242.363964352</v>
       </c>
       <c r="E86" s="35">
-        <v>179094.03860581599</v>
+        <v>177625.638811332</v>
       </c>
       <c r="F86" s="35">
-        <v>69.417363830573805</v>
+        <v>70.088751308741607</v>
       </c>
       <c r="G86" s="35">
-        <v>89.052412971881907</v>
+        <v>89.212364317724493</v>
       </c>
       <c r="H86" s="36">
-        <v>49.745794353051203</v>
+        <v>50.817263249507697</v>
       </c>
       <c r="I86" s="35">
-        <v>275.18110000000001</v>
+        <v>274.9588</v>
       </c>
       <c r="J86" s="35">
         <v>127.51390000000001</v>
       </c>
       <c r="K86" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L86" s="35">
-        <v>497.29329999999999</v>
+        <v>485.1764</v>
       </c>
       <c r="M86" s="35">
         <v>8.9688999999999997</v>
       </c>
       <c r="N86" s="35">
-        <v>79.86</v>
+        <v>79.859200000000001</v>
       </c>
       <c r="O86" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P86" s="36">
         <v>309.10039999999998</v>
       </c>
       <c r="Q86" s="35">
-        <v>3645.3150000000001</v>
+        <v>3548.8910000000001</v>
       </c>
       <c r="R86" s="35">
         <v>3599.42</v>
@@ -10212,25 +10220,25 @@
         <v>863</v>
       </c>
       <c r="T86" s="35">
-        <v>18822.43</v>
+        <v>16423.433000000001</v>
       </c>
       <c r="U86" s="35">
-        <v>599.49800000000005</v>
+        <v>556.69799999999998</v>
       </c>
       <c r="V86" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W86" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X86" s="35">
         <v>464</v>
       </c>
       <c r="Y86" s="36">
-        <v>114692.37300000001</v>
+        <v>114167.773</v>
       </c>
       <c r="Z86" s="35">
-        <v>7784.34</v>
+        <v>7621.28</v>
       </c>
       <c r="AA86" s="35">
         <v>9572.09</v>
@@ -10239,51 +10247,51 @@
         <v>5384.88</v>
       </c>
       <c r="AC86" s="35">
-        <v>79280.25</v>
+        <v>66485.289999999994</v>
       </c>
       <c r="AD86" s="35">
-        <v>1580.48</v>
+        <v>1502.17</v>
       </c>
       <c r="AE86" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF86" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG86" s="35">
         <v>422.45</v>
       </c>
       <c r="AH86" s="36">
-        <v>377789.47</v>
+        <v>375573.38</v>
       </c>
     </row>
     <row r="87" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A87" s="33" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B87" s="27" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C87" s="35">
-        <v>2522822.9010638301</v>
+        <v>2528102.3050826099</v>
       </c>
       <c r="D87" s="35">
-        <v>1059433.3959910399</v>
+        <v>1064290.4216535999</v>
       </c>
       <c r="E87" s="35">
-        <v>1463389.50507279</v>
+        <v>1463811.8834290099</v>
       </c>
       <c r="F87" s="35">
-        <v>95.417576157978402</v>
+        <v>95.427118570111404</v>
       </c>
       <c r="G87" s="35">
-        <v>99.423355027378406</v>
+        <v>99.426253178198493</v>
       </c>
       <c r="H87" s="36">
-        <v>92.713280154685407</v>
+        <v>92.715720930863498</v>
       </c>
       <c r="I87" s="35">
-        <v>975.09780000000001</v>
+        <v>975.14290000000005</v>
       </c>
       <c r="J87" s="35">
         <v>75.212000000000003</v>
@@ -10298,7 +10306,7 @@
         <v>4.8129</v>
       </c>
       <c r="N87" s="35">
-        <v>585.02020000000005</v>
+        <v>585.03729999999996</v>
       </c>
       <c r="O87" s="35">
         <v>13.173500000000001</v>
@@ -10307,22 +10315,22 @@
         <v>827.2998</v>
       </c>
       <c r="Q87" s="35">
-        <v>68326.452000000005</v>
+        <v>68398.551999999996</v>
       </c>
       <c r="R87" s="35">
-        <v>43454.769</v>
+        <v>43457.749000000003</v>
       </c>
       <c r="S87" s="35">
         <v>4511.4399999999996</v>
       </c>
       <c r="T87" s="35">
-        <v>133566.72</v>
+        <v>133793.92000000001</v>
       </c>
       <c r="U87" s="35">
-        <v>15242.346</v>
+        <v>15209.846</v>
       </c>
       <c r="V87" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W87" s="35">
         <v>22777</v>
@@ -10331,25 +10339,25 @@
         <v>8070.6840000000002</v>
       </c>
       <c r="Y87" s="36">
-        <v>596672.38600000006</v>
+        <v>599989.28599999996</v>
       </c>
       <c r="Z87" s="35">
-        <v>85426.92</v>
+        <v>85528.71</v>
       </c>
       <c r="AA87" s="35">
-        <v>75084.58</v>
+        <v>75084.539999999994</v>
       </c>
       <c r="AB87" s="35">
         <v>29351.17</v>
       </c>
       <c r="AC87" s="35">
-        <v>448941.99</v>
+        <v>449724.37</v>
       </c>
       <c r="AD87" s="35">
-        <v>43630.48</v>
+        <v>43513.11</v>
       </c>
       <c r="AE87" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF87" s="35">
         <v>138678.95000000001</v>
@@ -10358,15 +10366,15 @@
         <v>7516.3</v>
       </c>
       <c r="AH87" s="36">
-        <v>2369444.54</v>
+        <v>2388852.44</v>
       </c>
     </row>
     <row r="88" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A88" s="33" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B88" s="27" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C88" s="35">
         <v>61950.326366309098</v>
@@ -10390,13 +10398,13 @@
         <v>5.9299999999999999E-2</v>
       </c>
       <c r="J88" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K88" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L88" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M88" s="35">
         <v>3.5499999999999997E-2</v>
@@ -10405,10 +10413,10 @@
         <v>6.7257999999999996</v>
       </c>
       <c r="O88" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P88" s="36" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q88" s="35">
         <v>6230.48</v>
@@ -10417,7 +10425,7 @@
         <v>2531.8609999999999</v>
       </c>
       <c r="S88" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T88" s="35">
         <v>1616.817</v>
@@ -10426,7 +10434,7 @@
         <v>356.78500000000003</v>
       </c>
       <c r="V88" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W88" s="35">
         <v>1940</v>
@@ -10444,7 +10452,7 @@
         <v>339.13</v>
       </c>
       <c r="AB88" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC88" s="35">
         <v>3694.91</v>
@@ -10453,7 +10461,7 @@
         <v>841.77</v>
       </c>
       <c r="AE88" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF88" s="35">
         <v>10740.25</v>
@@ -10467,31 +10475,31 @@
     </row>
     <row r="89" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A89" s="33" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B89" s="27" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C89" s="35">
-        <v>2462123.33962494</v>
+        <v>2433266.9895584299</v>
       </c>
       <c r="D89" s="35">
-        <v>1662081.3129799</v>
+        <v>1643773.69934272</v>
       </c>
       <c r="E89" s="35">
-        <v>799854.30083502701</v>
+        <v>789305.564405691</v>
       </c>
       <c r="F89" s="35">
-        <v>99.921042533740803</v>
+        <v>99.925446037811597</v>
       </c>
       <c r="G89" s="35">
-        <v>99.963796730753003</v>
+        <v>99.963771212553496</v>
       </c>
       <c r="H89" s="36">
-        <v>99.808912663543694</v>
+        <v>99.822003541807206</v>
       </c>
       <c r="I89" s="35">
-        <v>986.51580000000104</v>
+        <v>986.47069999999997</v>
       </c>
       <c r="J89" s="35">
         <v>638.0258</v>
@@ -10506,7 +10514,7 @@
         <v>67.217600000000004</v>
       </c>
       <c r="N89" s="35">
-        <v>2249.431</v>
+        <v>2005.9268999999999</v>
       </c>
       <c r="O89" s="35">
         <v>1.8058000000000001</v>
@@ -10515,84 +10523,84 @@
         <v>979.92669999999998</v>
       </c>
       <c r="Q89" s="35">
-        <v>288196.799</v>
+        <v>286501.70199999999</v>
       </c>
       <c r="R89" s="35">
-        <v>327087.402</v>
+        <v>323801.89500000002</v>
       </c>
       <c r="S89" s="35">
-        <v>2956.998</v>
+        <v>2956.9479999999999</v>
       </c>
       <c r="T89" s="35">
-        <v>629378.799</v>
+        <v>620782.72400000005</v>
       </c>
       <c r="U89" s="35">
-        <v>51586.69</v>
+        <v>51421.224999999999</v>
       </c>
       <c r="V89" s="35">
         <v>6.5</v>
       </c>
       <c r="W89" s="35">
-        <v>88295.5</v>
+        <v>86995.5</v>
       </c>
       <c r="X89" s="35">
-        <v>35439.5</v>
+        <v>35348</v>
       </c>
       <c r="Y89" s="36">
-        <v>1777153.112</v>
+        <v>1764453.0549999999</v>
       </c>
       <c r="Z89" s="35">
-        <v>314958.05</v>
+        <v>312753.7</v>
       </c>
       <c r="AA89" s="35">
-        <v>601610.42000000004</v>
+        <v>594080.80000000005</v>
       </c>
       <c r="AB89" s="35">
         <v>17077.32</v>
       </c>
       <c r="AC89" s="35">
-        <v>2340282.33</v>
+        <v>2316769.5299999998</v>
       </c>
       <c r="AD89" s="35">
-        <v>211438.07999999999</v>
+        <v>210946.88</v>
       </c>
       <c r="AE89" s="35">
         <v>6.85</v>
       </c>
       <c r="AF89" s="35">
-        <v>647772.82999999996</v>
+        <v>636306.43000000005</v>
       </c>
       <c r="AG89" s="35">
-        <v>38066.839999999997</v>
+        <v>37746.699999999997</v>
       </c>
       <c r="AH89" s="36">
-        <v>7330707.3700000001</v>
+        <v>7289185.21</v>
       </c>
     </row>
     <row r="90" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="33" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B90" s="37" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C90" s="38">
-        <v>1180898.57700191</v>
+        <v>1204475.52304965</v>
       </c>
       <c r="D90" s="38">
-        <v>964256.95208691002</v>
+        <v>977707.54006152903</v>
       </c>
       <c r="E90" s="38">
-        <v>216641.62491499999</v>
+        <v>226767.98298811799</v>
       </c>
       <c r="F90" s="38">
-        <v>100.000000000162</v>
+        <v>99.988252204163601</v>
       </c>
       <c r="G90" s="38">
-        <v>100.000000000076</v>
+        <v>99.999054632731003</v>
       </c>
       <c r="H90" s="39">
-        <v>100.000000000545</v>
+        <v>99.941704369012996</v>
       </c>
       <c r="I90" s="38">
         <v>187.4401</v>
@@ -10610,78 +10618,78 @@
         <v>1.5551999999999999</v>
       </c>
       <c r="N90" s="38">
-        <v>262.6687</v>
+        <v>506.15570000000002</v>
       </c>
       <c r="O90" s="38" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P90" s="39">
         <v>483.15839999999997</v>
       </c>
       <c r="Q90" s="38">
-        <v>342423.36700000003</v>
+        <v>344046.364</v>
       </c>
       <c r="R90" s="38">
-        <v>353394.61099999998</v>
+        <v>356677.13799999998</v>
       </c>
       <c r="S90" s="38">
-        <v>5718.9229999999998</v>
+        <v>5718.973</v>
       </c>
       <c r="T90" s="38">
-        <v>393400.73499999999</v>
+        <v>401769.61</v>
       </c>
       <c r="U90" s="38">
-        <v>63960.559000000001</v>
+        <v>64158.523999999998</v>
       </c>
       <c r="V90" s="38">
         <v>517.54100000000005</v>
       </c>
       <c r="W90" s="38">
-        <v>285404.09000000003</v>
+        <v>286704.09000000003</v>
       </c>
       <c r="X90" s="38">
-        <v>74714.240000000005</v>
+        <v>74805.740000000005</v>
       </c>
       <c r="Y90" s="39">
-        <v>1713225.237</v>
+        <v>1722608.3940000001</v>
       </c>
       <c r="Z90" s="38">
-        <v>418727.49</v>
+        <v>420830.05</v>
       </c>
       <c r="AA90" s="38">
-        <v>898011.45</v>
+        <v>905541.11</v>
       </c>
       <c r="AB90" s="38">
         <v>43020.67</v>
       </c>
       <c r="AC90" s="38">
-        <v>1359447.47</v>
+        <v>1382177.89</v>
       </c>
       <c r="AD90" s="38">
-        <v>322988.77</v>
+        <v>323597.34000000003</v>
       </c>
       <c r="AE90" s="38">
         <v>950.62</v>
       </c>
       <c r="AF90" s="38">
-        <v>1850004.26</v>
+        <v>1861470.66</v>
       </c>
       <c r="AG90" s="38">
-        <v>66269.59</v>
+        <v>66589.73</v>
       </c>
       <c r="AH90" s="39">
-        <v>6042844.6699999999</v>
+        <v>6064958.9299999997</v>
       </c>
     </row>
     <row r="91" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A91" s="33" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B91" s="40" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C91" s="41">
-        <v>271821.58946286701</v>
+        <v>271821.58946286602</v>
       </c>
       <c r="D91" s="41">
         <v>173667.11950613401</v>
@@ -10705,7 +10713,7 @@
         <v>0.83679999999999999</v>
       </c>
       <c r="K91" s="41" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L91" s="41">
         <v>380.72289999999998</v>
@@ -10717,7 +10725,7 @@
         <v>189.01410000000001</v>
       </c>
       <c r="O91" s="41" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P91" s="42">
         <v>740.88139999999999</v>
@@ -10738,13 +10746,13 @@
         <v>884.91399999999999</v>
       </c>
       <c r="V91" s="41" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W91" s="41" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X91" s="41" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y91" s="42">
         <v>12384.056</v>
@@ -10756,7 +10764,7 @@
         <v>757.93</v>
       </c>
       <c r="AB91" s="41" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC91" s="41">
         <v>82997.47</v>
@@ -10765,13 +10773,13 @@
         <v>1080.1600000000001</v>
       </c>
       <c r="AE91" s="41" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF91" s="41" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG91" s="41" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH91" s="42">
         <v>33078.120000000003</v>
@@ -10779,10 +10787,10 @@
     </row>
     <row r="92" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A92" s="33" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B92" s="27" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C92" s="35">
         <v>316388.182864859</v>
@@ -10809,7 +10817,7 @@
         <v>0.34089999999999998</v>
       </c>
       <c r="K92" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L92" s="35">
         <v>37.020899999999997</v>
@@ -10821,7 +10829,7 @@
         <v>16.305099999999999</v>
       </c>
       <c r="O92" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P92" s="36">
         <v>476.69330000000002</v>
@@ -10833,7 +10841,7 @@
         <v>4.3789999999999996</v>
       </c>
       <c r="S92" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T92" s="35">
         <v>16494.718000000001</v>
@@ -10842,13 +10850,13 @@
         <v>217.898</v>
       </c>
       <c r="V92" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W92" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X92" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y92" s="36">
         <v>33263.326000000001</v>
@@ -10860,7 +10868,7 @@
         <v>7.05</v>
       </c>
       <c r="AB92" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC92" s="35">
         <v>66256.179999999993</v>
@@ -10869,13 +10877,13 @@
         <v>393.32</v>
       </c>
       <c r="AE92" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF92" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG92" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH92" s="36">
         <v>118158.08</v>
@@ -10883,10 +10891,10 @@
     </row>
     <row r="93" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A93" s="33" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B93" s="27" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C93" s="35">
         <v>3486.2115603369798</v>
@@ -10910,25 +10918,25 @@
         <v>16.410499999999999</v>
       </c>
       <c r="J93" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K93" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L93" s="35">
         <v>13.5595</v>
       </c>
       <c r="M93" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N93" s="35">
         <v>4.8500000000000001E-2</v>
       </c>
       <c r="O93" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P93" s="36" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q93" s="35">
         <v>96.361999999999995</v>
@@ -10937,7 +10945,7 @@
         <v>44.43</v>
       </c>
       <c r="S93" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T93" s="35">
         <v>64.507999999999996</v>
@@ -10946,13 +10954,13 @@
         <v>90.65</v>
       </c>
       <c r="V93" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W93" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X93" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y93" s="36">
         <v>962.005</v>
@@ -10964,7 +10972,7 @@
         <v>87.92</v>
       </c>
       <c r="AB93" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC93" s="35">
         <v>121.89</v>
@@ -10973,13 +10981,13 @@
         <v>409</v>
       </c>
       <c r="AE93" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF93" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG93" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH93" s="36">
         <v>3143.35</v>
@@ -10987,40 +10995,40 @@
     </row>
     <row r="94" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A94" s="33" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B94" s="27" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C94" s="35">
-        <v>52252.4403313152</v>
+        <v>50774.971331315202</v>
       </c>
       <c r="D94" s="35">
-        <v>36620.623028991104</v>
+        <v>35298.199625891102</v>
       </c>
       <c r="E94" s="35">
-        <v>15444.091492306099</v>
+        <v>15289.0458954061</v>
       </c>
       <c r="F94" s="35">
-        <v>83.510155361614196</v>
+        <v>83.111364071316302</v>
       </c>
       <c r="G94" s="35">
-        <v>95.733962234461401</v>
+        <v>95.581200300802706</v>
       </c>
       <c r="H94" s="36">
-        <v>63.509738900563299</v>
+        <v>63.275589943868503</v>
       </c>
       <c r="I94" s="35">
         <v>43.866399999999999</v>
       </c>
       <c r="J94" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K94" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L94" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M94" s="35">
         <v>7.7809999999999997</v>
@@ -11029,16 +11037,16 @@
         <v>196.09299999999999</v>
       </c>
       <c r="O94" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P94" s="36">
         <v>5.9183000000000003</v>
       </c>
       <c r="Q94" s="35">
-        <v>1227.461</v>
+        <v>1217.7049999999999</v>
       </c>
       <c r="R94" s="35">
-        <v>506.38200000000001</v>
+        <v>505.702</v>
       </c>
       <c r="S94" s="35">
         <v>56</v>
@@ -11053,19 +11061,19 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="W94" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X94" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y94" s="36">
-        <v>37634.775000000001</v>
+        <v>28871.775000000001</v>
       </c>
       <c r="Z94" s="35">
-        <v>1310.95</v>
+        <v>1300.95</v>
       </c>
       <c r="AA94" s="35">
-        <v>1430.25</v>
+        <v>1429.05</v>
       </c>
       <c r="AB94" s="35">
         <v>400</v>
@@ -11080,21 +11088,21 @@
         <v>0.01</v>
       </c>
       <c r="AF94" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG94" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH94" s="36">
-        <v>145086.9</v>
+        <v>111299.07</v>
       </c>
     </row>
     <row r="95" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A95" s="33" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B95" s="27" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C95" s="35">
         <v>132470.93971391401</v>
@@ -11118,10 +11126,10 @@
         <v>287.56319999999999</v>
       </c>
       <c r="J95" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K95" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L95" s="35">
         <v>359.37200000000001</v>
@@ -11133,7 +11141,7 @@
         <v>1.5434000000000001</v>
       </c>
       <c r="O95" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P95" s="36">
         <v>5.3E-3</v>
@@ -11154,13 +11162,13 @@
         <v>694.73500000000001</v>
       </c>
       <c r="V95" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W95" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X95" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y95" s="36">
         <v>4793.174</v>
@@ -11172,7 +11180,7 @@
         <v>617.94000000000005</v>
       </c>
       <c r="AB95" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC95" s="35">
         <v>40137.97</v>
@@ -11181,13 +11189,13 @@
         <v>920.56</v>
       </c>
       <c r="AE95" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF95" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG95" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH95" s="36">
         <v>11099.06</v>
@@ -11195,10 +11203,10 @@
     </row>
     <row r="96" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="33" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B96" s="37" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C96" s="38">
         <v>187035.46156190499</v>
@@ -11249,7 +11257,7 @@
         <v>814.17399999999998</v>
       </c>
       <c r="S96" s="38" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T96" s="38">
         <v>38103.203999999998</v>
@@ -11258,7 +11266,7 @@
         <v>388.07799999999997</v>
       </c>
       <c r="V96" s="38" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W96" s="38">
         <v>407.5</v>
@@ -11276,7 +11284,7 @@
         <v>1883.5</v>
       </c>
       <c r="AB96" s="38" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC96" s="38">
         <v>150771.72</v>
@@ -11285,13 +11293,13 @@
         <v>832.52</v>
       </c>
       <c r="AE96" s="38" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF96" s="38">
         <v>2210.11</v>
       </c>
       <c r="AG96" s="38" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH96" s="39">
         <v>220029.21</v>
@@ -11299,141 +11307,141 @@
     </row>
     <row r="97" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A97" s="33" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B97" s="40" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C97" s="41">
-        <v>451958.15061388002</v>
+        <v>395922.05445362598</v>
       </c>
       <c r="D97" s="41">
-        <v>302836.04857872898</v>
+        <v>263086.29549678601</v>
       </c>
       <c r="E97" s="41">
-        <v>149122.102035152</v>
+        <v>132835.75895684</v>
       </c>
       <c r="F97" s="41">
-        <v>45.333294987766102</v>
+        <v>49.483357342189002</v>
       </c>
       <c r="G97" s="41">
-        <v>76.166975088893807</v>
+        <v>81.817860672497901</v>
       </c>
       <c r="H97" s="42">
-        <v>24.879707876045501</v>
+        <v>27.7573674354215</v>
       </c>
       <c r="I97" s="41">
-        <v>423.92660000000001</v>
+        <v>298.43849999999998</v>
       </c>
       <c r="J97" s="41">
         <v>0.83679999999999999</v>
       </c>
       <c r="K97" s="41" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L97" s="41">
         <v>428.55689999999998</v>
       </c>
       <c r="M97" s="41">
-        <v>26.526199999999999</v>
+        <v>8.9954000000000001</v>
       </c>
       <c r="N97" s="41">
-        <v>197.77950000000001</v>
+        <v>197.2817</v>
       </c>
       <c r="O97" s="41" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P97" s="42">
-        <v>812.47069999999997</v>
+        <v>839.84550000000002</v>
       </c>
       <c r="Q97" s="41">
-        <v>974.53700000000003</v>
+        <v>794.97199999999998</v>
       </c>
       <c r="R97" s="41">
-        <v>703.77200000000005</v>
+        <v>698.29700000000003</v>
       </c>
       <c r="S97" s="41">
         <v>870.3</v>
       </c>
       <c r="T97" s="41">
-        <v>25589.782999999999</v>
+        <v>20977.41</v>
       </c>
       <c r="U97" s="41">
-        <v>1162.818</v>
+        <v>942.65800000000002</v>
       </c>
       <c r="V97" s="41" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W97" s="41" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X97" s="41" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y97" s="42">
-        <v>37456.309000000001</v>
+        <v>34088.777999999998</v>
       </c>
       <c r="Z97" s="41">
-        <v>1106.3800000000001</v>
+        <v>978.45</v>
       </c>
       <c r="AA97" s="41">
-        <v>809.31</v>
+        <v>792.19</v>
       </c>
       <c r="AB97" s="41">
         <v>5384.88</v>
       </c>
       <c r="AC97" s="41">
-        <v>106700.88</v>
+        <v>82222</v>
       </c>
       <c r="AD97" s="41">
-        <v>1566.15</v>
+        <v>1447.25</v>
       </c>
       <c r="AE97" s="41" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF97" s="41" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG97" s="41" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH97" s="42">
-        <v>103676.65</v>
+        <v>94837.87</v>
       </c>
     </row>
     <row r="98" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="33" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B98" s="37" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C98" s="38">
-        <v>697204.12000443495</v>
+        <v>576436.72602103697</v>
       </c>
       <c r="D98" s="38">
-        <v>358188.69327008998</v>
+        <v>293498.14509611099</v>
       </c>
       <c r="E98" s="38">
-        <v>339015.42673434602</v>
+        <v>282938.58092492598</v>
       </c>
       <c r="F98" s="38">
-        <v>85.701903123841305</v>
+        <v>85.375253216848293</v>
       </c>
       <c r="G98" s="38">
-        <v>96.117280686305904</v>
+        <v>95.971476671929906</v>
       </c>
       <c r="H98" s="39">
-        <v>76.897895525286799</v>
+        <v>76.601971627348902</v>
       </c>
       <c r="I98" s="38">
-        <v>260.12819999999999</v>
+        <v>239.83609999999999</v>
       </c>
       <c r="J98" s="38">
         <v>8.2035999999999998</v>
       </c>
       <c r="K98" s="38" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L98" s="38">
         <v>655.28880000000004</v>
@@ -11442,58 +11450,58 @@
         <v>9.74E-2</v>
       </c>
       <c r="N98" s="38">
-        <v>157.607</v>
+        <v>145.67789999999999</v>
       </c>
       <c r="O98" s="38">
         <v>5.5076999999999998</v>
       </c>
       <c r="P98" s="39">
-        <v>807.42610000000002</v>
+        <v>775.60979999999995</v>
       </c>
       <c r="Q98" s="38">
-        <v>2975.4079999999999</v>
+        <v>2650.8240000000001</v>
       </c>
       <c r="R98" s="38">
-        <v>2154.2950000000001</v>
+        <v>2153.2710000000002</v>
       </c>
       <c r="S98" s="38">
         <v>297.44</v>
       </c>
       <c r="T98" s="38">
-        <v>61718.625</v>
+        <v>58261.930999999997</v>
       </c>
       <c r="U98" s="38">
-        <v>2157.4090000000001</v>
+        <v>2150.7040000000002</v>
       </c>
       <c r="V98" s="38" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W98" s="38">
         <v>2162</v>
       </c>
       <c r="X98" s="38">
-        <v>1280</v>
+        <v>1040</v>
       </c>
       <c r="Y98" s="39">
-        <v>186733.53599999999</v>
+        <v>156040.31899999999</v>
       </c>
       <c r="Z98" s="38">
-        <v>4703.8900000000003</v>
+        <v>3768.16</v>
       </c>
       <c r="AA98" s="38">
-        <v>4725.32</v>
+        <v>4724.08</v>
       </c>
       <c r="AB98" s="38">
         <v>1748.16</v>
       </c>
       <c r="AC98" s="38">
-        <v>209188.19</v>
+        <v>202220.62</v>
       </c>
       <c r="AD98" s="38">
-        <v>8535.74</v>
+        <v>8502.26</v>
       </c>
       <c r="AE98" s="38" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF98" s="38">
         <v>16865</v>
@@ -11502,7 +11510,7 @@
         <v>9.9</v>
       </c>
       <c r="AH98" s="39">
-        <v>699782.07</v>
+        <v>568966.93000000005</v>
       </c>
     </row>
     <row r="99" spans="1:34" x14ac:dyDescent="0.35">
@@ -11543,7 +11551,7 @@
     </row>
     <row r="100" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C100" s="45"/>
       <c r="D100" s="45"/>
@@ -11580,7 +11588,7 @@
     </row>
     <row r="101" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C101" s="45"/>
       <c r="D101" s="45"/>
@@ -11617,7 +11625,7 @@
     </row>
     <row r="102" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C102" s="45"/>
       <c r="D102" s="45"/>
@@ -11654,7 +11662,7 @@
     </row>
     <row r="103" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C103" s="45"/>
       <c r="D103" s="45"/>
@@ -11691,7 +11699,7 @@
     </row>
     <row r="104" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C104" s="45"/>
       <c r="D104" s="45"/>
@@ -11728,7 +11736,7 @@
     </row>
     <row r="105" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C105" s="45"/>
       <c r="D105" s="45"/>
@@ -11799,7 +11807,7 @@
     </row>
     <row r="107" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B107" s="46" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C107" s="45"/>
       <c r="D107" s="45"/>
@@ -11871,7 +11879,7 @@
     </row>
     <row r="109" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B109" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C109" s="45"/>
       <c r="D109" s="45"/>
@@ -11908,7 +11916,7 @@
     </row>
     <row r="110" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C110" s="45"/>
       <c r="D110" s="45"/>
@@ -11980,7 +11988,7 @@
     </row>
     <row r="112" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C112" s="45"/>
       <c r="D112" s="45"/>
@@ -12017,7 +12025,7 @@
     </row>
     <row r="113" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C113" s="45"/>
       <c r="D113" s="45"/>
@@ -12089,11 +12097,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{B5C1C823-236B-49DE-9DCD-749941FF9DE6}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{29B5AA5D-E787-4BBB-A789-A680A425681B}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{46EE564F-E960-4A5C-A1BA-FE1F6767331C}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{9829286A-AE1F-40EC-AC74-4BC850039BBF}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{2A4DA54F-C1B5-4CF0-97D3-FD736186B0B8}"/>
+    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{4C3F103D-E5F0-48F8-B396-27B7B6A1F2C4}"/>
+    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{6DED8BFD-BD8B-4898-9FCD-1997B8646BCD}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{966E5C27-D6D2-478E-9389-75B7F7A71218}"/>
+    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{B1F684D6-2E9D-43AD-A83C-56AF0DE8AD01}"/>
+    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{2148A139-3F22-48FD-A957-93097829808B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="0" orientation="portrait" r:id="rId2"/>

--- a/AfDD_2023_Annex_Table_Tab26.xlsx
+++ b/AfDD_2023_Annex_Table_Tab26.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA4E2FF5-77BB-4491-9553-E59205FDEFDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{470C1CD5-41D3-4537-ABEB-A39EBE42680B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{5FF93319-900B-4C8E-91F8-5F104330B7B2}"/>
+    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{44DED058-72FC-4DFA-A73D-9B3174477752}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab26" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1444" uniqueCount="199">
   <si>
     <t>Table 26: Electricity production and sustainable energy</t>
   </si>
@@ -621,16 +621,19 @@
     <t>If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022</t>
   </si>
   <si>
-    <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details.</t>
-  </si>
-  <si>
-    <t>To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators.</t>
-  </si>
-  <si>
     <t>To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here.</t>
   </si>
   <si>
     <t>To download the entire dataset as a flat file in compressed CSV form, click here.</t>
+  </si>
+  <si>
+    <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details, click here.</t>
+  </si>
+  <si>
+    <t>To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators, click here.</t>
+  </si>
+  <si>
+    <t>To see the full list of sources used in the Statistical Annex, click here.</t>
   </si>
 </sst>
 </file>
@@ -1373,7 +1376,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C956370-C32C-4AAB-822B-B52805954AAB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0C05C2F-00ED-4C58-B208-00211AB535D0}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -11879,7 +11882,7 @@
     </row>
     <row r="109" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B109" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C109" s="45"/>
       <c r="D109" s="45"/>
@@ -11916,7 +11919,7 @@
     </row>
     <row r="110" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C110" s="45"/>
       <c r="D110" s="45"/>
@@ -11952,7 +11955,9 @@
       <c r="AH110" s="45"/>
     </row>
     <row r="111" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="B111" s="2"/>
+      <c r="B111" s="2" t="s">
+        <v>198</v>
+      </c>
       <c r="C111" s="45"/>
       <c r="D111" s="45"/>
       <c r="E111" s="45"/>
@@ -11988,7 +11993,7 @@
     </row>
     <row r="112" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C112" s="45"/>
       <c r="D112" s="45"/>
@@ -12025,7 +12030,7 @@
     </row>
     <row r="113" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C113" s="45"/>
       <c r="D113" s="45"/>
@@ -12097,13 +12102,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{4C3F103D-E5F0-48F8-B396-27B7B6A1F2C4}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{6DED8BFD-BD8B-4898-9FCD-1997B8646BCD}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{966E5C27-D6D2-478E-9389-75B7F7A71218}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{B1F684D6-2E9D-43AD-A83C-56AF0DE8AD01}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{2148A139-3F22-48FD-A957-93097829808B}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{F648CC5F-0CE3-49C5-82AE-B77860EE47EA}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{62DE6455-535D-4E33-AC93-638F772B6C3B}"/>
+    <hyperlink ref="B107" r:id="rId3" xr:uid="{EBA039E6-29AD-4D07-ABFE-D1128A25795E}"/>
+    <hyperlink ref="B113" r:id="rId4" xr:uid="{BCB194BE-B868-4796-8B8F-EB90D60B7984}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{D762F07D-99A4-4C38-BB3D-D03126767CEC}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{5C3CFC7F-6FD0-40F6-99E0-CB2A070BC406}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="48" fitToWidth="0" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="48" fitToWidth="0" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/AfDD_2023_Annex_Table_Tab26.xlsx
+++ b/AfDD_2023_Annex_Table_Tab26.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{470C1CD5-41D3-4537-ABEB-A39EBE42680B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1600DF0C-2770-487A-B507-89DD65788960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{44DED058-72FC-4DFA-A73D-9B3174477752}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" xr2:uid="{65A746A1-4E97-4E0A-80E2-AF491495192B}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab26" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab26'!$A$2:$X$98</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab26'!$A$1:$K$98</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1376,7 +1376,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0C05C2F-00ED-4C58-B208-00211AB535D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{215EB7FF-81B5-4DA6-9DED-320CA7DCD98E}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1384,14 +1384,14 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="34" width="12.36328125" style="47" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="34" width="12.33203125" style="47" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1428,7 +1428,7 @@
       <c r="AG1" s="3"/>
       <c r="AH1" s="3"/>
     </row>
-    <row r="2" spans="1:34" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:34" ht="61.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1532,7 +1532,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>35</v>
       </c>
@@ -1636,7 +1636,7 @@
         <v>4996.16</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>38</v>
       </c>
@@ -1740,7 +1740,7 @@
         <v>2273.5</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>40</v>
       </c>
@@ -1844,7 +1844,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>42</v>
       </c>
@@ -1948,7 +1948,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>44</v>
       </c>
@@ -2052,7 +2052,7 @@
         <v>518.04999999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>46</v>
       </c>
@@ -2156,7 +2156,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>48</v>
       </c>
@@ -2260,7 +2260,7 @@
         <v>158.25</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>50</v>
       </c>
@@ -2364,7 +2364,7 @@
         <v>187686.32</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>52</v>
       </c>
@@ -2468,7 +2468,7 @@
         <v>2216.09</v>
       </c>
     </row>
-    <row r="12" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
         <v>54</v>
       </c>
@@ -2572,7 +2572,7 @@
         <v>2477.3000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="18" t="s">
         <v>56</v>
       </c>
@@ -2676,7 +2676,7 @@
         <v>200880.73</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>58</v>
       </c>
@@ -2780,7 +2780,7 @@
         <v>118.02</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>60</v>
       </c>
@@ -2884,7 +2884,7 @@
         <v>1336.15</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>62</v>
       </c>
@@ -2988,7 +2988,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>64</v>
       </c>
@@ -3092,7 +3092,7 @@
         <v>325.64</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>66</v>
       </c>
@@ -3196,7 +3196,7 @@
         <v>1573.4</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>68</v>
       </c>
@@ -3300,7 +3300,7 @@
         <v>112.03</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>70</v>
       </c>
@@ -3404,7 +3404,7 @@
         <v>937.07</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>72</v>
       </c>
@@ -3508,7 +3508,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="22" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
         <v>74</v>
       </c>
@@ -3612,7 +3612,7 @@
         <v>95.53</v>
       </c>
     </row>
-    <row r="23" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="18" t="s">
         <v>56</v>
       </c>
@@ -3716,7 +3716,7 @@
         <v>5343.04</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>77</v>
       </c>
@@ -3820,7 +3820,7 @@
         <v>50.12</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>79</v>
       </c>
@@ -3924,7 +3924,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>81</v>
       </c>
@@ -4028,7 +4028,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>83</v>
       </c>
@@ -4132,7 +4132,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
         <v>85</v>
       </c>
@@ -4236,7 +4236,7 @@
         <v>2409.1799999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
         <v>87</v>
       </c>
@@ -4340,7 +4340,7 @@
         <v>1018.48</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>89</v>
       </c>
@@ -4444,7 +4444,7 @@
         <v>2194</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
         <v>91</v>
       </c>
@@ -4548,7 +4548,7 @@
         <v>339.44</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
         <v>93</v>
       </c>
@@ -4652,7 +4652,7 @@
         <v>430.13</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>95</v>
       </c>
@@ -4756,7 +4756,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
         <v>97</v>
       </c>
@@ -4860,7 +4860,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
         <v>99</v>
       </c>
@@ -4964,7 +4964,7 @@
         <v>5408.72</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
         <v>101</v>
       </c>
@@ -5068,7 +5068,7 @@
         <v>4558.2</v>
       </c>
     </row>
-    <row r="37" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="8" t="s">
         <v>103</v>
       </c>
@@ -5172,7 +5172,7 @@
         <v>59.03</v>
       </c>
     </row>
-    <row r="38" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="18" t="s">
         <v>56</v>
       </c>
@@ -5276,7 +5276,7 @@
         <v>18734.3</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
         <v>106</v>
       </c>
@@ -5380,7 +5380,7 @@
         <v>78691</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
         <v>108</v>
       </c>
@@ -5484,7 +5484,7 @@
         <v>173613.87</v>
       </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
         <v>110</v>
       </c>
@@ -5588,7 +5588,7 @@
         <v>33711</v>
       </c>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
         <v>112</v>
       </c>
@@ -5692,7 +5692,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
         <v>114</v>
       </c>
@@ -5796,7 +5796,7 @@
         <v>31352.73</v>
       </c>
     </row>
-    <row r="44" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="8" t="s">
         <v>116</v>
       </c>
@@ -5900,7 +5900,7 @@
         <v>20326.900000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="18" t="s">
         <v>56</v>
       </c>
@@ -6004,7 +6004,7 @@
         <v>338794.5</v>
       </c>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
         <v>119</v>
       </c>
@@ -6108,7 +6108,7 @@
         <v>1340.3</v>
       </c>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
         <v>121</v>
       </c>
@@ -6212,7 +6212,7 @@
         <v>528.21</v>
       </c>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
         <v>123</v>
       </c>
@@ -6316,7 +6316,7 @@
         <v>348.79</v>
       </c>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
         <v>125</v>
       </c>
@@ -6420,7 +6420,7 @@
         <v>7139.4</v>
       </c>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
         <v>127</v>
       </c>
@@ -6524,7 +6524,7 @@
         <v>392.3</v>
       </c>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A51" s="8" t="s">
         <v>129</v>
       </c>
@@ -6628,7 +6628,7 @@
         <v>12820</v>
       </c>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
         <v>131</v>
       </c>
@@ -6732,7 +6732,7 @@
         <v>970.64</v>
       </c>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
         <v>133</v>
       </c>
@@ -6836,7 +6836,7 @@
         <v>24.78</v>
       </c>
     </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
         <v>135</v>
       </c>
@@ -6940,7 +6940,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A55" s="8" t="s">
         <v>137</v>
       </c>
@@ -7044,7 +7044,7 @@
         <v>1134.77</v>
       </c>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A56" s="8" t="s">
         <v>139</v>
       </c>
@@ -7148,7 +7148,7 @@
         <v>522.75</v>
       </c>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A57" s="8" t="s">
         <v>141</v>
       </c>
@@ -7252,7 +7252,7 @@
         <v>27042.32</v>
       </c>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A58" s="8" t="s">
         <v>143</v>
       </c>
@@ -7356,7 +7356,7 @@
         <v>3733.97</v>
       </c>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A59" s="8" t="s">
         <v>145</v>
       </c>
@@ -7460,7 +7460,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="60" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="8" t="s">
         <v>147</v>
       </c>
@@ -7564,7 +7564,7 @@
         <v>510.63</v>
       </c>
     </row>
-    <row r="61" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="18" t="s">
         <v>56</v>
       </c>
@@ -7668,7 +7668,7 @@
         <v>56686.86</v>
       </c>
     </row>
-    <row r="62" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="26" t="s">
         <v>56</v>
       </c>
@@ -7772,7 +7772,7 @@
         <v>620439.43000000005</v>
       </c>
     </row>
-    <row r="63" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="26" t="s">
         <v>56</v>
       </c>
@@ -7876,7 +7876,7 @@
         <v>15795377.34</v>
       </c>
     </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A64" s="33" t="s">
         <v>56</v>
       </c>
@@ -7980,7 +7980,7 @@
         <v>640463.35999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A65" s="33" t="s">
         <v>56</v>
       </c>
@@ -8084,7 +8084,7 @@
         <v>8044165.9299999997</v>
       </c>
     </row>
-    <row r="66" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="33" t="s">
         <v>56</v>
       </c>
@@ -8188,7 +8188,7 @@
         <v>16415816.77</v>
       </c>
     </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A67" s="33" t="s">
         <v>56</v>
       </c>
@@ -8292,7 +8292,7 @@
         <v>246689.36</v>
       </c>
     </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A68" s="33" t="s">
         <v>56</v>
       </c>
@@ -8396,7 +8396,7 @@
         <v>323820.25</v>
       </c>
     </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A69" s="33" t="s">
         <v>56</v>
       </c>
@@ -8500,7 +8500,7 @@
         <v>8175.9</v>
       </c>
     </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A70" s="33" t="s">
         <v>56</v>
       </c>
@@ -8604,7 +8604,7 @@
         <v>10678.64</v>
       </c>
     </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A71" s="33" t="s">
         <v>56</v>
       </c>
@@ -8708,7 +8708,7 @@
         <v>56686.86</v>
       </c>
     </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A72" s="33" t="s">
         <v>56</v>
       </c>
@@ -8812,7 +8812,7 @@
         <v>10143.93</v>
       </c>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A73" s="33" t="s">
         <v>56</v>
       </c>
@@ -8916,7 +8916,7 @@
         <v>209243.69</v>
       </c>
     </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A74" s="33" t="s">
         <v>56</v>
       </c>
@@ -9020,7 +9020,7 @@
         <v>165180.63</v>
       </c>
     </row>
-    <row r="75" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="33" t="s">
         <v>56</v>
       </c>
@@ -9124,7 +9124,7 @@
         <v>6019.26</v>
       </c>
     </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A76" s="33" t="s">
         <v>56</v>
       </c>
@@ -9228,7 +9228,7 @@
         <v>841852.34</v>
       </c>
     </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A77" s="33" t="s">
         <v>56</v>
       </c>
@@ -9332,7 +9332,7 @@
         <v>285988.90000000002</v>
       </c>
     </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A78" s="33" t="s">
         <v>56</v>
       </c>
@@ -9436,7 +9436,7 @@
         <v>1016408.92</v>
       </c>
     </row>
-    <row r="79" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="33" t="s">
         <v>56</v>
       </c>
@@ -9540,7 +9540,7 @@
         <v>5757357.8399999999</v>
       </c>
     </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A80" s="33" t="s">
         <v>56</v>
       </c>
@@ -9644,7 +9644,7 @@
         <v>123102.06</v>
       </c>
     </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A81" s="33" t="s">
         <v>56</v>
       </c>
@@ -9748,7 +9748,7 @@
         <v>2004169.31</v>
       </c>
     </row>
-    <row r="82" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A82" s="33" t="s">
         <v>56</v>
       </c>
@@ -9852,7 +9852,7 @@
         <v>497337.37</v>
       </c>
     </row>
-    <row r="83" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="33" t="s">
         <v>56</v>
       </c>
@@ -9956,7 +9956,7 @@
         <v>13791208.029999999</v>
       </c>
     </row>
-    <row r="84" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A84" s="33" t="s">
         <v>56</v>
       </c>
@@ -10060,7 +10060,7 @@
         <v>16635.78</v>
       </c>
     </row>
-    <row r="85" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A85" s="33" t="s">
         <v>56</v>
       </c>
@@ -10164,7 +10164,7 @@
         <v>28211.58</v>
       </c>
     </row>
-    <row r="86" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A86" s="33" t="s">
         <v>56</v>
       </c>
@@ -10268,7 +10268,7 @@
         <v>375573.38</v>
       </c>
     </row>
-    <row r="87" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A87" s="33" t="s">
         <v>56</v>
       </c>
@@ -10372,7 +10372,7 @@
         <v>2388852.44</v>
       </c>
     </row>
-    <row r="88" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A88" s="33" t="s">
         <v>56</v>
       </c>
@@ -10476,7 +10476,7 @@
         <v>227800.14</v>
       </c>
     </row>
-    <row r="89" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A89" s="33" t="s">
         <v>56</v>
       </c>
@@ -10580,7 +10580,7 @@
         <v>7289185.21</v>
       </c>
     </row>
-    <row r="90" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="33" t="s">
         <v>56</v>
       </c>
@@ -10684,7 +10684,7 @@
         <v>6064958.9299999997</v>
       </c>
     </row>
-    <row r="91" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A91" s="33" t="s">
         <v>56</v>
       </c>
@@ -10788,7 +10788,7 @@
         <v>33078.120000000003</v>
       </c>
     </row>
-    <row r="92" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A92" s="33" t="s">
         <v>56</v>
       </c>
@@ -10892,7 +10892,7 @@
         <v>118158.08</v>
       </c>
     </row>
-    <row r="93" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A93" s="33" t="s">
         <v>56</v>
       </c>
@@ -10996,7 +10996,7 @@
         <v>3143.35</v>
       </c>
     </row>
-    <row r="94" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A94" s="33" t="s">
         <v>56</v>
       </c>
@@ -11100,7 +11100,7 @@
         <v>111299.07</v>
       </c>
     </row>
-    <row r="95" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A95" s="33" t="s">
         <v>56</v>
       </c>
@@ -11204,7 +11204,7 @@
         <v>11099.06</v>
       </c>
     </row>
-    <row r="96" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="33" t="s">
         <v>56</v>
       </c>
@@ -11308,7 +11308,7 @@
         <v>220029.21</v>
       </c>
     </row>
-    <row r="97" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A97" s="33" t="s">
         <v>56</v>
       </c>
@@ -11412,7 +11412,7 @@
         <v>94837.87</v>
       </c>
     </row>
-    <row r="98" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="33" t="s">
         <v>56</v>
       </c>
@@ -11516,7 +11516,7 @@
         <v>568966.93000000005</v>
       </c>
     </row>
-    <row r="99" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A99" s="43"/>
       <c r="B99" s="44"/>
       <c r="C99" s="28"/>
@@ -11552,7 +11552,7 @@
       <c r="AG99" s="28"/>
       <c r="AH99" s="28"/>
     </row>
-    <row r="100" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>187</v>
       </c>
@@ -11589,7 +11589,7 @@
       <c r="AG100" s="45"/>
       <c r="AH100" s="45"/>
     </row>
-    <row r="101" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>188</v>
       </c>
@@ -11626,7 +11626,7 @@
       <c r="AG101" s="45"/>
       <c r="AH101" s="45"/>
     </row>
-    <row r="102" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>189</v>
       </c>
@@ -11663,7 +11663,7 @@
       <c r="AG102" s="45"/>
       <c r="AH102" s="45"/>
     </row>
-    <row r="103" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>190</v>
       </c>
@@ -11700,7 +11700,7 @@
       <c r="AG103" s="45"/>
       <c r="AH103" s="45"/>
     </row>
-    <row r="104" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>191</v>
       </c>
@@ -11737,7 +11737,7 @@
       <c r="AG104" s="45"/>
       <c r="AH104" s="45"/>
     </row>
-    <row r="105" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>192</v>
       </c>
@@ -11774,7 +11774,7 @@
       <c r="AG105" s="45"/>
       <c r="AH105" s="45"/>
     </row>
-    <row r="106" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:34" x14ac:dyDescent="0.3">
       <c r="C106" s="45"/>
       <c r="D106" s="45"/>
       <c r="E106" s="45"/>
@@ -11808,7 +11808,7 @@
       <c r="AG106" s="45"/>
       <c r="AH106" s="45"/>
     </row>
-    <row r="107" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:34" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B107" s="46" t="s">
         <v>193</v>
       </c>
@@ -11845,7 +11845,7 @@
       <c r="AG107" s="45"/>
       <c r="AH107" s="45"/>
     </row>
-    <row r="108" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:34" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B108" s="46"/>
       <c r="C108" s="45"/>
       <c r="D108" s="45"/>
@@ -11880,7 +11880,7 @@
       <c r="AG108" s="45"/>
       <c r="AH108" s="45"/>
     </row>
-    <row r="109" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B109" s="2" t="s">
         <v>196</v>
       </c>
@@ -11917,7 +11917,7 @@
       <c r="AG109" s="45"/>
       <c r="AH109" s="45"/>
     </row>
-    <row r="110" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B110" s="2" t="s">
         <v>197</v>
       </c>
@@ -11954,7 +11954,7 @@
       <c r="AG110" s="45"/>
       <c r="AH110" s="45"/>
     </row>
-    <row r="111" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B111" s="2" t="s">
         <v>198</v>
       </c>
@@ -11991,7 +11991,7 @@
       <c r="AG111" s="45"/>
       <c r="AH111" s="45"/>
     </row>
-    <row r="112" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B112" s="2" t="s">
         <v>194</v>
       </c>
@@ -12028,7 +12028,7 @@
       <c r="AG112" s="45"/>
       <c r="AH112" s="45"/>
     </row>
-    <row r="113" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B113" s="2" t="s">
         <v>195</v>
       </c>
@@ -12065,7 +12065,7 @@
       <c r="AG113" s="45"/>
       <c r="AH113" s="45"/>
     </row>
-    <row r="114" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B114" s="2"/>
       <c r="C114" s="45"/>
       <c r="D114" s="45"/>
@@ -12102,12 +12102,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{F648CC5F-0CE3-49C5-82AE-B77860EE47EA}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{62DE6455-535D-4E33-AC93-638F772B6C3B}"/>
-    <hyperlink ref="B107" r:id="rId3" xr:uid="{EBA039E6-29AD-4D07-ABFE-D1128A25795E}"/>
-    <hyperlink ref="B113" r:id="rId4" xr:uid="{BCB194BE-B868-4796-8B8F-EB90D60B7984}"/>
-    <hyperlink ref="B112" r:id="rId5" xr:uid="{D762F07D-99A4-4C38-BB3D-D03126767CEC}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{5C3CFC7F-6FD0-40F6-99E0-CB2A070BC406}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{B81CC834-378B-46F9-9149-0F2C24DD1498}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{707B205D-6E56-4BB9-83CE-B85912E64E47}"/>
+    <hyperlink ref="B107" r:id="rId3" xr:uid="{BCA77895-AE32-4936-9991-05E5C8BDACB3}"/>
+    <hyperlink ref="B113" r:id="rId4" xr:uid="{8FD87FD6-1EFB-4ACA-A9FE-9FF15C3CFC00}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{FAEF4610-641E-497F-82CD-04BC853534D2}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{66B46607-BA4E-41C4-810F-BFD2E4F24732}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="0" orientation="portrait" r:id="rId7"/>
